--- a/[1] Peakfinder Results/OVERVIEW.xlsx
+++ b/[1] Peakfinder Results/OVERVIEW.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L109"/>
+  <dimension ref="A1:L108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,31 +512,31 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>12.71</v>
+        <v>2.43</v>
       </c>
       <c r="E2" t="n">
-        <v>34.14</v>
+        <v>30.71</v>
       </c>
       <c r="F2" t="n">
-        <v>21.43</v>
+        <v>28.29</v>
       </c>
       <c r="G2" t="n">
-        <v>72.5</v>
+        <v>32.21</v>
       </c>
       <c r="H2" t="n">
-        <v>71.45</v>
+        <v>30.96</v>
       </c>
       <c r="I2" t="n">
-        <v>65.37</v>
+        <v>28.94</v>
       </c>
       <c r="J2" t="n">
-        <v>29.22</v>
+        <v>10.27</v>
       </c>
       <c r="K2" t="n">
-        <v>176.4</v>
+        <v>26.4</v>
       </c>
       <c r="L2" t="n">
-        <v>8086.59</v>
+        <v>1216.03</v>
       </c>
     </row>
     <row r="3">
@@ -556,31 +556,31 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>11.57</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>30.43</v>
+        <v>26.86</v>
       </c>
       <c r="F3" t="n">
-        <v>18.86</v>
+        <v>24.86</v>
       </c>
       <c r="G3" t="n">
-        <v>73.29000000000001</v>
+        <v>31.71</v>
       </c>
       <c r="H3" t="n">
-        <v>73.59</v>
+        <v>30.9</v>
       </c>
       <c r="I3" t="n">
-        <v>66.70999999999999</v>
+        <v>29.04</v>
       </c>
       <c r="J3" t="n">
-        <v>29.38</v>
+        <v>10.15</v>
       </c>
       <c r="K3" t="n">
-        <v>168.13</v>
+        <v>22.91</v>
       </c>
       <c r="L3" t="n">
-        <v>8297.42</v>
+        <v>1239.74</v>
       </c>
     </row>
     <row r="4">
@@ -600,31 +600,31 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>30</v>
+        <v>31.86</v>
       </c>
       <c r="F4" t="n">
-        <v>18</v>
+        <v>29.86</v>
       </c>
       <c r="G4" t="n">
-        <v>56.86</v>
+        <v>23.71</v>
       </c>
       <c r="H4" t="n">
-        <v>57.15</v>
+        <v>23.66</v>
       </c>
       <c r="I4" t="n">
-        <v>50.64</v>
+        <v>22.71</v>
       </c>
       <c r="J4" t="n">
-        <v>22.6</v>
+        <v>6.98</v>
       </c>
       <c r="K4" t="n">
-        <v>181.66</v>
+        <v>13.62</v>
       </c>
       <c r="L4" t="n">
-        <v>6769.88</v>
+        <v>713.91</v>
       </c>
     </row>
     <row r="5">
@@ -644,31 +644,31 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>11.29</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>30.14</v>
+        <v>29.57</v>
       </c>
       <c r="F5" t="n">
-        <v>18.86</v>
+        <v>27.57</v>
       </c>
       <c r="G5" t="n">
-        <v>78.56999999999999</v>
+        <v>32.71</v>
       </c>
       <c r="H5" t="n">
-        <v>78.81</v>
+        <v>31.79</v>
       </c>
       <c r="I5" t="n">
-        <v>70.40000000000001</v>
+        <v>29.21</v>
       </c>
       <c r="J5" t="n">
-        <v>32.29</v>
+        <v>10.71</v>
       </c>
       <c r="K5" t="n">
-        <v>165.31</v>
+        <v>27.99</v>
       </c>
       <c r="L5" t="n">
-        <v>9050.530000000001</v>
+        <v>1211.59</v>
       </c>
     </row>
     <row r="6">
@@ -688,31 +688,31 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>11.43</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>29.71</v>
+        <v>25</v>
       </c>
       <c r="F6" t="n">
-        <v>18.29</v>
+        <v>23</v>
       </c>
       <c r="G6" t="n">
-        <v>74.06999999999999</v>
+        <v>31.5</v>
       </c>
       <c r="H6" t="n">
-        <v>74.47</v>
+        <v>30.29</v>
       </c>
       <c r="I6" t="n">
-        <v>67.43000000000001</v>
+        <v>28.74</v>
       </c>
       <c r="J6" t="n">
-        <v>30.5</v>
+        <v>10.4</v>
       </c>
       <c r="K6" t="n">
-        <v>166.21</v>
+        <v>29.93</v>
       </c>
       <c r="L6" t="n">
-        <v>8995.629999999999</v>
+        <v>1292.15</v>
       </c>
     </row>
     <row r="7">
@@ -732,31 +732,31 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>10.57</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>31</v>
+        <v>28.57</v>
       </c>
       <c r="F7" t="n">
-        <v>20.43</v>
+        <v>26.57</v>
       </c>
       <c r="G7" t="n">
-        <v>79.14</v>
+        <v>32.57</v>
       </c>
       <c r="H7" t="n">
-        <v>79.26000000000001</v>
+        <v>31.9</v>
       </c>
       <c r="I7" t="n">
-        <v>70.76000000000001</v>
+        <v>30.04</v>
       </c>
       <c r="J7" t="n">
-        <v>32.73</v>
+        <v>10.65</v>
       </c>
       <c r="K7" t="n">
-        <v>159.14</v>
+        <v>26.88</v>
       </c>
       <c r="L7" t="n">
-        <v>9095.33</v>
+        <v>1292.3</v>
       </c>
     </row>
     <row r="8">
@@ -776,31 +776,31 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>11.2</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>30</v>
+        <v>28.67</v>
       </c>
       <c r="F8" t="n">
-        <v>18.8</v>
+        <v>26.67</v>
       </c>
       <c r="G8" t="n">
-        <v>81.27</v>
+        <v>33.33</v>
       </c>
       <c r="H8" t="n">
-        <v>81.69</v>
+        <v>32.04</v>
       </c>
       <c r="I8" t="n">
-        <v>73.51000000000001</v>
+        <v>29.61</v>
       </c>
       <c r="J8" t="n">
-        <v>33.31</v>
+        <v>10.95</v>
       </c>
       <c r="K8" t="n">
-        <v>177.51</v>
+        <v>26.25</v>
       </c>
       <c r="L8" t="n">
-        <v>9596.530000000001</v>
+        <v>1233.42</v>
       </c>
     </row>
     <row r="9">
@@ -820,31 +820,31 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>11.6</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>30.13</v>
+        <v>30.53</v>
       </c>
       <c r="F9" t="n">
-        <v>18.53</v>
+        <v>28.53</v>
       </c>
       <c r="G9" t="n">
-        <v>79.87</v>
+        <v>32.73</v>
       </c>
       <c r="H9" t="n">
-        <v>80.15000000000001</v>
+        <v>32.57</v>
       </c>
       <c r="I9" t="n">
-        <v>72.81999999999999</v>
+        <v>30.15</v>
       </c>
       <c r="J9" t="n">
-        <v>32.58</v>
+        <v>10.35</v>
       </c>
       <c r="K9" t="n">
-        <v>164.19</v>
+        <v>22.8</v>
       </c>
       <c r="L9" t="n">
-        <v>9241.83</v>
+        <v>1119.82</v>
       </c>
     </row>
     <row r="10">
@@ -864,31 +864,31 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
+        <v>32</v>
+      </c>
+      <c r="F10" t="n">
         <v>30</v>
       </c>
-      <c r="F10" t="n">
-        <v>18</v>
-      </c>
       <c r="G10" t="n">
-        <v>68.70999999999999</v>
+        <v>28.93</v>
       </c>
       <c r="H10" t="n">
-        <v>69.2</v>
+        <v>28.17</v>
       </c>
       <c r="I10" t="n">
-        <v>58.88</v>
+        <v>24.67</v>
       </c>
       <c r="J10" t="n">
-        <v>28.28</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>170.38</v>
+        <v>21.01</v>
       </c>
       <c r="L10" t="n">
-        <v>8327.26</v>
+        <v>961.16</v>
       </c>
     </row>
     <row r="11">
@@ -908,31 +908,31 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>12.43</v>
+        <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>29.14</v>
+        <v>29.85</v>
       </c>
       <c r="F11" t="n">
-        <v>16.71</v>
+        <v>27.85</v>
       </c>
       <c r="G11" t="n">
-        <v>56.86</v>
+        <v>25.62</v>
       </c>
       <c r="H11" t="n">
-        <v>57.18</v>
+        <v>25.17</v>
       </c>
       <c r="I11" t="n">
-        <v>50.78</v>
+        <v>23.13</v>
       </c>
       <c r="J11" t="n">
-        <v>22.8</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>179.51</v>
+        <v>24.32</v>
       </c>
       <c r="L11" t="n">
-        <v>6687.61</v>
+        <v>1052.86</v>
       </c>
     </row>
     <row r="12">
@@ -952,31 +952,31 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>11.71</v>
+        <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>30.71</v>
+        <v>30.92</v>
       </c>
       <c r="F12" t="n">
-        <v>19</v>
+        <v>28.92</v>
       </c>
       <c r="G12" t="n">
-        <v>58.57</v>
+        <v>27.23</v>
       </c>
       <c r="H12" t="n">
-        <v>58.69</v>
+        <v>26.73</v>
       </c>
       <c r="I12" t="n">
-        <v>51.6</v>
+        <v>24.7</v>
       </c>
       <c r="J12" t="n">
-        <v>23.43</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="K12" t="n">
-        <v>165.11</v>
+        <v>20.2</v>
       </c>
       <c r="L12" t="n">
-        <v>7193.61</v>
+        <v>983.5</v>
       </c>
     </row>
     <row r="13">
@@ -996,31 +996,31 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>11.47</v>
+        <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>30.27</v>
+        <v>32</v>
       </c>
       <c r="F13" t="n">
-        <v>18.8</v>
+        <v>30</v>
       </c>
       <c r="G13" t="n">
-        <v>64.59999999999999</v>
+        <v>26.87</v>
       </c>
       <c r="H13" t="n">
-        <v>65.04000000000001</v>
+        <v>26.05</v>
       </c>
       <c r="I13" t="n">
-        <v>58.13</v>
+        <v>23.48</v>
       </c>
       <c r="J13" t="n">
-        <v>25.68</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>169.51</v>
+        <v>18.62</v>
       </c>
       <c r="L13" t="n">
-        <v>7373.91</v>
+        <v>901.64</v>
       </c>
     </row>
     <row r="14">
@@ -1040,31 +1040,31 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>11.07</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>32.27</v>
+        <v>32.14</v>
       </c>
       <c r="F14" t="n">
-        <v>21.2</v>
+        <v>30.14</v>
       </c>
       <c r="G14" t="n">
-        <v>52.93</v>
+        <v>23.86</v>
       </c>
       <c r="H14" t="n">
-        <v>53.03</v>
+        <v>23.35</v>
       </c>
       <c r="I14" t="n">
-        <v>46.5</v>
+        <v>22.2</v>
       </c>
       <c r="J14" t="n">
-        <v>21.02</v>
+        <v>7.25</v>
       </c>
       <c r="K14" t="n">
-        <v>219.45</v>
+        <v>15.86</v>
       </c>
       <c r="L14" t="n">
-        <v>6408.42</v>
+        <v>886</v>
       </c>
     </row>
     <row r="15">
@@ -1084,31 +1084,31 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>12.13</v>
+        <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>30.27</v>
+        <v>29.6</v>
       </c>
       <c r="F15" t="n">
-        <v>18.13</v>
+        <v>27.6</v>
       </c>
       <c r="G15" t="n">
-        <v>56.27</v>
+        <v>24</v>
       </c>
       <c r="H15" t="n">
-        <v>56.7</v>
+        <v>23.78</v>
       </c>
       <c r="I15" t="n">
-        <v>51.18</v>
+        <v>22.05</v>
       </c>
       <c r="J15" t="n">
-        <v>22.65</v>
+        <v>7.44</v>
       </c>
       <c r="K15" t="n">
-        <v>176.01</v>
+        <v>20.18</v>
       </c>
       <c r="L15" t="n">
-        <v>6578.64</v>
+        <v>909.1799999999999</v>
       </c>
     </row>
     <row r="16">
@@ -1128,31 +1128,31 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>10.43</v>
+        <v>2</v>
       </c>
       <c r="E16" t="n">
-        <v>30.14</v>
+        <v>30.57</v>
       </c>
       <c r="F16" t="n">
-        <v>19.71</v>
+        <v>28.57</v>
       </c>
       <c r="G16" t="n">
-        <v>59.86</v>
+        <v>25.79</v>
       </c>
       <c r="H16" t="n">
-        <v>60.2</v>
+        <v>25.64</v>
       </c>
       <c r="I16" t="n">
-        <v>53.23</v>
+        <v>24.38</v>
       </c>
       <c r="J16" t="n">
-        <v>23.72</v>
+        <v>7.87</v>
       </c>
       <c r="K16" t="n">
-        <v>183.91</v>
+        <v>18.57</v>
       </c>
       <c r="L16" t="n">
-        <v>6937.2</v>
+        <v>899.05</v>
       </c>
     </row>
     <row r="17">
@@ -1172,31 +1172,31 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>11</v>
+        <v>2.14</v>
       </c>
       <c r="E17" t="n">
-        <v>30.71</v>
+        <v>30</v>
       </c>
       <c r="F17" t="n">
-        <v>19.71</v>
+        <v>27.86</v>
       </c>
       <c r="G17" t="n">
-        <v>55.79</v>
+        <v>24.36</v>
       </c>
       <c r="H17" t="n">
-        <v>56.03</v>
+        <v>23.8</v>
       </c>
       <c r="I17" t="n">
-        <v>51.09</v>
+        <v>22.4</v>
       </c>
       <c r="J17" t="n">
-        <v>21.86</v>
+        <v>7.51</v>
       </c>
       <c r="K17" t="n">
-        <v>158.09</v>
+        <v>20.87</v>
       </c>
       <c r="L17" t="n">
-        <v>6149.66</v>
+        <v>919.6</v>
       </c>
     </row>
     <row r="18">
@@ -1216,31 +1216,31 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>12.27</v>
+        <v>2</v>
       </c>
       <c r="E18" t="n">
-        <v>31.2</v>
+        <v>32.67</v>
       </c>
       <c r="F18" t="n">
-        <v>18.93</v>
+        <v>30.67</v>
       </c>
       <c r="G18" t="n">
-        <v>58.87</v>
+        <v>25.4</v>
       </c>
       <c r="H18" t="n">
-        <v>59.38</v>
+        <v>24.97</v>
       </c>
       <c r="I18" t="n">
-        <v>52.63</v>
+        <v>22.81</v>
       </c>
       <c r="J18" t="n">
-        <v>23.57</v>
+        <v>8.01</v>
       </c>
       <c r="K18" t="n">
-        <v>168.41</v>
+        <v>19.1</v>
       </c>
       <c r="L18" t="n">
-        <v>6673.87</v>
+        <v>913.63</v>
       </c>
     </row>
     <row r="19">
@@ -1260,31 +1260,31 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>11.71</v>
+        <v>2</v>
       </c>
       <c r="E19" t="n">
-        <v>30.57</v>
+        <v>30</v>
       </c>
       <c r="F19" t="n">
-        <v>18.86</v>
+        <v>28</v>
       </c>
       <c r="G19" t="n">
-        <v>73.14</v>
+        <v>31.5</v>
       </c>
       <c r="H19" t="n">
-        <v>73.45999999999999</v>
+        <v>30.54</v>
       </c>
       <c r="I19" t="n">
-        <v>66.26000000000001</v>
+        <v>28.55</v>
       </c>
       <c r="J19" t="n">
-        <v>29.82</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="K19" t="n">
-        <v>167.84</v>
+        <v>22.63</v>
       </c>
       <c r="L19" t="n">
-        <v>8780.530000000001</v>
+        <v>1150.78</v>
       </c>
     </row>
     <row r="20">
@@ -1304,31 +1304,31 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>10.13</v>
+        <v>2</v>
       </c>
       <c r="E20" t="n">
-        <v>33.73</v>
+        <v>19.87</v>
       </c>
       <c r="F20" t="n">
-        <v>23.6</v>
+        <v>17.87</v>
       </c>
       <c r="G20" t="n">
-        <v>204.87</v>
+        <v>90.33</v>
       </c>
       <c r="H20" t="n">
-        <v>200.9</v>
+        <v>87.48999999999999</v>
       </c>
       <c r="I20" t="n">
-        <v>182.73</v>
+        <v>77.83</v>
       </c>
       <c r="J20" t="n">
-        <v>83.45999999999999</v>
+        <v>30.95</v>
       </c>
       <c r="K20" t="n">
-        <v>128.2</v>
+        <v>42.7</v>
       </c>
       <c r="L20" t="n">
-        <v>19597.47</v>
+        <v>4301.72</v>
       </c>
     </row>
     <row r="21">
@@ -1348,31 +1348,31 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E21" t="n">
-        <v>31</v>
+        <v>20.86</v>
       </c>
       <c r="F21" t="n">
-        <v>21</v>
+        <v>18.86</v>
       </c>
       <c r="G21" t="n">
-        <v>192.79</v>
+        <v>88.20999999999999</v>
       </c>
       <c r="H21" t="n">
-        <v>192.09</v>
+        <v>84.16</v>
       </c>
       <c r="I21" t="n">
-        <v>168.64</v>
+        <v>75.7</v>
       </c>
       <c r="J21" t="n">
-        <v>74.22</v>
+        <v>29.37</v>
       </c>
       <c r="K21" t="n">
-        <v>115.06</v>
+        <v>43.77</v>
       </c>
       <c r="L21" t="n">
-        <v>17002.57</v>
+        <v>4009.69</v>
       </c>
     </row>
     <row r="22">
@@ -1392,31 +1392,31 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>9.140000000000001</v>
+        <v>2</v>
       </c>
       <c r="E22" t="n">
-        <v>30.43</v>
+        <v>31.43</v>
       </c>
       <c r="F22" t="n">
-        <v>21.29</v>
+        <v>29.43</v>
       </c>
       <c r="G22" t="n">
-        <v>142.86</v>
+        <v>59.57</v>
       </c>
       <c r="H22" t="n">
-        <v>143.12</v>
+        <v>58.47</v>
       </c>
       <c r="I22" t="n">
-        <v>127.53</v>
+        <v>56.54</v>
       </c>
       <c r="J22" t="n">
-        <v>53.86</v>
+        <v>19.08</v>
       </c>
       <c r="K22" t="n">
-        <v>132.13</v>
+        <v>22.55</v>
       </c>
       <c r="L22" t="n">
-        <v>13295.9</v>
+        <v>1872.91</v>
       </c>
     </row>
     <row r="23">
@@ -1436,31 +1436,31 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E23" t="n">
-        <v>29.87</v>
+        <v>23.2</v>
       </c>
       <c r="F23" t="n">
-        <v>19.87</v>
+        <v>21.2</v>
       </c>
       <c r="G23" t="n">
-        <v>196.6</v>
+        <v>88.93000000000001</v>
       </c>
       <c r="H23" t="n">
-        <v>193.99</v>
+        <v>85.79000000000001</v>
       </c>
       <c r="I23" t="n">
-        <v>168.86</v>
+        <v>76.28</v>
       </c>
       <c r="J23" t="n">
-        <v>77.66</v>
+        <v>30.23</v>
       </c>
       <c r="K23" t="n">
-        <v>120.14</v>
+        <v>39.82</v>
       </c>
       <c r="L23" t="n">
-        <v>18497.02</v>
+        <v>4011.51</v>
       </c>
     </row>
     <row r="24">
@@ -1480,31 +1480,31 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E24" t="n">
-        <v>31.47</v>
+        <v>22.4</v>
       </c>
       <c r="F24" t="n">
-        <v>21.47</v>
+        <v>20.4</v>
       </c>
       <c r="G24" t="n">
-        <v>196.6</v>
+        <v>89.2</v>
       </c>
       <c r="H24" t="n">
-        <v>196.83</v>
+        <v>84.98</v>
       </c>
       <c r="I24" t="n">
-        <v>179.51</v>
+        <v>81.51000000000001</v>
       </c>
       <c r="J24" t="n">
-        <v>75.55</v>
+        <v>29.67</v>
       </c>
       <c r="K24" t="n">
-        <v>131.59</v>
+        <v>35.08</v>
       </c>
       <c r="L24" t="n">
-        <v>17858.07</v>
+        <v>3756.32</v>
       </c>
     </row>
     <row r="25">
@@ -1524,31 +1524,31 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>34.53</v>
+        <v>20.67</v>
       </c>
       <c r="F25" t="n">
-        <v>24.53</v>
+        <v>18.67</v>
       </c>
       <c r="G25" t="n">
-        <v>188.93</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="H25" t="n">
-        <v>185.85</v>
+        <v>80.43000000000001</v>
       </c>
       <c r="I25" t="n">
-        <v>174.81</v>
+        <v>74.97</v>
       </c>
       <c r="J25" t="n">
-        <v>76.03</v>
+        <v>28.2</v>
       </c>
       <c r="K25" t="n">
-        <v>137.63</v>
+        <v>45.41</v>
       </c>
       <c r="L25" t="n">
-        <v>17744.45</v>
+        <v>4080.21</v>
       </c>
     </row>
     <row r="26">
@@ -1568,31 +1568,31 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E26" t="n">
-        <v>30.91</v>
+        <v>21.64</v>
       </c>
       <c r="F26" t="n">
-        <v>20.91</v>
+        <v>19.64</v>
       </c>
       <c r="G26" t="n">
-        <v>180.45</v>
+        <v>84.73</v>
       </c>
       <c r="H26" t="n">
-        <v>180.82</v>
+        <v>80.23999999999999</v>
       </c>
       <c r="I26" t="n">
-        <v>164.63</v>
+        <v>73.86</v>
       </c>
       <c r="J26" t="n">
-        <v>70.56999999999999</v>
+        <v>28.27</v>
       </c>
       <c r="K26" t="n">
-        <v>117.14</v>
+        <v>35.75</v>
       </c>
       <c r="L26" t="n">
-        <v>16269.75</v>
+        <v>3723.63</v>
       </c>
     </row>
     <row r="27">
@@ -1612,31 +1612,31 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E27" t="n">
-        <v>37.14</v>
+        <v>18.86</v>
       </c>
       <c r="F27" t="n">
-        <v>27.14</v>
+        <v>16.86</v>
       </c>
       <c r="G27" t="n">
-        <v>187.14</v>
+        <v>80.70999999999999</v>
       </c>
       <c r="H27" t="n">
-        <v>186.48</v>
+        <v>78.48</v>
       </c>
       <c r="I27" t="n">
-        <v>171.22</v>
+        <v>71.52</v>
       </c>
       <c r="J27" t="n">
-        <v>76.31999999999999</v>
+        <v>27.87</v>
       </c>
       <c r="K27" t="n">
-        <v>127.54</v>
+        <v>44.99</v>
       </c>
       <c r="L27" t="n">
-        <v>17483.92</v>
+        <v>4007.44</v>
       </c>
     </row>
     <row r="28">
@@ -1656,31 +1656,31 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>10.4</v>
+        <v>2</v>
       </c>
       <c r="E28" t="n">
-        <v>30.8</v>
+        <v>22.67</v>
       </c>
       <c r="F28" t="n">
-        <v>20.4</v>
+        <v>20.67</v>
       </c>
       <c r="G28" t="n">
-        <v>176.53</v>
+        <v>81</v>
       </c>
       <c r="H28" t="n">
-        <v>176.73</v>
+        <v>77.45999999999999</v>
       </c>
       <c r="I28" t="n">
-        <v>159.81</v>
+        <v>70.97</v>
       </c>
       <c r="J28" t="n">
-        <v>68.13</v>
+        <v>27.01</v>
       </c>
       <c r="K28" t="n">
-        <v>118.75</v>
+        <v>37.79</v>
       </c>
       <c r="L28" t="n">
-        <v>15946.82</v>
+        <v>3556.92</v>
       </c>
     </row>
     <row r="29">
@@ -1700,31 +1700,31 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>10.13</v>
+        <v>2</v>
       </c>
       <c r="E29" t="n">
-        <v>31.73</v>
+        <v>20.8</v>
       </c>
       <c r="F29" t="n">
-        <v>21.6</v>
+        <v>18.8</v>
       </c>
       <c r="G29" t="n">
-        <v>181.8</v>
+        <v>80.8</v>
       </c>
       <c r="H29" t="n">
-        <v>181</v>
+        <v>77.48999999999999</v>
       </c>
       <c r="I29" t="n">
-        <v>157.26</v>
+        <v>70.31</v>
       </c>
       <c r="J29" t="n">
-        <v>71.20999999999999</v>
+        <v>27.35</v>
       </c>
       <c r="K29" t="n">
-        <v>118.43</v>
+        <v>40.13</v>
       </c>
       <c r="L29" t="n">
-        <v>16974.99</v>
+        <v>3707.36</v>
       </c>
     </row>
     <row r="30">
@@ -1744,31 +1744,31 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>10.29</v>
+        <v>2</v>
       </c>
       <c r="E30" t="n">
-        <v>29.71</v>
+        <v>24</v>
       </c>
       <c r="F30" t="n">
-        <v>19.43</v>
+        <v>22</v>
       </c>
       <c r="G30" t="n">
-        <v>171.86</v>
+        <v>76.86</v>
       </c>
       <c r="H30" t="n">
-        <v>172.16</v>
+        <v>74.42</v>
       </c>
       <c r="I30" t="n">
-        <v>148.83</v>
+        <v>69.26000000000001</v>
       </c>
       <c r="J30" t="n">
-        <v>65.47</v>
+        <v>26.03</v>
       </c>
       <c r="K30" t="n">
-        <v>110.95</v>
+        <v>38.47</v>
       </c>
       <c r="L30" t="n">
-        <v>15278.49</v>
+        <v>3280.28</v>
       </c>
     </row>
     <row r="31">
@@ -1788,31 +1788,31 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>10.13</v>
+        <v>2</v>
       </c>
       <c r="E31" t="n">
-        <v>30.8</v>
+        <v>20.8</v>
       </c>
       <c r="F31" t="n">
-        <v>20.67</v>
+        <v>18.8</v>
       </c>
       <c r="G31" t="n">
-        <v>178.33</v>
+        <v>81</v>
       </c>
       <c r="H31" t="n">
-        <v>178.61</v>
+        <v>77.76000000000001</v>
       </c>
       <c r="I31" t="n">
-        <v>156.9</v>
+        <v>72.28</v>
       </c>
       <c r="J31" t="n">
-        <v>68.83</v>
+        <v>27.06</v>
       </c>
       <c r="K31" t="n">
-        <v>122.04</v>
+        <v>38.59</v>
       </c>
       <c r="L31" t="n">
-        <v>16129.3</v>
+        <v>3600.08</v>
       </c>
     </row>
     <row r="32">
@@ -1832,31 +1832,31 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>10.29</v>
+        <v>2</v>
       </c>
       <c r="E32" t="n">
-        <v>30.29</v>
+        <v>18.86</v>
       </c>
       <c r="F32" t="n">
-        <v>20</v>
+        <v>16.86</v>
       </c>
       <c r="G32" t="n">
-        <v>177.57</v>
+        <v>78.93000000000001</v>
       </c>
       <c r="H32" t="n">
-        <v>177.6</v>
+        <v>75.63</v>
       </c>
       <c r="I32" t="n">
-        <v>152.88</v>
+        <v>68.3</v>
       </c>
       <c r="J32" t="n">
-        <v>70.03</v>
+        <v>26.6</v>
       </c>
       <c r="K32" t="n">
-        <v>130.2</v>
+        <v>40.38</v>
       </c>
       <c r="L32" t="n">
-        <v>17161.37</v>
+        <v>3688.12</v>
       </c>
     </row>
     <row r="33">
@@ -1876,31 +1876,31 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>10.27</v>
+        <v>2</v>
       </c>
       <c r="E33" t="n">
-        <v>31.87</v>
+        <v>22.53</v>
       </c>
       <c r="F33" t="n">
-        <v>21.6</v>
+        <v>20.53</v>
       </c>
       <c r="G33" t="n">
-        <v>185.93</v>
+        <v>81.13</v>
       </c>
       <c r="H33" t="n">
-        <v>182.59</v>
+        <v>78.53</v>
       </c>
       <c r="I33" t="n">
-        <v>158.6</v>
+        <v>72.18000000000001</v>
       </c>
       <c r="J33" t="n">
-        <v>73.29000000000001</v>
+        <v>27.54</v>
       </c>
       <c r="K33" t="n">
-        <v>127.19</v>
+        <v>39.8</v>
       </c>
       <c r="L33" t="n">
-        <v>17200.31</v>
+        <v>3683.64</v>
       </c>
     </row>
     <row r="34">
@@ -1920,31 +1920,31 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>10.14</v>
+        <v>2</v>
       </c>
       <c r="E34" t="n">
-        <v>30.57</v>
+        <v>22.14</v>
       </c>
       <c r="F34" t="n">
-        <v>20.43</v>
+        <v>20.14</v>
       </c>
       <c r="G34" t="n">
-        <v>184.93</v>
+        <v>85.36</v>
       </c>
       <c r="H34" t="n">
-        <v>185.26</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="I34" t="n">
-        <v>157.28</v>
+        <v>73.52</v>
       </c>
       <c r="J34" t="n">
-        <v>71.31</v>
+        <v>28.18</v>
       </c>
       <c r="K34" t="n">
-        <v>116.47</v>
+        <v>36.56</v>
       </c>
       <c r="L34" t="n">
-        <v>16910</v>
+        <v>3641.14</v>
       </c>
     </row>
     <row r="35">
@@ -1964,31 +1964,31 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>10.27</v>
+        <v>2</v>
       </c>
       <c r="E35" t="n">
-        <v>30.93</v>
+        <v>21.6</v>
       </c>
       <c r="F35" t="n">
-        <v>20.67</v>
+        <v>19.6</v>
       </c>
       <c r="G35" t="n">
-        <v>177.2</v>
+        <v>79.47</v>
       </c>
       <c r="H35" t="n">
-        <v>177.16</v>
+        <v>76.77</v>
       </c>
       <c r="I35" t="n">
-        <v>156.7</v>
+        <v>68.43000000000001</v>
       </c>
       <c r="J35" t="n">
-        <v>69.86</v>
+        <v>26.76</v>
       </c>
       <c r="K35" t="n">
-        <v>122.94</v>
+        <v>39.37</v>
       </c>
       <c r="L35" t="n">
-        <v>16552.33</v>
+        <v>3621.5</v>
       </c>
     </row>
     <row r="36">
@@ -2008,31 +2008,31 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E36" t="n">
-        <v>29.14</v>
+        <v>22.71</v>
       </c>
       <c r="F36" t="n">
-        <v>19.14</v>
+        <v>20.71</v>
       </c>
       <c r="G36" t="n">
-        <v>177.57</v>
+        <v>79.06999999999999</v>
       </c>
       <c r="H36" t="n">
-        <v>178</v>
+        <v>77.89</v>
       </c>
       <c r="I36" t="n">
-        <v>151.51</v>
+        <v>70.45999999999999</v>
       </c>
       <c r="J36" t="n">
-        <v>69.44</v>
+        <v>26.25</v>
       </c>
       <c r="K36" t="n">
-        <v>130.11</v>
+        <v>36.3</v>
       </c>
       <c r="L36" t="n">
-        <v>17124.84</v>
+        <v>3390.69</v>
       </c>
     </row>
     <row r="37">
@@ -2052,31 +2052,31 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>10.14</v>
+        <v>2</v>
       </c>
       <c r="E37" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F37" t="n">
-        <v>21.86</v>
+        <v>18</v>
       </c>
       <c r="G37" t="n">
-        <v>184.57</v>
+        <v>83.86</v>
       </c>
       <c r="H37" t="n">
-        <v>184.02</v>
+        <v>81.56</v>
       </c>
       <c r="I37" t="n">
-        <v>157.76</v>
+        <v>72.28</v>
       </c>
       <c r="J37" t="n">
-        <v>71.81999999999999</v>
+        <v>27.87</v>
       </c>
       <c r="K37" t="n">
-        <v>114.66</v>
+        <v>39.04</v>
       </c>
       <c r="L37" t="n">
-        <v>16759.24</v>
+        <v>3786.66</v>
       </c>
     </row>
     <row r="38">
@@ -2096,31 +2096,31 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>10.71</v>
+        <v>2</v>
       </c>
       <c r="E38" t="n">
-        <v>29.29</v>
+        <v>21.14</v>
       </c>
       <c r="F38" t="n">
-        <v>18.57</v>
+        <v>19.14</v>
       </c>
       <c r="G38" t="n">
-        <v>131.71</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="H38" t="n">
-        <v>132.18</v>
+        <v>64.28</v>
       </c>
       <c r="I38" t="n">
-        <v>119.31</v>
+        <v>59.93</v>
       </c>
       <c r="J38" t="n">
-        <v>45.44</v>
+        <v>20.92</v>
       </c>
       <c r="K38" t="n">
-        <v>92.98</v>
+        <v>34.25</v>
       </c>
       <c r="L38" t="n">
-        <v>9512.190000000001</v>
+        <v>2706.86</v>
       </c>
     </row>
     <row r="39">
@@ -2140,31 +2140,31 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>10.13</v>
+        <v>2</v>
       </c>
       <c r="E39" t="n">
-        <v>26.4</v>
+        <v>20.67</v>
       </c>
       <c r="F39" t="n">
-        <v>16.27</v>
+        <v>18.67</v>
       </c>
       <c r="G39" t="n">
-        <v>133.27</v>
+        <v>72.67</v>
       </c>
       <c r="H39" t="n">
-        <v>133.52</v>
+        <v>69.73999999999999</v>
       </c>
       <c r="I39" t="n">
-        <v>123.3</v>
+        <v>65.19</v>
       </c>
       <c r="J39" t="n">
-        <v>48.91</v>
+        <v>23.03</v>
       </c>
       <c r="K39" t="n">
-        <v>97.73</v>
+        <v>35.83</v>
       </c>
       <c r="L39" t="n">
-        <v>11604.5</v>
+        <v>2893.21</v>
       </c>
     </row>
     <row r="40">
@@ -2184,31 +2184,31 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>7.54</v>
+        <v>2.15</v>
       </c>
       <c r="E40" t="n">
-        <v>30</v>
+        <v>28.62</v>
       </c>
       <c r="F40" t="n">
-        <v>22.46</v>
+        <v>26.46</v>
       </c>
       <c r="G40" t="n">
-        <v>89.84999999999999</v>
+        <v>42.62</v>
       </c>
       <c r="H40" t="n">
-        <v>89.95</v>
+        <v>42.04</v>
       </c>
       <c r="I40" t="n">
-        <v>80.36</v>
+        <v>38.61</v>
       </c>
       <c r="J40" t="n">
-        <v>31.03</v>
+        <v>13.17</v>
       </c>
       <c r="K40" t="n">
-        <v>111.95</v>
+        <v>22.83</v>
       </c>
       <c r="L40" t="n">
-        <v>7374.15</v>
+        <v>1490.88</v>
       </c>
     </row>
     <row r="41">
@@ -2228,31 +2228,31 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>10.29</v>
+        <v>2</v>
       </c>
       <c r="E41" t="n">
-        <v>27.86</v>
+        <v>20.71</v>
       </c>
       <c r="F41" t="n">
-        <v>17.57</v>
+        <v>18.71</v>
       </c>
       <c r="G41" t="n">
-        <v>136.07</v>
+        <v>69.70999999999999</v>
       </c>
       <c r="H41" t="n">
-        <v>136.2</v>
+        <v>67.52</v>
       </c>
       <c r="I41" t="n">
-        <v>121.85</v>
+        <v>63.03</v>
       </c>
       <c r="J41" t="n">
-        <v>47.42</v>
+        <v>21.91</v>
       </c>
       <c r="K41" t="n">
-        <v>95.55</v>
+        <v>35.27</v>
       </c>
       <c r="L41" t="n">
-        <v>10450.18</v>
+        <v>2834.5</v>
       </c>
     </row>
     <row r="42">
@@ -2272,31 +2272,31 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>10.53</v>
+        <v>2</v>
       </c>
       <c r="E42" t="n">
-        <v>26.8</v>
+        <v>19.07</v>
       </c>
       <c r="F42" t="n">
-        <v>16.27</v>
+        <v>17.07</v>
       </c>
       <c r="G42" t="n">
-        <v>135.93</v>
+        <v>71.13</v>
       </c>
       <c r="H42" t="n">
-        <v>136.22</v>
+        <v>69.18000000000001</v>
       </c>
       <c r="I42" t="n">
-        <v>128.4</v>
+        <v>64.36</v>
       </c>
       <c r="J42" t="n">
-        <v>46.81</v>
+        <v>22.37</v>
       </c>
       <c r="K42" t="n">
-        <v>84.15000000000001</v>
+        <v>34.73</v>
       </c>
       <c r="L42" t="n">
-        <v>9948.34</v>
+        <v>2957.06</v>
       </c>
     </row>
     <row r="43">
@@ -2316,31 +2316,31 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>10.43</v>
+        <v>2</v>
       </c>
       <c r="E43" t="n">
-        <v>27.29</v>
+        <v>24.86</v>
       </c>
       <c r="F43" t="n">
-        <v>16.86</v>
+        <v>22.86</v>
       </c>
       <c r="G43" t="n">
-        <v>117.43</v>
+        <v>61</v>
       </c>
       <c r="H43" t="n">
-        <v>117.61</v>
+        <v>59.18</v>
       </c>
       <c r="I43" t="n">
-        <v>107.67</v>
+        <v>57.48</v>
       </c>
       <c r="J43" t="n">
-        <v>39.74</v>
+        <v>18.93</v>
       </c>
       <c r="K43" t="n">
-        <v>93.81999999999999</v>
+        <v>30.71</v>
       </c>
       <c r="L43" t="n">
-        <v>8458.34</v>
+        <v>2326.55</v>
       </c>
     </row>
     <row r="44">
@@ -2360,31 +2360,31 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>10.57</v>
+        <v>2</v>
       </c>
       <c r="E44" t="n">
-        <v>29.57</v>
+        <v>20.31</v>
       </c>
       <c r="F44" t="n">
-        <v>19</v>
+        <v>18.31</v>
       </c>
       <c r="G44" t="n">
-        <v>118.14</v>
+        <v>65.54000000000001</v>
       </c>
       <c r="H44" t="n">
-        <v>118.07</v>
+        <v>64.37</v>
       </c>
       <c r="I44" t="n">
-        <v>106.36</v>
+        <v>59.22</v>
       </c>
       <c r="J44" t="n">
-        <v>39.87</v>
+        <v>20.69</v>
       </c>
       <c r="K44" t="n">
-        <v>101.4</v>
+        <v>37.37</v>
       </c>
       <c r="L44" t="n">
-        <v>8544.219999999999</v>
+        <v>2743.04</v>
       </c>
     </row>
     <row r="45">
@@ -2404,31 +2404,31 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>10.14</v>
+        <v>2</v>
       </c>
       <c r="E45" t="n">
-        <v>28.71</v>
+        <v>26.86</v>
       </c>
       <c r="F45" t="n">
-        <v>18.57</v>
+        <v>24.86</v>
       </c>
       <c r="G45" t="n">
-        <v>129.29</v>
+        <v>60.93</v>
       </c>
       <c r="H45" t="n">
-        <v>129.52</v>
+        <v>60.35</v>
       </c>
       <c r="I45" t="n">
-        <v>117.9</v>
+        <v>57.42</v>
       </c>
       <c r="J45" t="n">
-        <v>44.34</v>
+        <v>19.33</v>
       </c>
       <c r="K45" t="n">
-        <v>96.38</v>
+        <v>29.33</v>
       </c>
       <c r="L45" t="n">
-        <v>9728.969999999999</v>
+        <v>2178.5</v>
       </c>
     </row>
     <row r="46">
@@ -2448,31 +2448,31 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>10.53</v>
+        <v>2</v>
       </c>
       <c r="E46" t="n">
-        <v>28.4</v>
+        <v>24.53</v>
       </c>
       <c r="F46" t="n">
-        <v>17.87</v>
+        <v>22.53</v>
       </c>
       <c r="G46" t="n">
-        <v>115.6</v>
+        <v>56.4</v>
       </c>
       <c r="H46" t="n">
-        <v>115.74</v>
+        <v>54.67</v>
       </c>
       <c r="I46" t="n">
-        <v>104.94</v>
+        <v>51.17</v>
       </c>
       <c r="J46" t="n">
-        <v>40.12</v>
+        <v>18.09</v>
       </c>
       <c r="K46" t="n">
-        <v>110.01</v>
+        <v>32.5</v>
       </c>
       <c r="L46" t="n">
-        <v>9018.780000000001</v>
+        <v>2151.46</v>
       </c>
     </row>
     <row r="47">
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>10.67</v>
+        <v>2</v>
       </c>
       <c r="E47" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F47" t="n">
-        <v>15.33</v>
+        <v>22</v>
       </c>
       <c r="G47" t="n">
-        <v>126.93</v>
+        <v>64.2</v>
       </c>
       <c r="H47" t="n">
-        <v>127.15</v>
+        <v>61.83</v>
       </c>
       <c r="I47" t="n">
-        <v>117.2</v>
+        <v>58.9</v>
       </c>
       <c r="J47" t="n">
-        <v>43.54</v>
+        <v>20.18</v>
       </c>
       <c r="K47" t="n">
-        <v>90.55</v>
+        <v>37.98</v>
       </c>
       <c r="L47" t="n">
-        <v>9912.73</v>
+        <v>2539.41</v>
       </c>
     </row>
     <row r="48">
@@ -2536,31 +2536,31 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>11.07</v>
+        <v>2</v>
       </c>
       <c r="E48" t="n">
-        <v>29.47</v>
+        <v>26</v>
       </c>
       <c r="F48" t="n">
-        <v>18.4</v>
+        <v>24</v>
       </c>
       <c r="G48" t="n">
-        <v>114.47</v>
+        <v>55.53</v>
       </c>
       <c r="H48" t="n">
-        <v>114.67</v>
+        <v>53.27</v>
       </c>
       <c r="I48" t="n">
-        <v>105.75</v>
+        <v>49.5</v>
       </c>
       <c r="J48" t="n">
-        <v>40.1</v>
+        <v>17.75</v>
       </c>
       <c r="K48" t="n">
-        <v>109.91</v>
+        <v>30.33</v>
       </c>
       <c r="L48" t="n">
-        <v>9389.879999999999</v>
+        <v>2030.34</v>
       </c>
     </row>
     <row r="49">
@@ -2580,31 +2580,31 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>10.93</v>
+        <v>2.13</v>
       </c>
       <c r="E49" t="n">
-        <v>27.73</v>
+        <v>23.33</v>
       </c>
       <c r="F49" t="n">
-        <v>16.8</v>
+        <v>21.2</v>
       </c>
       <c r="G49" t="n">
-        <v>120.4</v>
+        <v>61.13</v>
       </c>
       <c r="H49" t="n">
-        <v>120.84</v>
+        <v>58.99</v>
       </c>
       <c r="I49" t="n">
-        <v>108.9</v>
+        <v>56.96</v>
       </c>
       <c r="J49" t="n">
-        <v>40.22</v>
+        <v>19.34</v>
       </c>
       <c r="K49" t="n">
-        <v>85.37</v>
+        <v>33.03</v>
       </c>
       <c r="L49" t="n">
-        <v>8267.1</v>
+        <v>2414.72</v>
       </c>
     </row>
     <row r="50">
@@ -2624,31 +2624,31 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>10.71</v>
+        <v>2</v>
       </c>
       <c r="E50" t="n">
-        <v>30.57</v>
+        <v>24.43</v>
       </c>
       <c r="F50" t="n">
-        <v>19.86</v>
+        <v>22.43</v>
       </c>
       <c r="G50" t="n">
-        <v>115.21</v>
+        <v>57.36</v>
       </c>
       <c r="H50" t="n">
-        <v>115.36</v>
+        <v>55.11</v>
       </c>
       <c r="I50" t="n">
-        <v>108.49</v>
+        <v>51.5</v>
       </c>
       <c r="J50" t="n">
-        <v>39.68</v>
+        <v>18.16</v>
       </c>
       <c r="K50" t="n">
-        <v>88.22</v>
+        <v>30.13</v>
       </c>
       <c r="L50" t="n">
-        <v>8415.02</v>
+        <v>2120.18</v>
       </c>
     </row>
     <row r="51">
@@ -2668,31 +2668,31 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>11.29</v>
+        <v>2</v>
       </c>
       <c r="E51" t="n">
-        <v>29.86</v>
+        <v>22.57</v>
       </c>
       <c r="F51" t="n">
-        <v>18.57</v>
+        <v>20.57</v>
       </c>
       <c r="G51" t="n">
-        <v>116</v>
+        <v>58.71</v>
       </c>
       <c r="H51" t="n">
-        <v>115.98</v>
+        <v>56.52</v>
       </c>
       <c r="I51" t="n">
-        <v>106.16</v>
+        <v>52.87</v>
       </c>
       <c r="J51" t="n">
-        <v>40.79</v>
+        <v>18.87</v>
       </c>
       <c r="K51" t="n">
-        <v>98.27</v>
+        <v>35.33</v>
       </c>
       <c r="L51" t="n">
-        <v>8985.73</v>
+        <v>2449.56</v>
       </c>
     </row>
     <row r="52">
@@ -2712,31 +2712,31 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>10.86</v>
+        <v>2</v>
       </c>
       <c r="E52" t="n">
-        <v>26.71</v>
+        <v>21.57</v>
       </c>
       <c r="F52" t="n">
-        <v>15.86</v>
+        <v>19.57</v>
       </c>
       <c r="G52" t="n">
-        <v>102.86</v>
+        <v>53.93</v>
       </c>
       <c r="H52" t="n">
-        <v>103.12</v>
+        <v>52.82</v>
       </c>
       <c r="I52" t="n">
-        <v>94.55</v>
+        <v>50.3</v>
       </c>
       <c r="J52" t="n">
-        <v>36.56</v>
+        <v>17.11</v>
       </c>
       <c r="K52" t="n">
-        <v>105.3</v>
+        <v>34.32</v>
       </c>
       <c r="L52" t="n">
-        <v>9070.780000000001</v>
+        <v>2154.1</v>
       </c>
     </row>
     <row r="53">
@@ -2756,31 +2756,31 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>11.29</v>
+        <v>2</v>
       </c>
       <c r="E53" t="n">
-        <v>30.71</v>
+        <v>26</v>
       </c>
       <c r="F53" t="n">
-        <v>19.43</v>
+        <v>24</v>
       </c>
       <c r="G53" t="n">
-        <v>121.5</v>
+        <v>58.71</v>
       </c>
       <c r="H53" t="n">
-        <v>120.8</v>
+        <v>56.79</v>
       </c>
       <c r="I53" t="n">
-        <v>114.07</v>
+        <v>54.4</v>
       </c>
       <c r="J53" t="n">
-        <v>42.49</v>
+        <v>18.86</v>
       </c>
       <c r="K53" t="n">
-        <v>94.70999999999999</v>
+        <v>31.69</v>
       </c>
       <c r="L53" t="n">
-        <v>9248.959999999999</v>
+        <v>2197.42</v>
       </c>
     </row>
     <row r="54">
@@ -2800,75 +2800,75 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E54" t="n">
-        <v>27.86</v>
+        <v>23</v>
       </c>
       <c r="F54" t="n">
-        <v>16.86</v>
+        <v>21</v>
       </c>
       <c r="G54" t="n">
-        <v>122.29</v>
+        <v>65.64</v>
       </c>
       <c r="H54" t="n">
-        <v>122.62</v>
+        <v>63.02</v>
       </c>
       <c r="I54" t="n">
-        <v>114.41</v>
+        <v>58.95</v>
       </c>
       <c r="J54" t="n">
-        <v>42.57</v>
+        <v>20.77</v>
       </c>
       <c r="K54" t="n">
-        <v>96.31999999999999</v>
+        <v>33.85</v>
       </c>
       <c r="L54" t="n">
-        <v>9786.6</v>
+        <v>2682.56</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Animal4</t>
+          <t>Animal6</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>offset_PPI_50</t>
+          <t>ASR_control</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>10.57</v>
+        <v>2</v>
       </c>
       <c r="E55" t="n">
-        <v>28.43</v>
+        <v>25.73</v>
       </c>
       <c r="F55" t="n">
-        <v>17.86</v>
+        <v>23.73</v>
       </c>
       <c r="G55" t="n">
-        <v>119.43</v>
+        <v>48.4</v>
       </c>
       <c r="H55" t="n">
-        <v>119.77</v>
+        <v>48.04</v>
       </c>
       <c r="I55" t="n">
-        <v>109.47</v>
+        <v>46.54</v>
       </c>
       <c r="J55" t="n">
-        <v>37.83</v>
+        <v>16.24</v>
       </c>
       <c r="K55" t="n">
-        <v>79.62</v>
+        <v>33.12</v>
       </c>
       <c r="L55" t="n">
-        <v>7208.94</v>
+        <v>2019.23</v>
       </c>
     </row>
     <row r="56">
@@ -2884,35 +2884,35 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>ASR_control</t>
+          <t>gap_depth</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E56" t="n">
-        <v>32.93</v>
+        <v>27.33</v>
       </c>
       <c r="F56" t="n">
-        <v>22.93</v>
+        <v>25.33</v>
       </c>
       <c r="G56" t="n">
-        <v>120.07</v>
+        <v>48.4</v>
       </c>
       <c r="H56" t="n">
-        <v>119.77</v>
+        <v>47.93</v>
       </c>
       <c r="I56" t="n">
-        <v>109.15</v>
+        <v>46.52</v>
       </c>
       <c r="J56" t="n">
-        <v>50.72</v>
+        <v>15.73</v>
       </c>
       <c r="K56" t="n">
-        <v>144.59</v>
+        <v>28.22</v>
       </c>
       <c r="L56" t="n">
-        <v>12911.34</v>
+        <v>1850.26</v>
       </c>
     </row>
     <row r="57">
@@ -2928,35 +2928,35 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>gap_depth</t>
+          <t>tone_in_noise</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>10.13</v>
+        <v>2</v>
       </c>
       <c r="E57" t="n">
-        <v>31.6</v>
+        <v>30.43</v>
       </c>
       <c r="F57" t="n">
-        <v>21.47</v>
+        <v>28.43</v>
       </c>
       <c r="G57" t="n">
-        <v>115.6</v>
+        <v>33.71</v>
       </c>
       <c r="H57" t="n">
-        <v>115.03</v>
+        <v>33.25</v>
       </c>
       <c r="I57" t="n">
-        <v>104.7</v>
+        <v>32.56</v>
       </c>
       <c r="J57" t="n">
-        <v>47.08</v>
+        <v>9.77</v>
       </c>
       <c r="K57" t="n">
-        <v>144.23</v>
+        <v>17.79</v>
       </c>
       <c r="L57" t="n">
-        <v>11923.71</v>
+        <v>941.71</v>
       </c>
     </row>
     <row r="58">
@@ -2972,35 +2972,35 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>tone_in_noise</t>
+          <t>gap_duration_4</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>8.710000000000001</v>
+        <v>2</v>
       </c>
       <c r="E58" t="n">
-        <v>29.29</v>
+        <v>24.71</v>
       </c>
       <c r="F58" t="n">
-        <v>20.57</v>
+        <v>22.71</v>
       </c>
       <c r="G58" t="n">
-        <v>76.64</v>
+        <v>47.29</v>
       </c>
       <c r="H58" t="n">
-        <v>76.53</v>
+        <v>46.29</v>
       </c>
       <c r="I58" t="n">
-        <v>69.31999999999999</v>
+        <v>43.86</v>
       </c>
       <c r="J58" t="n">
-        <v>28.95</v>
+        <v>15.93</v>
       </c>
       <c r="K58" t="n">
-        <v>139.32</v>
+        <v>34.12</v>
       </c>
       <c r="L58" t="n">
-        <v>7474.54</v>
+        <v>2014.63</v>
       </c>
     </row>
     <row r="59">
@@ -3016,35 +3016,35 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>gap_duration_4</t>
+          <t>gap_duration_8</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>10.29</v>
+        <v>2</v>
       </c>
       <c r="E59" t="n">
-        <v>29</v>
+        <v>26.29</v>
       </c>
       <c r="F59" t="n">
-        <v>18.71</v>
+        <v>24.29</v>
       </c>
       <c r="G59" t="n">
-        <v>113.29</v>
+        <v>47.5</v>
       </c>
       <c r="H59" t="n">
-        <v>113.61</v>
+        <v>46.87</v>
       </c>
       <c r="I59" t="n">
-        <v>100.22</v>
+        <v>45.65</v>
       </c>
       <c r="J59" t="n">
-        <v>46.15</v>
+        <v>15.47</v>
       </c>
       <c r="K59" t="n">
-        <v>136.67</v>
+        <v>30.15</v>
       </c>
       <c r="L59" t="n">
-        <v>11734.74</v>
+        <v>1897.54</v>
       </c>
     </row>
     <row r="60">
@@ -3060,35 +3060,35 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>gap_duration_8</t>
+          <t>gap_duration_10</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>10.57</v>
+        <v>2</v>
       </c>
       <c r="E60" t="n">
-        <v>31.43</v>
+        <v>28.13</v>
       </c>
       <c r="F60" t="n">
-        <v>20.86</v>
+        <v>26.13</v>
       </c>
       <c r="G60" t="n">
-        <v>114.57</v>
+        <v>43.47</v>
       </c>
       <c r="H60" t="n">
-        <v>114.57</v>
+        <v>42.67</v>
       </c>
       <c r="I60" t="n">
-        <v>105.04</v>
+        <v>41.67</v>
       </c>
       <c r="J60" t="n">
-        <v>46.83</v>
+        <v>14.36</v>
       </c>
       <c r="K60" t="n">
-        <v>136.63</v>
+        <v>28.66</v>
       </c>
       <c r="L60" t="n">
-        <v>11765.8</v>
+        <v>1694.86</v>
       </c>
     </row>
     <row r="61">
@@ -3104,35 +3104,35 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>gap_duration_10</t>
+          <t>gap_duration_20</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>10.67</v>
+        <v>2</v>
       </c>
       <c r="E61" t="n">
-        <v>31.33</v>
+        <v>27.2</v>
       </c>
       <c r="F61" t="n">
-        <v>20.67</v>
+        <v>25.2</v>
       </c>
       <c r="G61" t="n">
-        <v>107.93</v>
+        <v>48.4</v>
       </c>
       <c r="H61" t="n">
-        <v>107.29</v>
+        <v>47.97</v>
       </c>
       <c r="I61" t="n">
-        <v>97.41</v>
+        <v>46.89</v>
       </c>
       <c r="J61" t="n">
-        <v>43.86</v>
+        <v>16.08</v>
       </c>
       <c r="K61" t="n">
-        <v>139.25</v>
+        <v>31.92</v>
       </c>
       <c r="L61" t="n">
-        <v>10999.2</v>
+        <v>1943.29</v>
       </c>
     </row>
     <row r="62">
@@ -3148,35 +3148,35 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>gap_duration_20</t>
+          <t>gap_duration_50</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>10.13</v>
+        <v>2</v>
       </c>
       <c r="E62" t="n">
-        <v>31.73</v>
+        <v>28.27</v>
       </c>
       <c r="F62" t="n">
-        <v>21.6</v>
+        <v>26.27</v>
       </c>
       <c r="G62" t="n">
-        <v>118.47</v>
+        <v>45.47</v>
       </c>
       <c r="H62" t="n">
-        <v>116.97</v>
+        <v>44.83</v>
       </c>
       <c r="I62" t="n">
-        <v>107.16</v>
+        <v>43.92</v>
       </c>
       <c r="J62" t="n">
-        <v>48.76</v>
+        <v>14.9</v>
       </c>
       <c r="K62" t="n">
-        <v>152.44</v>
+        <v>28.09</v>
       </c>
       <c r="L62" t="n">
-        <v>12565.13</v>
+        <v>1640.81</v>
       </c>
     </row>
     <row r="63">
@@ -3192,35 +3192,35 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>gap_duration_50</t>
+          <t>offset_PPI_4</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>10.53</v>
+        <v>2</v>
       </c>
       <c r="E63" t="n">
-        <v>29.87</v>
+        <v>30.29</v>
       </c>
       <c r="F63" t="n">
-        <v>19.33</v>
+        <v>28.29</v>
       </c>
       <c r="G63" t="n">
-        <v>110.8</v>
+        <v>41.71</v>
       </c>
       <c r="H63" t="n">
-        <v>111.11</v>
+        <v>40.61</v>
       </c>
       <c r="I63" t="n">
-        <v>104.01</v>
+        <v>40.24</v>
       </c>
       <c r="J63" t="n">
-        <v>43.54</v>
+        <v>13.49</v>
       </c>
       <c r="K63" t="n">
-        <v>133.62</v>
+        <v>27.25</v>
       </c>
       <c r="L63" t="n">
-        <v>10952.81</v>
+        <v>1475.82</v>
       </c>
     </row>
     <row r="64">
@@ -3236,35 +3236,35 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>offset_PPI_4</t>
+          <t>offset_PPI_6</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>10.43</v>
+        <v>2.29</v>
       </c>
       <c r="E64" t="n">
-        <v>30.14</v>
+        <v>30.57</v>
       </c>
       <c r="F64" t="n">
-        <v>19.71</v>
+        <v>28.29</v>
       </c>
       <c r="G64" t="n">
-        <v>102.07</v>
+        <v>39.07</v>
       </c>
       <c r="H64" t="n">
-        <v>102.36</v>
+        <v>38.86</v>
       </c>
       <c r="I64" t="n">
-        <v>94.12</v>
+        <v>38.22</v>
       </c>
       <c r="J64" t="n">
-        <v>40.01</v>
+        <v>12.53</v>
       </c>
       <c r="K64" t="n">
-        <v>134.35</v>
+        <v>24.63</v>
       </c>
       <c r="L64" t="n">
-        <v>10042.09</v>
+        <v>1356.69</v>
       </c>
     </row>
     <row r="65">
@@ -3280,35 +3280,35 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>offset_PPI_6</t>
+          <t>offset_PPI_8</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>10.29</v>
+        <v>2.13</v>
       </c>
       <c r="E65" t="n">
-        <v>30.14</v>
+        <v>28.8</v>
       </c>
       <c r="F65" t="n">
-        <v>19.86</v>
+        <v>26.67</v>
       </c>
       <c r="G65" t="n">
-        <v>95.20999999999999</v>
+        <v>42.27</v>
       </c>
       <c r="H65" t="n">
-        <v>95.55</v>
+        <v>41.85</v>
       </c>
       <c r="I65" t="n">
-        <v>84.25</v>
+        <v>40.07</v>
       </c>
       <c r="J65" t="n">
-        <v>37.6</v>
+        <v>13.48</v>
       </c>
       <c r="K65" t="n">
-        <v>138.85</v>
+        <v>25.64</v>
       </c>
       <c r="L65" t="n">
-        <v>9747.620000000001</v>
+        <v>1516.31</v>
       </c>
     </row>
     <row r="66">
@@ -3324,35 +3324,35 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>offset_PPI_8</t>
+          <t>offset_PPI_10</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>10.53</v>
+        <v>2</v>
       </c>
       <c r="E66" t="n">
-        <v>30</v>
+        <v>29.6</v>
       </c>
       <c r="F66" t="n">
-        <v>19.47</v>
+        <v>27.6</v>
       </c>
       <c r="G66" t="n">
-        <v>101.67</v>
+        <v>43</v>
       </c>
       <c r="H66" t="n">
-        <v>101.95</v>
+        <v>42.69</v>
       </c>
       <c r="I66" t="n">
-        <v>91.91</v>
+        <v>40.42</v>
       </c>
       <c r="J66" t="n">
-        <v>39.5</v>
+        <v>14</v>
       </c>
       <c r="K66" t="n">
-        <v>129.5</v>
+        <v>27.11</v>
       </c>
       <c r="L66" t="n">
-        <v>9781.77</v>
+        <v>1532.44</v>
       </c>
     </row>
     <row r="67">
@@ -3368,35 +3368,35 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>offset_PPI_10</t>
+          <t>offset_PPI_12</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>10.27</v>
+        <v>2</v>
       </c>
       <c r="E67" t="n">
-        <v>30.4</v>
+        <v>28.93</v>
       </c>
       <c r="F67" t="n">
-        <v>20.13</v>
+        <v>26.93</v>
       </c>
       <c r="G67" t="n">
-        <v>103.2</v>
+        <v>42.47</v>
       </c>
       <c r="H67" t="n">
-        <v>103.42</v>
+        <v>41.9</v>
       </c>
       <c r="I67" t="n">
-        <v>94.19</v>
+        <v>41.06</v>
       </c>
       <c r="J67" t="n">
-        <v>40.99</v>
+        <v>13.62</v>
       </c>
       <c r="K67" t="n">
-        <v>139.23</v>
+        <v>28.05</v>
       </c>
       <c r="L67" t="n">
-        <v>10378.06</v>
+        <v>1604.39</v>
       </c>
     </row>
     <row r="68">
@@ -3412,35 +3412,35 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>offset_PPI_12</t>
+          <t>offset_PPI_14</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>10.8</v>
+        <v>2</v>
       </c>
       <c r="E68" t="n">
-        <v>31.73</v>
+        <v>29.6</v>
       </c>
       <c r="F68" t="n">
-        <v>20.93</v>
+        <v>27.6</v>
       </c>
       <c r="G68" t="n">
-        <v>102.73</v>
+        <v>42.4</v>
       </c>
       <c r="H68" t="n">
-        <v>102.51</v>
+        <v>41.67</v>
       </c>
       <c r="I68" t="n">
-        <v>94.68000000000001</v>
+        <v>40.6</v>
       </c>
       <c r="J68" t="n">
-        <v>41.11</v>
+        <v>13.62</v>
       </c>
       <c r="K68" t="n">
-        <v>139.4</v>
+        <v>25.39</v>
       </c>
       <c r="L68" t="n">
-        <v>10359.22</v>
+        <v>1448.08</v>
       </c>
     </row>
     <row r="69">
@@ -3456,35 +3456,35 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>offset_PPI_14</t>
+          <t>offset_PPI_16</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>10.93</v>
+        <v>2</v>
       </c>
       <c r="E69" t="n">
-        <v>30.27</v>
+        <v>25.07</v>
       </c>
       <c r="F69" t="n">
-        <v>19.33</v>
+        <v>23.07</v>
       </c>
       <c r="G69" t="n">
-        <v>101.87</v>
+        <v>42.87</v>
       </c>
       <c r="H69" t="n">
-        <v>102.06</v>
+        <v>42</v>
       </c>
       <c r="I69" t="n">
-        <v>92.31</v>
+        <v>40.24</v>
       </c>
       <c r="J69" t="n">
-        <v>40.28</v>
+        <v>14.45</v>
       </c>
       <c r="K69" t="n">
-        <v>132.78</v>
+        <v>33.21</v>
       </c>
       <c r="L69" t="n">
-        <v>10221.67</v>
+        <v>1936.22</v>
       </c>
     </row>
     <row r="70">
@@ -3500,35 +3500,35 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>offset_PPI_16</t>
+          <t>offset_PPI_18</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>10.93</v>
+        <v>2</v>
       </c>
       <c r="E70" t="n">
-        <v>31.6</v>
+        <v>27.08</v>
       </c>
       <c r="F70" t="n">
-        <v>20.67</v>
+        <v>25.08</v>
       </c>
       <c r="G70" t="n">
-        <v>106.33</v>
+        <v>41.23</v>
       </c>
       <c r="H70" t="n">
-        <v>103.6</v>
+        <v>40.6</v>
       </c>
       <c r="I70" t="n">
-        <v>97.56999999999999</v>
+        <v>39.38</v>
       </c>
       <c r="J70" t="n">
-        <v>42.55</v>
+        <v>13.4</v>
       </c>
       <c r="K70" t="n">
-        <v>140.07</v>
+        <v>29.14</v>
       </c>
       <c r="L70" t="n">
-        <v>10795.07</v>
+        <v>1717.01</v>
       </c>
     </row>
     <row r="71">
@@ -3544,35 +3544,35 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>offset_PPI_18</t>
+          <t>offset_PPI_20</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>10.46</v>
+        <v>2</v>
       </c>
       <c r="E71" t="n">
-        <v>32</v>
+        <v>28.62</v>
       </c>
       <c r="F71" t="n">
-        <v>21.54</v>
+        <v>26.62</v>
       </c>
       <c r="G71" t="n">
-        <v>98.54000000000001</v>
+        <v>46.54</v>
       </c>
       <c r="H71" t="n">
-        <v>98.7</v>
+        <v>46.04</v>
       </c>
       <c r="I71" t="n">
-        <v>89.09999999999999</v>
+        <v>44.38</v>
       </c>
       <c r="J71" t="n">
-        <v>39.81</v>
+        <v>15.37</v>
       </c>
       <c r="K71" t="n">
-        <v>135.45</v>
+        <v>31.13</v>
       </c>
       <c r="L71" t="n">
-        <v>10116.12</v>
+        <v>1725.51</v>
       </c>
     </row>
     <row r="72">
@@ -3588,41 +3588,41 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>offset_PPI_20</t>
+          <t>offset_PPI_50</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>10.62</v>
+        <v>2</v>
       </c>
       <c r="E72" t="n">
-        <v>30</v>
+        <v>31.23</v>
       </c>
       <c r="F72" t="n">
-        <v>19.38</v>
+        <v>29.23</v>
       </c>
       <c r="G72" t="n">
-        <v>112.85</v>
+        <v>42.46</v>
       </c>
       <c r="H72" t="n">
-        <v>113.17</v>
+        <v>41.48</v>
       </c>
       <c r="I72" t="n">
-        <v>102.93</v>
+        <v>40.04</v>
       </c>
       <c r="J72" t="n">
-        <v>44.88</v>
+        <v>13.88</v>
       </c>
       <c r="K72" t="n">
-        <v>136.57</v>
+        <v>24.98</v>
       </c>
       <c r="L72" t="n">
-        <v>11433.97</v>
+        <v>1458.69</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Animal6</t>
+          <t>Animal10</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3632,35 +3632,35 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>offset_PPI_50</t>
+          <t>ASR_control</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>10.62</v>
+        <v>2.13</v>
       </c>
       <c r="E73" t="n">
-        <v>30</v>
+        <v>28.67</v>
       </c>
       <c r="F73" t="n">
-        <v>19.38</v>
+        <v>26.53</v>
       </c>
       <c r="G73" t="n">
-        <v>105.38</v>
+        <v>41.87</v>
       </c>
       <c r="H73" t="n">
-        <v>105.53</v>
+        <v>41.36</v>
       </c>
       <c r="I73" t="n">
-        <v>97.33</v>
+        <v>38.21</v>
       </c>
       <c r="J73" t="n">
-        <v>42.34</v>
+        <v>13.79</v>
       </c>
       <c r="K73" t="n">
-        <v>141.02</v>
+        <v>29.87</v>
       </c>
       <c r="L73" t="n">
-        <v>10932.63</v>
+        <v>1599.9</v>
       </c>
     </row>
     <row r="74">
@@ -3676,35 +3676,35 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>ASR_control</t>
+          <t>gap_depth</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>10.67</v>
+        <v>2</v>
       </c>
       <c r="E74" t="n">
-        <v>30.4</v>
+        <v>28.53</v>
       </c>
       <c r="F74" t="n">
-        <v>19.73</v>
+        <v>26.53</v>
       </c>
       <c r="G74" t="n">
-        <v>100.67</v>
+        <v>41.33</v>
       </c>
       <c r="H74" t="n">
-        <v>101.05</v>
+        <v>40.88</v>
       </c>
       <c r="I74" t="n">
-        <v>90.61</v>
+        <v>39.59</v>
       </c>
       <c r="J74" t="n">
-        <v>42.28</v>
+        <v>13.4</v>
       </c>
       <c r="K74" t="n">
-        <v>158.6</v>
+        <v>27.4</v>
       </c>
       <c r="L74" t="n">
-        <v>12035</v>
+        <v>1477.73</v>
       </c>
     </row>
     <row r="75">
@@ -3720,35 +3720,35 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>gap_depth</t>
+          <t>tone_in_noise</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>9.33</v>
+        <v>2</v>
       </c>
       <c r="E75" t="n">
-        <v>30.27</v>
+        <v>30.53</v>
       </c>
       <c r="F75" t="n">
-        <v>20.93</v>
+        <v>28.53</v>
       </c>
       <c r="G75" t="n">
-        <v>100.27</v>
+        <v>29.47</v>
       </c>
       <c r="H75" t="n">
-        <v>100.54</v>
+        <v>29.22</v>
       </c>
       <c r="I75" t="n">
-        <v>89.63</v>
+        <v>28.41</v>
       </c>
       <c r="J75" t="n">
-        <v>40.79</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="K75" t="n">
-        <v>141.22</v>
+        <v>17.94</v>
       </c>
       <c r="L75" t="n">
-        <v>10966.64</v>
+        <v>960.97</v>
       </c>
     </row>
     <row r="76">
@@ -3764,35 +3764,35 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>tone_in_noise</t>
+          <t>gap_duration_4</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>7.73</v>
+        <v>2</v>
       </c>
       <c r="E76" t="n">
-        <v>30.53</v>
+        <v>28.67</v>
       </c>
       <c r="F76" t="n">
-        <v>22.8</v>
+        <v>26.67</v>
       </c>
       <c r="G76" t="n">
-        <v>71.2</v>
+        <v>47.53</v>
       </c>
       <c r="H76" t="n">
-        <v>71.36</v>
+        <v>46.65</v>
       </c>
       <c r="I76" t="n">
-        <v>62.51</v>
+        <v>45.47</v>
       </c>
       <c r="J76" t="n">
-        <v>28.98</v>
+        <v>15.74</v>
       </c>
       <c r="K76" t="n">
-        <v>164.22</v>
+        <v>30.34</v>
       </c>
       <c r="L76" t="n">
-        <v>8201.620000000001</v>
+        <v>1901.9</v>
       </c>
     </row>
     <row r="77">
@@ -3808,35 +3808,35 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>gap_duration_4</t>
+          <t>gap_duration_8</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>10.53</v>
+        <v>2</v>
       </c>
       <c r="E77" t="n">
-        <v>31.6</v>
+        <v>30.27</v>
       </c>
       <c r="F77" t="n">
-        <v>21.07</v>
+        <v>28.27</v>
       </c>
       <c r="G77" t="n">
-        <v>116.6</v>
+        <v>34.8</v>
       </c>
       <c r="H77" t="n">
-        <v>116.93</v>
+        <v>33.97</v>
       </c>
       <c r="I77" t="n">
-        <v>103.31</v>
+        <v>32.83</v>
       </c>
       <c r="J77" t="n">
-        <v>49.07</v>
+        <v>11.28</v>
       </c>
       <c r="K77" t="n">
-        <v>156.83</v>
+        <v>29.66</v>
       </c>
       <c r="L77" t="n">
-        <v>13783.62</v>
+        <v>1329.72</v>
       </c>
     </row>
     <row r="78">
@@ -3852,35 +3852,35 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>gap_duration_8</t>
+          <t>gap_duration_10</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E78" t="n">
-        <v>30.93</v>
+        <v>26.14</v>
       </c>
       <c r="F78" t="n">
-        <v>20.93</v>
+        <v>24.14</v>
       </c>
       <c r="G78" t="n">
-        <v>82.8</v>
+        <v>41.14</v>
       </c>
       <c r="H78" t="n">
-        <v>83.17</v>
+        <v>40.4</v>
       </c>
       <c r="I78" t="n">
-        <v>73.87</v>
+        <v>38.55</v>
       </c>
       <c r="J78" t="n">
-        <v>33.92</v>
+        <v>13.72</v>
       </c>
       <c r="K78" t="n">
-        <v>162.96</v>
+        <v>32.08</v>
       </c>
       <c r="L78" t="n">
-        <v>9685.139999999999</v>
+        <v>1663.19</v>
       </c>
     </row>
     <row r="79">
@@ -3896,35 +3896,35 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>gap_duration_10</t>
+          <t>gap_duration_20</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>10.14</v>
+        <v>2</v>
       </c>
       <c r="E79" t="n">
-        <v>30.29</v>
+        <v>28.31</v>
       </c>
       <c r="F79" t="n">
-        <v>20.14</v>
+        <v>26.31</v>
       </c>
       <c r="G79" t="n">
-        <v>102.29</v>
+        <v>41.77</v>
       </c>
       <c r="H79" t="n">
-        <v>102.66</v>
+        <v>40.8</v>
       </c>
       <c r="I79" t="n">
-        <v>96.03</v>
+        <v>38.16</v>
       </c>
       <c r="J79" t="n">
-        <v>43.44</v>
+        <v>13.95</v>
       </c>
       <c r="K79" t="n">
-        <v>163.82</v>
+        <v>28.29</v>
       </c>
       <c r="L79" t="n">
-        <v>12286.85</v>
+        <v>1582.13</v>
       </c>
     </row>
     <row r="80">
@@ -3940,35 +3940,35 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>gap_duration_20</t>
+          <t>gap_duration_50</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>9.85</v>
+        <v>2</v>
       </c>
       <c r="E80" t="n">
-        <v>30</v>
+        <v>26.53</v>
       </c>
       <c r="F80" t="n">
-        <v>20.15</v>
+        <v>24.53</v>
       </c>
       <c r="G80" t="n">
-        <v>100.69</v>
+        <v>41.93</v>
       </c>
       <c r="H80" t="n">
-        <v>101.05</v>
+        <v>41.48</v>
       </c>
       <c r="I80" t="n">
-        <v>88.43000000000001</v>
+        <v>39.89</v>
       </c>
       <c r="J80" t="n">
-        <v>42.73</v>
+        <v>14.38</v>
       </c>
       <c r="K80" t="n">
-        <v>166.14</v>
+        <v>31.95</v>
       </c>
       <c r="L80" t="n">
-        <v>12298.9</v>
+        <v>1806.83</v>
       </c>
     </row>
     <row r="81">
@@ -3984,35 +3984,35 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>gap_duration_50</t>
+          <t>offset_PPI_4</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>10.13</v>
+        <v>2</v>
       </c>
       <c r="E81" t="n">
-        <v>33.2</v>
+        <v>29.57</v>
       </c>
       <c r="F81" t="n">
-        <v>23.07</v>
+        <v>27.57</v>
       </c>
       <c r="G81" t="n">
-        <v>104.6</v>
+        <v>38.64</v>
       </c>
       <c r="H81" t="n">
-        <v>103.89</v>
+        <v>37.77</v>
       </c>
       <c r="I81" t="n">
-        <v>92.51000000000001</v>
+        <v>36.78</v>
       </c>
       <c r="J81" t="n">
-        <v>45.45</v>
+        <v>12.59</v>
       </c>
       <c r="K81" t="n">
-        <v>167.89</v>
+        <v>27.99</v>
       </c>
       <c r="L81" t="n">
-        <v>12932.41</v>
+        <v>1420.96</v>
       </c>
     </row>
     <row r="82">
@@ -4028,35 +4028,35 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>offset_PPI_4</t>
+          <t>offset_PPI_6</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>10.29</v>
+        <v>2</v>
       </c>
       <c r="E82" t="n">
-        <v>30.71</v>
+        <v>27.33</v>
       </c>
       <c r="F82" t="n">
-        <v>20.43</v>
+        <v>25.33</v>
       </c>
       <c r="G82" t="n">
-        <v>93.86</v>
+        <v>39.75</v>
       </c>
       <c r="H82" t="n">
-        <v>94.06</v>
+        <v>39.21</v>
       </c>
       <c r="I82" t="n">
-        <v>85.28</v>
+        <v>37.21</v>
       </c>
       <c r="J82" t="n">
-        <v>38.11</v>
+        <v>12.78</v>
       </c>
       <c r="K82" t="n">
-        <v>154.34</v>
+        <v>27.45</v>
       </c>
       <c r="L82" t="n">
-        <v>10579.5</v>
+        <v>1468.76</v>
       </c>
     </row>
     <row r="83">
@@ -4072,35 +4072,35 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>offset_PPI_6</t>
+          <t>offset_PPI_8</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>10.83</v>
+        <v>2</v>
       </c>
       <c r="E83" t="n">
-        <v>30.5</v>
+        <v>30</v>
       </c>
       <c r="F83" t="n">
-        <v>19.67</v>
+        <v>28</v>
       </c>
       <c r="G83" t="n">
-        <v>94.33</v>
+        <v>36.85</v>
       </c>
       <c r="H83" t="n">
-        <v>94.70999999999999</v>
+        <v>36.22</v>
       </c>
       <c r="I83" t="n">
-        <v>82</v>
+        <v>35.22</v>
       </c>
       <c r="J83" t="n">
-        <v>38.93</v>
+        <v>11.69</v>
       </c>
       <c r="K83" t="n">
-        <v>163.98</v>
+        <v>26.91</v>
       </c>
       <c r="L83" t="n">
-        <v>11502.52</v>
+        <v>1299.95</v>
       </c>
     </row>
     <row r="84">
@@ -4116,35 +4116,35 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>offset_PPI_8</t>
+          <t>offset_PPI_10</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>11.38</v>
+        <v>2</v>
       </c>
       <c r="E84" t="n">
-        <v>32.15</v>
+        <v>29.07</v>
       </c>
       <c r="F84" t="n">
-        <v>20.77</v>
+        <v>27.07</v>
       </c>
       <c r="G84" t="n">
-        <v>86</v>
+        <v>37.8</v>
       </c>
       <c r="H84" t="n">
-        <v>86.29000000000001</v>
+        <v>37.55</v>
       </c>
       <c r="I84" t="n">
-        <v>73.88</v>
+        <v>36.6</v>
       </c>
       <c r="J84" t="n">
-        <v>35.47</v>
+        <v>12.24</v>
       </c>
       <c r="K84" t="n">
-        <v>160.62</v>
+        <v>28.05</v>
       </c>
       <c r="L84" t="n">
-        <v>10013</v>
+        <v>1347.86</v>
       </c>
     </row>
     <row r="85">
@@ -4160,35 +4160,35 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>offset_PPI_10</t>
+          <t>offset_PPI_12</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>10.93</v>
+        <v>2</v>
       </c>
       <c r="E85" t="n">
-        <v>30.27</v>
+        <v>29.71</v>
       </c>
       <c r="F85" t="n">
-        <v>19.33</v>
+        <v>27.71</v>
       </c>
       <c r="G85" t="n">
-        <v>92.53</v>
+        <v>39.64</v>
       </c>
       <c r="H85" t="n">
-        <v>92.76000000000001</v>
+        <v>39.29</v>
       </c>
       <c r="I85" t="n">
-        <v>79.01000000000001</v>
+        <v>37.26</v>
       </c>
       <c r="J85" t="n">
-        <v>38.45</v>
+        <v>12.62</v>
       </c>
       <c r="K85" t="n">
-        <v>170.13</v>
+        <v>25.93</v>
       </c>
       <c r="L85" t="n">
-        <v>11009.43</v>
+        <v>1437.25</v>
       </c>
     </row>
     <row r="86">
@@ -4204,35 +4204,35 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>offset_PPI_12</t>
+          <t>offset_PPI_14</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>10.29</v>
+        <v>2.67</v>
       </c>
       <c r="E86" t="n">
-        <v>30.57</v>
+        <v>29.6</v>
       </c>
       <c r="F86" t="n">
-        <v>20.29</v>
+        <v>26.93</v>
       </c>
       <c r="G86" t="n">
-        <v>94.93000000000001</v>
+        <v>40.33</v>
       </c>
       <c r="H86" t="n">
-        <v>95.23999999999999</v>
+        <v>39.42</v>
       </c>
       <c r="I86" t="n">
-        <v>83.79000000000001</v>
+        <v>36.97</v>
       </c>
       <c r="J86" t="n">
-        <v>39.27</v>
+        <v>13.03</v>
       </c>
       <c r="K86" t="n">
-        <v>167.12</v>
+        <v>26.88</v>
       </c>
       <c r="L86" t="n">
-        <v>11257.46</v>
+        <v>1546.09</v>
       </c>
     </row>
     <row r="87">
@@ -4248,35 +4248,35 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>offset_PPI_14</t>
+          <t>offset_PPI_16</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>10.71</v>
+        <v>2</v>
       </c>
       <c r="E87" t="n">
-        <v>31</v>
+        <v>30.53</v>
       </c>
       <c r="F87" t="n">
-        <v>20.29</v>
+        <v>28.53</v>
       </c>
       <c r="G87" t="n">
-        <v>94.56999999999999</v>
+        <v>36.53</v>
       </c>
       <c r="H87" t="n">
-        <v>94.76000000000001</v>
+        <v>36.37</v>
       </c>
       <c r="I87" t="n">
-        <v>83.89</v>
+        <v>35.37</v>
       </c>
       <c r="J87" t="n">
-        <v>37.43</v>
+        <v>11.35</v>
       </c>
       <c r="K87" t="n">
-        <v>146.34</v>
+        <v>21.86</v>
       </c>
       <c r="L87" t="n">
-        <v>9902.799999999999</v>
+        <v>1235.48</v>
       </c>
     </row>
     <row r="88">
@@ -4292,35 +4292,35 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>offset_PPI_16</t>
+          <t>offset_PPI_18</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>10.8</v>
+        <v>2</v>
       </c>
       <c r="E88" t="n">
-        <v>30.27</v>
+        <v>28.43</v>
       </c>
       <c r="F88" t="n">
-        <v>19.47</v>
+        <v>26.43</v>
       </c>
       <c r="G88" t="n">
-        <v>86.8</v>
+        <v>41.5</v>
       </c>
       <c r="H88" t="n">
-        <v>87.08</v>
+        <v>41.12</v>
       </c>
       <c r="I88" t="n">
-        <v>76.93000000000001</v>
+        <v>38.34</v>
       </c>
       <c r="J88" t="n">
-        <v>35</v>
+        <v>13.25</v>
       </c>
       <c r="K88" t="n">
-        <v>155.41</v>
+        <v>31.2</v>
       </c>
       <c r="L88" t="n">
-        <v>9924.17</v>
+        <v>1605.4</v>
       </c>
     </row>
     <row r="89">
@@ -4336,35 +4336,35 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>offset_PPI_18</t>
+          <t>offset_PPI_20</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>9.859999999999999</v>
+        <v>2</v>
       </c>
       <c r="E89" t="n">
-        <v>30</v>
+        <v>28.53</v>
       </c>
       <c r="F89" t="n">
-        <v>20.14</v>
+        <v>26.53</v>
       </c>
       <c r="G89" t="n">
-        <v>100.36</v>
+        <v>36.07</v>
       </c>
       <c r="H89" t="n">
-        <v>100.58</v>
+        <v>34.78</v>
       </c>
       <c r="I89" t="n">
-        <v>89.8</v>
+        <v>32.81</v>
       </c>
       <c r="J89" t="n">
-        <v>41.53</v>
+        <v>11.72</v>
       </c>
       <c r="K89" t="n">
-        <v>165.72</v>
+        <v>28</v>
       </c>
       <c r="L89" t="n">
-        <v>11696.27</v>
+        <v>1418.32</v>
       </c>
     </row>
     <row r="90">
@@ -4380,79 +4380,79 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>offset_PPI_20</t>
+          <t>offset_PPI_50</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>10.8</v>
+        <v>2</v>
       </c>
       <c r="E90" t="n">
-        <v>30.93</v>
+        <v>31</v>
       </c>
       <c r="F90" t="n">
-        <v>20.13</v>
+        <v>29</v>
       </c>
       <c r="G90" t="n">
-        <v>85.67</v>
+        <v>38.86</v>
       </c>
       <c r="H90" t="n">
-        <v>86.06999999999999</v>
+        <v>38</v>
       </c>
       <c r="I90" t="n">
-        <v>79.34</v>
+        <v>35.81</v>
       </c>
       <c r="J90" t="n">
-        <v>35.75</v>
+        <v>12.82</v>
       </c>
       <c r="K90" t="n">
-        <v>178.01</v>
+        <v>26.41</v>
       </c>
       <c r="L90" t="n">
-        <v>10191.37</v>
+        <v>1418.3</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Animal10</t>
+          <t>Animal15</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>offset_PPI_50</t>
+          <t>ASR_control</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>10.86</v>
+        <v>2.29</v>
       </c>
       <c r="E91" t="n">
-        <v>30.86</v>
+        <v>26.29</v>
       </c>
       <c r="F91" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G91" t="n">
-        <v>91.93000000000001</v>
+        <v>90.64</v>
       </c>
       <c r="H91" t="n">
-        <v>92.34</v>
+        <v>86.86</v>
       </c>
       <c r="I91" t="n">
-        <v>79.91</v>
+        <v>79.28</v>
       </c>
       <c r="J91" t="n">
-        <v>37.36</v>
+        <v>28.65</v>
       </c>
       <c r="K91" t="n">
-        <v>149.79</v>
+        <v>28.11</v>
       </c>
       <c r="L91" t="n">
-        <v>10273.46</v>
+        <v>3497.38</v>
       </c>
     </row>
     <row r="92">
@@ -4468,35 +4468,35 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>ASR_control</t>
+          <t>gap_depth</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>11</v>
+        <v>2.13</v>
       </c>
       <c r="E92" t="n">
-        <v>30</v>
+        <v>22.27</v>
       </c>
       <c r="F92" t="n">
-        <v>19</v>
+        <v>20.13</v>
       </c>
       <c r="G92" t="n">
-        <v>185.57</v>
+        <v>99.27</v>
       </c>
       <c r="H92" t="n">
-        <v>184.49</v>
+        <v>97.31999999999999</v>
       </c>
       <c r="I92" t="n">
-        <v>171.46</v>
+        <v>91.95999999999999</v>
       </c>
       <c r="J92" t="n">
-        <v>66.54000000000001</v>
+        <v>32.16</v>
       </c>
       <c r="K92" t="n">
-        <v>118.95</v>
+        <v>38.1</v>
       </c>
       <c r="L92" t="n">
-        <v>15302.13</v>
+        <v>4508.56</v>
       </c>
     </row>
     <row r="93">
@@ -4512,35 +4512,35 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>gap_depth</t>
+          <t>tone_in_noise</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E93" t="n">
-        <v>31.47</v>
+        <v>23.23</v>
       </c>
       <c r="F93" t="n">
-        <v>21.47</v>
+        <v>21.23</v>
       </c>
       <c r="G93" t="n">
-        <v>203.93</v>
+        <v>76.45999999999999</v>
       </c>
       <c r="H93" t="n">
-        <v>202.85</v>
+        <v>75.01000000000001</v>
       </c>
       <c r="I93" t="n">
-        <v>190.78</v>
+        <v>68.26000000000001</v>
       </c>
       <c r="J93" t="n">
-        <v>86.42</v>
+        <v>25.18</v>
       </c>
       <c r="K93" t="n">
-        <v>148.2</v>
+        <v>34.36</v>
       </c>
       <c r="L93" t="n">
-        <v>23055.95</v>
+        <v>3108.63</v>
       </c>
     </row>
     <row r="94">
@@ -4556,35 +4556,35 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>tone_in_noise</t>
+          <t>gap_duration_4</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>9.380000000000001</v>
+        <v>2.71</v>
       </c>
       <c r="E94" t="n">
-        <v>29.23</v>
+        <v>25.71</v>
       </c>
       <c r="F94" t="n">
-        <v>19.85</v>
+        <v>23</v>
       </c>
       <c r="G94" t="n">
-        <v>170.54</v>
+        <v>83.93000000000001</v>
       </c>
       <c r="H94" t="n">
-        <v>170.16</v>
+        <v>79.98</v>
       </c>
       <c r="I94" t="n">
-        <v>153.9</v>
+        <v>78.44</v>
       </c>
       <c r="J94" t="n">
-        <v>67.59999999999999</v>
+        <v>27.59</v>
       </c>
       <c r="K94" t="n">
-        <v>132.88</v>
+        <v>32.9</v>
       </c>
       <c r="L94" t="n">
-        <v>17422.59</v>
+        <v>3811.05</v>
       </c>
     </row>
     <row r="95">
@@ -4600,35 +4600,35 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>gap_duration_4</t>
+          <t>gap_duration_8</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>10.43</v>
+        <v>2.14</v>
       </c>
       <c r="E95" t="n">
-        <v>32.29</v>
+        <v>21.71</v>
       </c>
       <c r="F95" t="n">
-        <v>21.86</v>
+        <v>19.57</v>
       </c>
       <c r="G95" t="n">
-        <v>186.71</v>
+        <v>92.43000000000001</v>
       </c>
       <c r="H95" t="n">
-        <v>184.35</v>
+        <v>89.43000000000001</v>
       </c>
       <c r="I95" t="n">
-        <v>173.98</v>
+        <v>85.94</v>
       </c>
       <c r="J95" t="n">
-        <v>73.92</v>
+        <v>30.54</v>
       </c>
       <c r="K95" t="n">
-        <v>131.03</v>
+        <v>40.39</v>
       </c>
       <c r="L95" t="n">
-        <v>19362.77</v>
+        <v>4448.18</v>
       </c>
     </row>
     <row r="96">
@@ -4644,35 +4644,35 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>gap_duration_8</t>
+          <t>gap_duration_10</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>11.33</v>
+        <v>2</v>
       </c>
       <c r="E96" t="n">
-        <v>33.2</v>
+        <v>24.27</v>
       </c>
       <c r="F96" t="n">
-        <v>21.87</v>
+        <v>22.27</v>
       </c>
       <c r="G96" t="n">
-        <v>192.2</v>
+        <v>84.87</v>
       </c>
       <c r="H96" t="n">
-        <v>189.77</v>
+        <v>80.31999999999999</v>
       </c>
       <c r="I96" t="n">
-        <v>177.41</v>
+        <v>74.31999999999999</v>
       </c>
       <c r="J96" t="n">
-        <v>78.04000000000001</v>
+        <v>27.82</v>
       </c>
       <c r="K96" t="n">
-        <v>133.02</v>
+        <v>33.19</v>
       </c>
       <c r="L96" t="n">
-        <v>19595.7</v>
+        <v>3547.03</v>
       </c>
     </row>
     <row r="97">
@@ -4688,35 +4688,35 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>gap_duration_10</t>
+          <t>gap_duration_20</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>10.93</v>
+        <v>2</v>
       </c>
       <c r="E97" t="n">
-        <v>32.53</v>
+        <v>22.57</v>
       </c>
       <c r="F97" t="n">
-        <v>21.6</v>
+        <v>20.57</v>
       </c>
       <c r="G97" t="n">
-        <v>184.87</v>
+        <v>84</v>
       </c>
       <c r="H97" t="n">
-        <v>184.27</v>
+        <v>79.73999999999999</v>
       </c>
       <c r="I97" t="n">
-        <v>171.97</v>
+        <v>74.42</v>
       </c>
       <c r="J97" t="n">
-        <v>74.14</v>
+        <v>27.26</v>
       </c>
       <c r="K97" t="n">
-        <v>142.83</v>
+        <v>33.23</v>
       </c>
       <c r="L97" t="n">
-        <v>18851.47</v>
+        <v>3869.71</v>
       </c>
     </row>
     <row r="98">
@@ -4732,35 +4732,35 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>gap_duration_20</t>
+          <t>gap_duration_50</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E98" t="n">
-        <v>30.29</v>
+        <v>23.2</v>
       </c>
       <c r="F98" t="n">
-        <v>20.29</v>
+        <v>21.2</v>
       </c>
       <c r="G98" t="n">
-        <v>178.79</v>
+        <v>90.53</v>
       </c>
       <c r="H98" t="n">
-        <v>178.84</v>
+        <v>87.73</v>
       </c>
       <c r="I98" t="n">
-        <v>163.8</v>
+        <v>81.86</v>
       </c>
       <c r="J98" t="n">
-        <v>69.63</v>
+        <v>30</v>
       </c>
       <c r="K98" t="n">
-        <v>145.55</v>
+        <v>36.67</v>
       </c>
       <c r="L98" t="n">
-        <v>18207.12</v>
+        <v>3993</v>
       </c>
     </row>
     <row r="99">
@@ -4776,35 +4776,35 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>gap_duration_50</t>
+          <t>offset_PPI_4</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>10.67</v>
+        <v>2.27</v>
       </c>
       <c r="E99" t="n">
-        <v>31.47</v>
+        <v>27.07</v>
       </c>
       <c r="F99" t="n">
-        <v>20.8</v>
+        <v>24.8</v>
       </c>
       <c r="G99" t="n">
-        <v>197.73</v>
+        <v>78.93000000000001</v>
       </c>
       <c r="H99" t="n">
-        <v>197.81</v>
+        <v>76.72</v>
       </c>
       <c r="I99" t="n">
-        <v>181.72</v>
+        <v>70.43000000000001</v>
       </c>
       <c r="J99" t="n">
-        <v>78.95999999999999</v>
+        <v>24.58</v>
       </c>
       <c r="K99" t="n">
-        <v>139.66</v>
+        <v>28.85</v>
       </c>
       <c r="L99" t="n">
-        <v>19856.2</v>
+        <v>3251.74</v>
       </c>
     </row>
     <row r="100">
@@ -4820,35 +4820,35 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>offset_PPI_4</t>
+          <t>offset_PPI_6</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>10.93</v>
+        <v>2.29</v>
       </c>
       <c r="E100" t="n">
-        <v>31.87</v>
+        <v>26.43</v>
       </c>
       <c r="F100" t="n">
-        <v>20.93</v>
+        <v>24.14</v>
       </c>
       <c r="G100" t="n">
-        <v>162.73</v>
+        <v>75.93000000000001</v>
       </c>
       <c r="H100" t="n">
-        <v>162.71</v>
+        <v>72.67</v>
       </c>
       <c r="I100" t="n">
-        <v>151</v>
+        <v>67.31</v>
       </c>
       <c r="J100" t="n">
-        <v>59.86</v>
+        <v>24.81</v>
       </c>
       <c r="K100" t="n">
-        <v>116.47</v>
+        <v>56.11</v>
       </c>
       <c r="L100" t="n">
-        <v>14202.66</v>
+        <v>3547.77</v>
       </c>
     </row>
     <row r="101">
@@ -4864,35 +4864,35 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>offset_PPI_6</t>
+          <t>offset_PPI_8</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>11.86</v>
+        <v>2.17</v>
       </c>
       <c r="E101" t="n">
-        <v>30.14</v>
+        <v>21.5</v>
       </c>
       <c r="F101" t="n">
-        <v>18.29</v>
+        <v>19.33</v>
       </c>
       <c r="G101" t="n">
-        <v>166.43</v>
+        <v>74.5</v>
       </c>
       <c r="H101" t="n">
-        <v>166.81</v>
+        <v>71.25</v>
       </c>
       <c r="I101" t="n">
-        <v>152.2</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="J101" t="n">
-        <v>66.53</v>
+        <v>24.9</v>
       </c>
       <c r="K101" t="n">
-        <v>118.72</v>
+        <v>35.89</v>
       </c>
       <c r="L101" t="n">
-        <v>18315.49</v>
+        <v>3602.33</v>
       </c>
     </row>
     <row r="102">
@@ -4908,35 +4908,35 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>offset_PPI_8</t>
+          <t>offset_PPI_10</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>11.33</v>
+        <v>2</v>
       </c>
       <c r="E102" t="n">
-        <v>33.83</v>
+        <v>29.09</v>
       </c>
       <c r="F102" t="n">
-        <v>22.5</v>
+        <v>27.09</v>
       </c>
       <c r="G102" t="n">
-        <v>171.5</v>
+        <v>72.81999999999999</v>
       </c>
       <c r="H102" t="n">
-        <v>169.24</v>
+        <v>71.2</v>
       </c>
       <c r="I102" t="n">
-        <v>157.31</v>
+        <v>66.05</v>
       </c>
       <c r="J102" t="n">
-        <v>72.56999999999999</v>
+        <v>24.1</v>
       </c>
       <c r="K102" t="n">
-        <v>149.71</v>
+        <v>36.92</v>
       </c>
       <c r="L102" t="n">
-        <v>18712.48</v>
+        <v>3170.68</v>
       </c>
     </row>
     <row r="103">
@@ -4952,35 +4952,35 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>offset_PPI_10</t>
+          <t>offset_PPI_12</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>9.199999999999999</v>
+        <v>2</v>
       </c>
       <c r="E103" t="n">
-        <v>30.8</v>
+        <v>28.57</v>
       </c>
       <c r="F103" t="n">
-        <v>21.6</v>
+        <v>26.57</v>
       </c>
       <c r="G103" t="n">
-        <v>163.6</v>
+        <v>67.36</v>
       </c>
       <c r="H103" t="n">
-        <v>163.49</v>
+        <v>64.83</v>
       </c>
       <c r="I103" t="n">
-        <v>148.19</v>
+        <v>62.12</v>
       </c>
       <c r="J103" t="n">
-        <v>62.86</v>
+        <v>22.26</v>
       </c>
       <c r="K103" t="n">
-        <v>134.02</v>
+        <v>28.78</v>
       </c>
       <c r="L103" t="n">
-        <v>15766.32</v>
+        <v>2846.53</v>
       </c>
     </row>
     <row r="104">
@@ -4996,35 +4996,35 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>offset_PPI_12</t>
+          <t>offset_PPI_14</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>10.86</v>
+        <v>2</v>
       </c>
       <c r="E104" t="n">
-        <v>29.57</v>
+        <v>27.33</v>
       </c>
       <c r="F104" t="n">
-        <v>18.71</v>
+        <v>25.33</v>
       </c>
       <c r="G104" t="n">
-        <v>154.79</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="H104" t="n">
-        <v>154.81</v>
+        <v>68.59</v>
       </c>
       <c r="I104" t="n">
-        <v>142.36</v>
+        <v>64.04000000000001</v>
       </c>
       <c r="J104" t="n">
-        <v>62.39</v>
+        <v>23.19</v>
       </c>
       <c r="K104" t="n">
-        <v>142.48</v>
+        <v>30.73</v>
       </c>
       <c r="L104" t="n">
-        <v>16823.19</v>
+        <v>3030.1</v>
       </c>
     </row>
     <row r="105">
@@ -5040,35 +5040,35 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>offset_PPI_14</t>
+          <t>offset_PPI_16</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>10.67</v>
+        <v>2.31</v>
       </c>
       <c r="E105" t="n">
-        <v>30.53</v>
+        <v>24.31</v>
       </c>
       <c r="F105" t="n">
-        <v>19.87</v>
+        <v>22</v>
       </c>
       <c r="G105" t="n">
-        <v>161.33</v>
+        <v>73.54000000000001</v>
       </c>
       <c r="H105" t="n">
-        <v>161.62</v>
+        <v>71.75</v>
       </c>
       <c r="I105" t="n">
-        <v>145.1</v>
+        <v>66.17</v>
       </c>
       <c r="J105" t="n">
-        <v>64.93000000000001</v>
+        <v>23.61</v>
       </c>
       <c r="K105" t="n">
-        <v>141.04</v>
+        <v>443999.11</v>
       </c>
       <c r="L105" t="n">
-        <v>16972.13</v>
+        <v>3429.84</v>
       </c>
     </row>
     <row r="106">
@@ -5084,35 +5084,35 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>offset_PPI_16</t>
+          <t>offset_PPI_18</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>11.17</v>
+        <v>2.22</v>
       </c>
       <c r="E106" t="n">
-        <v>30</v>
+        <v>28.44</v>
       </c>
       <c r="F106" t="n">
-        <v>18.83</v>
+        <v>26.22</v>
       </c>
       <c r="G106" t="n">
-        <v>168.25</v>
+        <v>75.11</v>
       </c>
       <c r="H106" t="n">
-        <v>168.49</v>
+        <v>72.12</v>
       </c>
       <c r="I106" t="n">
-        <v>151.19</v>
+        <v>67.43000000000001</v>
       </c>
       <c r="J106" t="n">
-        <v>67.11</v>
+        <v>24.71</v>
       </c>
       <c r="K106" t="n">
-        <v>138.33</v>
+        <v>29.78</v>
       </c>
       <c r="L106" t="n">
-        <v>17854.01</v>
+        <v>3038.67</v>
       </c>
     </row>
     <row r="107">
@@ -5128,35 +5128,35 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>offset_PPI_18</t>
+          <t>offset_PPI_20</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>10</v>
+        <v>2.27</v>
       </c>
       <c r="E107" t="n">
-        <v>30.22</v>
+        <v>25.47</v>
       </c>
       <c r="F107" t="n">
-        <v>20.22</v>
+        <v>23.2</v>
       </c>
       <c r="G107" t="n">
-        <v>169.56</v>
+        <v>70.47</v>
       </c>
       <c r="H107" t="n">
-        <v>169.46</v>
+        <v>68.26000000000001</v>
       </c>
       <c r="I107" t="n">
-        <v>150.28</v>
+        <v>63.61</v>
       </c>
       <c r="J107" t="n">
-        <v>67.68000000000001</v>
+        <v>22.73</v>
       </c>
       <c r="K107" t="n">
-        <v>139.94</v>
+        <v>32.73</v>
       </c>
       <c r="L107" t="n">
-        <v>18263.15</v>
+        <v>3116.74</v>
       </c>
     </row>
     <row r="108">
@@ -5172,79 +5172,35 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>offset_PPI_20</t>
+          <t>offset_PPI_50</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>11.73</v>
+        <v>2</v>
       </c>
       <c r="E108" t="n">
-        <v>30.4</v>
+        <v>25.43</v>
       </c>
       <c r="F108" t="n">
-        <v>18.67</v>
+        <v>23.43</v>
       </c>
       <c r="G108" t="n">
-        <v>152.67</v>
+        <v>77.36</v>
       </c>
       <c r="H108" t="n">
-        <v>152.88</v>
+        <v>75.70999999999999</v>
       </c>
       <c r="I108" t="n">
-        <v>137.65</v>
+        <v>69.73999999999999</v>
       </c>
       <c r="J108" t="n">
-        <v>60.32</v>
+        <v>25.19</v>
       </c>
       <c r="K108" t="n">
-        <v>154.19</v>
+        <v>28.79</v>
       </c>
       <c r="L108" t="n">
-        <v>15739.42</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>Animal15</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>offset_PPI_50</t>
-        </is>
-      </c>
-      <c r="D109" t="n">
-        <v>10.29</v>
-      </c>
-      <c r="E109" t="n">
-        <v>30.43</v>
-      </c>
-      <c r="F109" t="n">
-        <v>20.14</v>
-      </c>
-      <c r="G109" t="n">
-        <v>168.64</v>
-      </c>
-      <c r="H109" t="n">
-        <v>168.56</v>
-      </c>
-      <c r="I109" t="n">
-        <v>149.38</v>
-      </c>
-      <c r="J109" t="n">
-        <v>67.8</v>
-      </c>
-      <c r="K109" t="n">
-        <v>148.59</v>
-      </c>
-      <c r="L109" t="n">
-        <v>18342.79</v>
+        <v>3237.56</v>
       </c>
     </row>
   </sheetData>

--- a/[1] Peakfinder Results/OVERVIEW.xlsx
+++ b/[1] Peakfinder Results/OVERVIEW.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L108"/>
+  <dimension ref="A1:J108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,40 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>RMS</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>tau</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>AUC</t>
         </is>
@@ -512,30 +502,24 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2.43</v>
+        <v>30.71</v>
       </c>
       <c r="E2" t="n">
-        <v>30.71</v>
+        <v>32.21</v>
       </c>
       <c r="F2" t="n">
-        <v>28.29</v>
+        <v>30.96</v>
       </c>
       <c r="G2" t="n">
-        <v>32.21</v>
+        <v>28.94</v>
       </c>
       <c r="H2" t="n">
-        <v>30.96</v>
+        <v>10.27</v>
       </c>
       <c r="I2" t="n">
-        <v>28.94</v>
+        <v>26.4</v>
       </c>
       <c r="J2" t="n">
-        <v>10.27</v>
-      </c>
-      <c r="K2" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="L2" t="n">
         <v>1216.03</v>
       </c>
     </row>
@@ -556,30 +540,24 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>26.86</v>
       </c>
       <c r="E3" t="n">
-        <v>26.86</v>
+        <v>31.71</v>
       </c>
       <c r="F3" t="n">
-        <v>24.86</v>
+        <v>30.9</v>
       </c>
       <c r="G3" t="n">
-        <v>31.71</v>
+        <v>29.04</v>
       </c>
       <c r="H3" t="n">
-        <v>30.9</v>
+        <v>10.15</v>
       </c>
       <c r="I3" t="n">
-        <v>29.04</v>
+        <v>22.91</v>
       </c>
       <c r="J3" t="n">
-        <v>10.15</v>
-      </c>
-      <c r="K3" t="n">
-        <v>22.91</v>
-      </c>
-      <c r="L3" t="n">
         <v>1239.74</v>
       </c>
     </row>
@@ -600,30 +578,24 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>31.86</v>
       </c>
       <c r="E4" t="n">
-        <v>31.86</v>
+        <v>23.71</v>
       </c>
       <c r="F4" t="n">
-        <v>29.86</v>
+        <v>23.66</v>
       </c>
       <c r="G4" t="n">
-        <v>23.71</v>
+        <v>22.71</v>
       </c>
       <c r="H4" t="n">
-        <v>23.66</v>
+        <v>6.98</v>
       </c>
       <c r="I4" t="n">
-        <v>22.71</v>
+        <v>13.62</v>
       </c>
       <c r="J4" t="n">
-        <v>6.98</v>
-      </c>
-      <c r="K4" t="n">
-        <v>13.62</v>
-      </c>
-      <c r="L4" t="n">
         <v>713.91</v>
       </c>
     </row>
@@ -644,30 +616,24 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>29.57</v>
       </c>
       <c r="E5" t="n">
-        <v>29.57</v>
+        <v>32.71</v>
       </c>
       <c r="F5" t="n">
-        <v>27.57</v>
+        <v>31.79</v>
       </c>
       <c r="G5" t="n">
-        <v>32.71</v>
+        <v>29.21</v>
       </c>
       <c r="H5" t="n">
-        <v>31.79</v>
+        <v>10.71</v>
       </c>
       <c r="I5" t="n">
-        <v>29.21</v>
+        <v>27.99</v>
       </c>
       <c r="J5" t="n">
-        <v>10.71</v>
-      </c>
-      <c r="K5" t="n">
-        <v>27.99</v>
-      </c>
-      <c r="L5" t="n">
         <v>1211.59</v>
       </c>
     </row>
@@ -688,30 +654,24 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E6" t="n">
-        <v>25</v>
+        <v>31.5</v>
       </c>
       <c r="F6" t="n">
-        <v>23</v>
+        <v>30.29</v>
       </c>
       <c r="G6" t="n">
-        <v>31.5</v>
+        <v>28.74</v>
       </c>
       <c r="H6" t="n">
-        <v>30.29</v>
+        <v>10.4</v>
       </c>
       <c r="I6" t="n">
-        <v>28.74</v>
+        <v>29.93</v>
       </c>
       <c r="J6" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="K6" t="n">
-        <v>29.93</v>
-      </c>
-      <c r="L6" t="n">
         <v>1292.15</v>
       </c>
     </row>
@@ -732,30 +692,24 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>28.57</v>
       </c>
       <c r="E7" t="n">
-        <v>28.57</v>
+        <v>32.57</v>
       </c>
       <c r="F7" t="n">
-        <v>26.57</v>
+        <v>31.9</v>
       </c>
       <c r="G7" t="n">
-        <v>32.57</v>
+        <v>30.04</v>
       </c>
       <c r="H7" t="n">
-        <v>31.9</v>
+        <v>10.65</v>
       </c>
       <c r="I7" t="n">
-        <v>30.04</v>
+        <v>26.88</v>
       </c>
       <c r="J7" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K7" t="n">
-        <v>26.88</v>
-      </c>
-      <c r="L7" t="n">
         <v>1292.3</v>
       </c>
     </row>
@@ -776,30 +730,24 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>28.67</v>
       </c>
       <c r="E8" t="n">
-        <v>28.67</v>
+        <v>33.33</v>
       </c>
       <c r="F8" t="n">
-        <v>26.67</v>
+        <v>32.04</v>
       </c>
       <c r="G8" t="n">
-        <v>33.33</v>
+        <v>29.61</v>
       </c>
       <c r="H8" t="n">
-        <v>32.04</v>
+        <v>10.95</v>
       </c>
       <c r="I8" t="n">
-        <v>29.61</v>
+        <v>26.25</v>
       </c>
       <c r="J8" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="K8" t="n">
-        <v>26.25</v>
-      </c>
-      <c r="L8" t="n">
         <v>1233.42</v>
       </c>
     </row>
@@ -820,30 +768,24 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>30.53</v>
       </c>
       <c r="E9" t="n">
-        <v>30.53</v>
+        <v>32.73</v>
       </c>
       <c r="F9" t="n">
-        <v>28.53</v>
+        <v>32.57</v>
       </c>
       <c r="G9" t="n">
-        <v>32.73</v>
+        <v>30.15</v>
       </c>
       <c r="H9" t="n">
-        <v>32.57</v>
+        <v>10.35</v>
       </c>
       <c r="I9" t="n">
-        <v>30.15</v>
+        <v>22.8</v>
       </c>
       <c r="J9" t="n">
-        <v>10.35</v>
-      </c>
-      <c r="K9" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="L9" t="n">
         <v>1119.82</v>
       </c>
     </row>
@@ -864,30 +806,24 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E10" t="n">
-        <v>32</v>
+        <v>28.93</v>
       </c>
       <c r="F10" t="n">
-        <v>30</v>
+        <v>28.17</v>
       </c>
       <c r="G10" t="n">
-        <v>28.93</v>
+        <v>24.67</v>
       </c>
       <c r="H10" t="n">
-        <v>28.17</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>24.67</v>
+        <v>21.01</v>
       </c>
       <c r="J10" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="K10" t="n">
-        <v>21.01</v>
-      </c>
-      <c r="L10" t="n">
         <v>961.16</v>
       </c>
     </row>
@@ -908,30 +844,24 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>29.85</v>
       </c>
       <c r="E11" t="n">
-        <v>29.85</v>
+        <v>25.62</v>
       </c>
       <c r="F11" t="n">
-        <v>27.85</v>
+        <v>25.17</v>
       </c>
       <c r="G11" t="n">
-        <v>25.62</v>
+        <v>23.13</v>
       </c>
       <c r="H11" t="n">
-        <v>25.17</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>23.13</v>
+        <v>24.32</v>
       </c>
       <c r="J11" t="n">
-        <v>8.130000000000001</v>
-      </c>
-      <c r="K11" t="n">
-        <v>24.32</v>
-      </c>
-      <c r="L11" t="n">
         <v>1052.86</v>
       </c>
     </row>
@@ -952,30 +882,24 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>30.92</v>
       </c>
       <c r="E12" t="n">
-        <v>30.92</v>
+        <v>27.23</v>
       </c>
       <c r="F12" t="n">
-        <v>28.92</v>
+        <v>26.73</v>
       </c>
       <c r="G12" t="n">
-        <v>27.23</v>
+        <v>24.7</v>
       </c>
       <c r="H12" t="n">
-        <v>26.73</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>24.7</v>
+        <v>20.2</v>
       </c>
       <c r="J12" t="n">
-        <v>8.380000000000001</v>
-      </c>
-      <c r="K12" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="L12" t="n">
         <v>983.5</v>
       </c>
     </row>
@@ -996,30 +920,24 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E13" t="n">
-        <v>32</v>
+        <v>26.87</v>
       </c>
       <c r="F13" t="n">
-        <v>30</v>
+        <v>26.05</v>
       </c>
       <c r="G13" t="n">
-        <v>26.87</v>
+        <v>23.48</v>
       </c>
       <c r="H13" t="n">
-        <v>26.05</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="I13" t="n">
-        <v>23.48</v>
+        <v>18.62</v>
       </c>
       <c r="J13" t="n">
-        <v>8.470000000000001</v>
-      </c>
-      <c r="K13" t="n">
-        <v>18.62</v>
-      </c>
-      <c r="L13" t="n">
         <v>901.64</v>
       </c>
     </row>
@@ -1040,30 +958,24 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>32.14</v>
       </c>
       <c r="E14" t="n">
-        <v>32.14</v>
+        <v>23.86</v>
       </c>
       <c r="F14" t="n">
-        <v>30.14</v>
+        <v>23.35</v>
       </c>
       <c r="G14" t="n">
-        <v>23.86</v>
+        <v>22.2</v>
       </c>
       <c r="H14" t="n">
-        <v>23.35</v>
+        <v>7.25</v>
       </c>
       <c r="I14" t="n">
-        <v>22.2</v>
+        <v>15.86</v>
       </c>
       <c r="J14" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="K14" t="n">
-        <v>15.86</v>
-      </c>
-      <c r="L14" t="n">
         <v>886</v>
       </c>
     </row>
@@ -1084,30 +996,24 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>29.6</v>
       </c>
       <c r="E15" t="n">
-        <v>29.6</v>
+        <v>24</v>
       </c>
       <c r="F15" t="n">
-        <v>27.6</v>
+        <v>23.78</v>
       </c>
       <c r="G15" t="n">
-        <v>24</v>
+        <v>22.05</v>
       </c>
       <c r="H15" t="n">
-        <v>23.78</v>
+        <v>7.44</v>
       </c>
       <c r="I15" t="n">
-        <v>22.05</v>
+        <v>20.18</v>
       </c>
       <c r="J15" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="K15" t="n">
-        <v>20.18</v>
-      </c>
-      <c r="L15" t="n">
         <v>909.1799999999999</v>
       </c>
     </row>
@@ -1128,30 +1034,24 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>30.57</v>
       </c>
       <c r="E16" t="n">
-        <v>30.57</v>
+        <v>25.79</v>
       </c>
       <c r="F16" t="n">
-        <v>28.57</v>
+        <v>25.64</v>
       </c>
       <c r="G16" t="n">
-        <v>25.79</v>
+        <v>24.38</v>
       </c>
       <c r="H16" t="n">
-        <v>25.64</v>
+        <v>7.87</v>
       </c>
       <c r="I16" t="n">
-        <v>24.38</v>
+        <v>18.57</v>
       </c>
       <c r="J16" t="n">
-        <v>7.87</v>
-      </c>
-      <c r="K16" t="n">
-        <v>18.57</v>
-      </c>
-      <c r="L16" t="n">
         <v>899.05</v>
       </c>
     </row>
@@ -1172,30 +1072,24 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2.14</v>
+        <v>30</v>
       </c>
       <c r="E17" t="n">
-        <v>30</v>
+        <v>24.36</v>
       </c>
       <c r="F17" t="n">
-        <v>27.86</v>
+        <v>23.8</v>
       </c>
       <c r="G17" t="n">
-        <v>24.36</v>
+        <v>22.4</v>
       </c>
       <c r="H17" t="n">
-        <v>23.8</v>
+        <v>7.51</v>
       </c>
       <c r="I17" t="n">
-        <v>22.4</v>
+        <v>20.87</v>
       </c>
       <c r="J17" t="n">
-        <v>7.51</v>
-      </c>
-      <c r="K17" t="n">
-        <v>20.87</v>
-      </c>
-      <c r="L17" t="n">
         <v>919.6</v>
       </c>
     </row>
@@ -1216,30 +1110,24 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>32.67</v>
       </c>
       <c r="E18" t="n">
-        <v>32.67</v>
+        <v>25.4</v>
       </c>
       <c r="F18" t="n">
-        <v>30.67</v>
+        <v>24.97</v>
       </c>
       <c r="G18" t="n">
-        <v>25.4</v>
+        <v>22.81</v>
       </c>
       <c r="H18" t="n">
-        <v>24.97</v>
+        <v>8.01</v>
       </c>
       <c r="I18" t="n">
-        <v>22.81</v>
+        <v>19.1</v>
       </c>
       <c r="J18" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="K18" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="L18" t="n">
         <v>913.63</v>
       </c>
     </row>
@@ -1260,30 +1148,24 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E19" t="n">
-        <v>30</v>
+        <v>31.5</v>
       </c>
       <c r="F19" t="n">
-        <v>28</v>
+        <v>30.54</v>
       </c>
       <c r="G19" t="n">
-        <v>31.5</v>
+        <v>28.55</v>
       </c>
       <c r="H19" t="n">
-        <v>30.54</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="I19" t="n">
-        <v>28.55</v>
+        <v>22.63</v>
       </c>
       <c r="J19" t="n">
-        <v>9.880000000000001</v>
-      </c>
-      <c r="K19" t="n">
-        <v>22.63</v>
-      </c>
-      <c r="L19" t="n">
         <v>1150.78</v>
       </c>
     </row>
@@ -1304,30 +1186,24 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
+        <v>19.87</v>
       </c>
       <c r="E20" t="n">
-        <v>19.87</v>
+        <v>90.33</v>
       </c>
       <c r="F20" t="n">
-        <v>17.87</v>
+        <v>87.48999999999999</v>
       </c>
       <c r="G20" t="n">
-        <v>90.33</v>
+        <v>77.83</v>
       </c>
       <c r="H20" t="n">
-        <v>87.48999999999999</v>
+        <v>30.95</v>
       </c>
       <c r="I20" t="n">
-        <v>77.83</v>
+        <v>42.7</v>
       </c>
       <c r="J20" t="n">
-        <v>30.95</v>
-      </c>
-      <c r="K20" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="L20" t="n">
         <v>4301.72</v>
       </c>
     </row>
@@ -1348,30 +1224,24 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>20.86</v>
       </c>
       <c r="E21" t="n">
-        <v>20.86</v>
+        <v>88.20999999999999</v>
       </c>
       <c r="F21" t="n">
-        <v>18.86</v>
+        <v>84.16</v>
       </c>
       <c r="G21" t="n">
-        <v>88.20999999999999</v>
+        <v>75.7</v>
       </c>
       <c r="H21" t="n">
-        <v>84.16</v>
+        <v>29.37</v>
       </c>
       <c r="I21" t="n">
-        <v>75.7</v>
+        <v>43.77</v>
       </c>
       <c r="J21" t="n">
-        <v>29.37</v>
-      </c>
-      <c r="K21" t="n">
-        <v>43.77</v>
-      </c>
-      <c r="L21" t="n">
         <v>4009.69</v>
       </c>
     </row>
@@ -1392,30 +1262,24 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>31.43</v>
       </c>
       <c r="E22" t="n">
-        <v>31.43</v>
+        <v>59.57</v>
       </c>
       <c r="F22" t="n">
-        <v>29.43</v>
+        <v>58.47</v>
       </c>
       <c r="G22" t="n">
-        <v>59.57</v>
+        <v>56.54</v>
       </c>
       <c r="H22" t="n">
-        <v>58.47</v>
+        <v>19.08</v>
       </c>
       <c r="I22" t="n">
-        <v>56.54</v>
+        <v>22.55</v>
       </c>
       <c r="J22" t="n">
-        <v>19.08</v>
-      </c>
-      <c r="K22" t="n">
-        <v>22.55</v>
-      </c>
-      <c r="L22" t="n">
         <v>1872.91</v>
       </c>
     </row>
@@ -1436,30 +1300,24 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>2</v>
+        <v>23.2</v>
       </c>
       <c r="E23" t="n">
-        <v>23.2</v>
+        <v>88.93000000000001</v>
       </c>
       <c r="F23" t="n">
-        <v>21.2</v>
+        <v>85.79000000000001</v>
       </c>
       <c r="G23" t="n">
-        <v>88.93000000000001</v>
+        <v>76.28</v>
       </c>
       <c r="H23" t="n">
-        <v>85.79000000000001</v>
+        <v>30.23</v>
       </c>
       <c r="I23" t="n">
-        <v>76.28</v>
+        <v>39.82</v>
       </c>
       <c r="J23" t="n">
-        <v>30.23</v>
-      </c>
-      <c r="K23" t="n">
-        <v>39.82</v>
-      </c>
-      <c r="L23" t="n">
         <v>4011.51</v>
       </c>
     </row>
@@ -1480,30 +1338,24 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>22.4</v>
       </c>
       <c r="E24" t="n">
-        <v>22.4</v>
+        <v>89.2</v>
       </c>
       <c r="F24" t="n">
-        <v>20.4</v>
+        <v>84.98</v>
       </c>
       <c r="G24" t="n">
-        <v>89.2</v>
+        <v>81.51000000000001</v>
       </c>
       <c r="H24" t="n">
-        <v>84.98</v>
+        <v>29.67</v>
       </c>
       <c r="I24" t="n">
-        <v>81.51000000000001</v>
+        <v>35.08</v>
       </c>
       <c r="J24" t="n">
-        <v>29.67</v>
-      </c>
-      <c r="K24" t="n">
-        <v>35.08</v>
-      </c>
-      <c r="L24" t="n">
         <v>3756.32</v>
       </c>
     </row>
@@ -1524,30 +1376,24 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>20.67</v>
       </c>
       <c r="E25" t="n">
-        <v>20.67</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="F25" t="n">
-        <v>18.67</v>
+        <v>80.43000000000001</v>
       </c>
       <c r="G25" t="n">
-        <v>83.59999999999999</v>
+        <v>74.97</v>
       </c>
       <c r="H25" t="n">
-        <v>80.43000000000001</v>
+        <v>28.2</v>
       </c>
       <c r="I25" t="n">
-        <v>74.97</v>
+        <v>45.41</v>
       </c>
       <c r="J25" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="K25" t="n">
-        <v>45.41</v>
-      </c>
-      <c r="L25" t="n">
         <v>4080.21</v>
       </c>
     </row>
@@ -1568,30 +1414,24 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2</v>
+        <v>21.64</v>
       </c>
       <c r="E26" t="n">
-        <v>21.64</v>
+        <v>84.73</v>
       </c>
       <c r="F26" t="n">
-        <v>19.64</v>
+        <v>80.23999999999999</v>
       </c>
       <c r="G26" t="n">
-        <v>84.73</v>
+        <v>73.86</v>
       </c>
       <c r="H26" t="n">
-        <v>80.23999999999999</v>
+        <v>28.27</v>
       </c>
       <c r="I26" t="n">
-        <v>73.86</v>
+        <v>35.75</v>
       </c>
       <c r="J26" t="n">
-        <v>28.27</v>
-      </c>
-      <c r="K26" t="n">
-        <v>35.75</v>
-      </c>
-      <c r="L26" t="n">
         <v>3723.63</v>
       </c>
     </row>
@@ -1612,30 +1452,24 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2</v>
+        <v>18.86</v>
       </c>
       <c r="E27" t="n">
-        <v>18.86</v>
+        <v>80.70999999999999</v>
       </c>
       <c r="F27" t="n">
-        <v>16.86</v>
+        <v>78.48</v>
       </c>
       <c r="G27" t="n">
-        <v>80.70999999999999</v>
+        <v>71.52</v>
       </c>
       <c r="H27" t="n">
-        <v>78.48</v>
+        <v>27.87</v>
       </c>
       <c r="I27" t="n">
-        <v>71.52</v>
+        <v>44.99</v>
       </c>
       <c r="J27" t="n">
-        <v>27.87</v>
-      </c>
-      <c r="K27" t="n">
-        <v>44.99</v>
-      </c>
-      <c r="L27" t="n">
         <v>4007.44</v>
       </c>
     </row>
@@ -1656,30 +1490,24 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>2</v>
+        <v>22.67</v>
       </c>
       <c r="E28" t="n">
-        <v>22.67</v>
+        <v>81</v>
       </c>
       <c r="F28" t="n">
-        <v>20.67</v>
+        <v>77.45999999999999</v>
       </c>
       <c r="G28" t="n">
-        <v>81</v>
+        <v>70.97</v>
       </c>
       <c r="H28" t="n">
-        <v>77.45999999999999</v>
+        <v>27.01</v>
       </c>
       <c r="I28" t="n">
-        <v>70.97</v>
+        <v>37.79</v>
       </c>
       <c r="J28" t="n">
-        <v>27.01</v>
-      </c>
-      <c r="K28" t="n">
-        <v>37.79</v>
-      </c>
-      <c r="L28" t="n">
         <v>3556.92</v>
       </c>
     </row>
@@ -1700,30 +1528,24 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>2</v>
+        <v>20.8</v>
       </c>
       <c r="E29" t="n">
-        <v>20.8</v>
+        <v>80.8</v>
       </c>
       <c r="F29" t="n">
-        <v>18.8</v>
+        <v>77.48999999999999</v>
       </c>
       <c r="G29" t="n">
-        <v>80.8</v>
+        <v>70.31</v>
       </c>
       <c r="H29" t="n">
-        <v>77.48999999999999</v>
+        <v>27.35</v>
       </c>
       <c r="I29" t="n">
-        <v>70.31</v>
+        <v>40.13</v>
       </c>
       <c r="J29" t="n">
-        <v>27.35</v>
-      </c>
-      <c r="K29" t="n">
-        <v>40.13</v>
-      </c>
-      <c r="L29" t="n">
         <v>3707.36</v>
       </c>
     </row>
@@ -1744,30 +1566,24 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E30" t="n">
-        <v>24</v>
+        <v>76.86</v>
       </c>
       <c r="F30" t="n">
-        <v>22</v>
+        <v>74.42</v>
       </c>
       <c r="G30" t="n">
-        <v>76.86</v>
+        <v>69.26000000000001</v>
       </c>
       <c r="H30" t="n">
-        <v>74.42</v>
+        <v>26.03</v>
       </c>
       <c r="I30" t="n">
-        <v>69.26000000000001</v>
+        <v>38.47</v>
       </c>
       <c r="J30" t="n">
-        <v>26.03</v>
-      </c>
-      <c r="K30" t="n">
-        <v>38.47</v>
-      </c>
-      <c r="L30" t="n">
         <v>3280.28</v>
       </c>
     </row>
@@ -1788,30 +1604,24 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>2</v>
+        <v>20.8</v>
       </c>
       <c r="E31" t="n">
-        <v>20.8</v>
+        <v>81</v>
       </c>
       <c r="F31" t="n">
-        <v>18.8</v>
+        <v>77.76000000000001</v>
       </c>
       <c r="G31" t="n">
-        <v>81</v>
+        <v>72.28</v>
       </c>
       <c r="H31" t="n">
-        <v>77.76000000000001</v>
+        <v>27.06</v>
       </c>
       <c r="I31" t="n">
-        <v>72.28</v>
+        <v>38.59</v>
       </c>
       <c r="J31" t="n">
-        <v>27.06</v>
-      </c>
-      <c r="K31" t="n">
-        <v>38.59</v>
-      </c>
-      <c r="L31" t="n">
         <v>3600.08</v>
       </c>
     </row>
@@ -1832,30 +1642,24 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>2</v>
+        <v>18.86</v>
       </c>
       <c r="E32" t="n">
-        <v>18.86</v>
+        <v>78.93000000000001</v>
       </c>
       <c r="F32" t="n">
-        <v>16.86</v>
+        <v>75.63</v>
       </c>
       <c r="G32" t="n">
-        <v>78.93000000000001</v>
+        <v>68.3</v>
       </c>
       <c r="H32" t="n">
-        <v>75.63</v>
+        <v>26.6</v>
       </c>
       <c r="I32" t="n">
-        <v>68.3</v>
+        <v>40.38</v>
       </c>
       <c r="J32" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="K32" t="n">
-        <v>40.38</v>
-      </c>
-      <c r="L32" t="n">
         <v>3688.12</v>
       </c>
     </row>
@@ -1876,30 +1680,24 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>2</v>
+        <v>22.53</v>
       </c>
       <c r="E33" t="n">
-        <v>22.53</v>
+        <v>81.13</v>
       </c>
       <c r="F33" t="n">
-        <v>20.53</v>
+        <v>78.53</v>
       </c>
       <c r="G33" t="n">
-        <v>81.13</v>
+        <v>72.18000000000001</v>
       </c>
       <c r="H33" t="n">
-        <v>78.53</v>
+        <v>27.54</v>
       </c>
       <c r="I33" t="n">
-        <v>72.18000000000001</v>
+        <v>39.8</v>
       </c>
       <c r="J33" t="n">
-        <v>27.54</v>
-      </c>
-      <c r="K33" t="n">
-        <v>39.8</v>
-      </c>
-      <c r="L33" t="n">
         <v>3683.64</v>
       </c>
     </row>
@@ -1920,30 +1718,24 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2</v>
+        <v>22.14</v>
       </c>
       <c r="E34" t="n">
-        <v>22.14</v>
+        <v>85.36</v>
       </c>
       <c r="F34" t="n">
-        <v>20.14</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="G34" t="n">
-        <v>85.36</v>
+        <v>73.52</v>
       </c>
       <c r="H34" t="n">
-        <v>83.40000000000001</v>
+        <v>28.18</v>
       </c>
       <c r="I34" t="n">
-        <v>73.52</v>
+        <v>36.56</v>
       </c>
       <c r="J34" t="n">
-        <v>28.18</v>
-      </c>
-      <c r="K34" t="n">
-        <v>36.56</v>
-      </c>
-      <c r="L34" t="n">
         <v>3641.14</v>
       </c>
     </row>
@@ -1964,30 +1756,24 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2</v>
+        <v>21.6</v>
       </c>
       <c r="E35" t="n">
-        <v>21.6</v>
+        <v>79.47</v>
       </c>
       <c r="F35" t="n">
-        <v>19.6</v>
+        <v>76.77</v>
       </c>
       <c r="G35" t="n">
-        <v>79.47</v>
+        <v>68.43000000000001</v>
       </c>
       <c r="H35" t="n">
-        <v>76.77</v>
+        <v>26.76</v>
       </c>
       <c r="I35" t="n">
-        <v>68.43000000000001</v>
+        <v>39.37</v>
       </c>
       <c r="J35" t="n">
-        <v>26.76</v>
-      </c>
-      <c r="K35" t="n">
-        <v>39.37</v>
-      </c>
-      <c r="L35" t="n">
         <v>3621.5</v>
       </c>
     </row>
@@ -2008,30 +1794,24 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>2</v>
+        <v>22.71</v>
       </c>
       <c r="E36" t="n">
-        <v>22.71</v>
+        <v>79.06999999999999</v>
       </c>
       <c r="F36" t="n">
-        <v>20.71</v>
+        <v>77.89</v>
       </c>
       <c r="G36" t="n">
-        <v>79.06999999999999</v>
+        <v>70.45999999999999</v>
       </c>
       <c r="H36" t="n">
-        <v>77.89</v>
+        <v>26.25</v>
       </c>
       <c r="I36" t="n">
-        <v>70.45999999999999</v>
+        <v>36.3</v>
       </c>
       <c r="J36" t="n">
-        <v>26.25</v>
-      </c>
-      <c r="K36" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="L36" t="n">
         <v>3390.69</v>
       </c>
     </row>
@@ -2052,30 +1832,24 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E37" t="n">
-        <v>20</v>
+        <v>83.86</v>
       </c>
       <c r="F37" t="n">
-        <v>18</v>
+        <v>81.56</v>
       </c>
       <c r="G37" t="n">
-        <v>83.86</v>
+        <v>72.28</v>
       </c>
       <c r="H37" t="n">
-        <v>81.56</v>
+        <v>27.87</v>
       </c>
       <c r="I37" t="n">
-        <v>72.28</v>
+        <v>39.04</v>
       </c>
       <c r="J37" t="n">
-        <v>27.87</v>
-      </c>
-      <c r="K37" t="n">
-        <v>39.04</v>
-      </c>
-      <c r="L37" t="n">
         <v>3786.66</v>
       </c>
     </row>
@@ -2096,30 +1870,24 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2</v>
+        <v>21.14</v>
       </c>
       <c r="E38" t="n">
-        <v>21.14</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="F38" t="n">
-        <v>19.14</v>
+        <v>64.28</v>
       </c>
       <c r="G38" t="n">
-        <v>66.20999999999999</v>
+        <v>59.93</v>
       </c>
       <c r="H38" t="n">
-        <v>64.28</v>
+        <v>20.92</v>
       </c>
       <c r="I38" t="n">
-        <v>59.93</v>
+        <v>34.25</v>
       </c>
       <c r="J38" t="n">
-        <v>20.92</v>
-      </c>
-      <c r="K38" t="n">
-        <v>34.25</v>
-      </c>
-      <c r="L38" t="n">
         <v>2706.86</v>
       </c>
     </row>
@@ -2140,30 +1908,24 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>2</v>
+        <v>20.67</v>
       </c>
       <c r="E39" t="n">
-        <v>20.67</v>
+        <v>72.67</v>
       </c>
       <c r="F39" t="n">
-        <v>18.67</v>
+        <v>69.73999999999999</v>
       </c>
       <c r="G39" t="n">
-        <v>72.67</v>
+        <v>65.19</v>
       </c>
       <c r="H39" t="n">
-        <v>69.73999999999999</v>
+        <v>23.03</v>
       </c>
       <c r="I39" t="n">
-        <v>65.19</v>
+        <v>35.83</v>
       </c>
       <c r="J39" t="n">
-        <v>23.03</v>
-      </c>
-      <c r="K39" t="n">
-        <v>35.83</v>
-      </c>
-      <c r="L39" t="n">
         <v>2893.21</v>
       </c>
     </row>
@@ -2184,30 +1946,24 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>2.15</v>
+        <v>28.62</v>
       </c>
       <c r="E40" t="n">
-        <v>28.62</v>
+        <v>42.62</v>
       </c>
       <c r="F40" t="n">
-        <v>26.46</v>
+        <v>42.04</v>
       </c>
       <c r="G40" t="n">
-        <v>42.62</v>
+        <v>38.61</v>
       </c>
       <c r="H40" t="n">
-        <v>42.04</v>
+        <v>13.17</v>
       </c>
       <c r="I40" t="n">
-        <v>38.61</v>
+        <v>22.83</v>
       </c>
       <c r="J40" t="n">
-        <v>13.17</v>
-      </c>
-      <c r="K40" t="n">
-        <v>22.83</v>
-      </c>
-      <c r="L40" t="n">
         <v>1490.88</v>
       </c>
     </row>
@@ -2228,30 +1984,24 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>2</v>
+        <v>20.71</v>
       </c>
       <c r="E41" t="n">
-        <v>20.71</v>
+        <v>69.70999999999999</v>
       </c>
       <c r="F41" t="n">
-        <v>18.71</v>
+        <v>67.52</v>
       </c>
       <c r="G41" t="n">
-        <v>69.70999999999999</v>
+        <v>63.03</v>
       </c>
       <c r="H41" t="n">
-        <v>67.52</v>
+        <v>21.91</v>
       </c>
       <c r="I41" t="n">
-        <v>63.03</v>
+        <v>35.27</v>
       </c>
       <c r="J41" t="n">
-        <v>21.91</v>
-      </c>
-      <c r="K41" t="n">
-        <v>35.27</v>
-      </c>
-      <c r="L41" t="n">
         <v>2834.5</v>
       </c>
     </row>
@@ -2272,30 +2022,24 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>2</v>
+        <v>19.07</v>
       </c>
       <c r="E42" t="n">
-        <v>19.07</v>
+        <v>71.13</v>
       </c>
       <c r="F42" t="n">
-        <v>17.07</v>
+        <v>69.18000000000001</v>
       </c>
       <c r="G42" t="n">
-        <v>71.13</v>
+        <v>64.36</v>
       </c>
       <c r="H42" t="n">
-        <v>69.18000000000001</v>
+        <v>22.37</v>
       </c>
       <c r="I42" t="n">
-        <v>64.36</v>
+        <v>34.73</v>
       </c>
       <c r="J42" t="n">
-        <v>22.37</v>
-      </c>
-      <c r="K42" t="n">
-        <v>34.73</v>
-      </c>
-      <c r="L42" t="n">
         <v>2957.06</v>
       </c>
     </row>
@@ -2316,30 +2060,24 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>2</v>
+        <v>24.86</v>
       </c>
       <c r="E43" t="n">
-        <v>24.86</v>
+        <v>61</v>
       </c>
       <c r="F43" t="n">
-        <v>22.86</v>
+        <v>59.18</v>
       </c>
       <c r="G43" t="n">
-        <v>61</v>
+        <v>57.48</v>
       </c>
       <c r="H43" t="n">
-        <v>59.18</v>
+        <v>18.93</v>
       </c>
       <c r="I43" t="n">
-        <v>57.48</v>
+        <v>30.71</v>
       </c>
       <c r="J43" t="n">
-        <v>18.93</v>
-      </c>
-      <c r="K43" t="n">
-        <v>30.71</v>
-      </c>
-      <c r="L43" t="n">
         <v>2326.55</v>
       </c>
     </row>
@@ -2360,30 +2098,24 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2</v>
+        <v>20.31</v>
       </c>
       <c r="E44" t="n">
-        <v>20.31</v>
+        <v>65.54000000000001</v>
       </c>
       <c r="F44" t="n">
-        <v>18.31</v>
+        <v>64.37</v>
       </c>
       <c r="G44" t="n">
-        <v>65.54000000000001</v>
+        <v>59.22</v>
       </c>
       <c r="H44" t="n">
-        <v>64.37</v>
+        <v>20.69</v>
       </c>
       <c r="I44" t="n">
-        <v>59.22</v>
+        <v>37.37</v>
       </c>
       <c r="J44" t="n">
-        <v>20.69</v>
-      </c>
-      <c r="K44" t="n">
-        <v>37.37</v>
-      </c>
-      <c r="L44" t="n">
         <v>2743.04</v>
       </c>
     </row>
@@ -2404,30 +2136,24 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>2</v>
+        <v>26.86</v>
       </c>
       <c r="E45" t="n">
-        <v>26.86</v>
+        <v>60.93</v>
       </c>
       <c r="F45" t="n">
-        <v>24.86</v>
+        <v>60.35</v>
       </c>
       <c r="G45" t="n">
-        <v>60.93</v>
+        <v>57.42</v>
       </c>
       <c r="H45" t="n">
-        <v>60.35</v>
+        <v>19.33</v>
       </c>
       <c r="I45" t="n">
-        <v>57.42</v>
+        <v>29.33</v>
       </c>
       <c r="J45" t="n">
-        <v>19.33</v>
-      </c>
-      <c r="K45" t="n">
-        <v>29.33</v>
-      </c>
-      <c r="L45" t="n">
         <v>2178.5</v>
       </c>
     </row>
@@ -2448,30 +2174,24 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>2</v>
+        <v>24.53</v>
       </c>
       <c r="E46" t="n">
-        <v>24.53</v>
+        <v>56.4</v>
       </c>
       <c r="F46" t="n">
-        <v>22.53</v>
+        <v>54.67</v>
       </c>
       <c r="G46" t="n">
-        <v>56.4</v>
+        <v>51.17</v>
       </c>
       <c r="H46" t="n">
-        <v>54.67</v>
+        <v>18.09</v>
       </c>
       <c r="I46" t="n">
-        <v>51.17</v>
+        <v>32.5</v>
       </c>
       <c r="J46" t="n">
-        <v>18.09</v>
-      </c>
-      <c r="K46" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="L46" t="n">
         <v>2151.46</v>
       </c>
     </row>
@@ -2492,30 +2212,24 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E47" t="n">
-        <v>24</v>
+        <v>64.2</v>
       </c>
       <c r="F47" t="n">
-        <v>22</v>
+        <v>61.83</v>
       </c>
       <c r="G47" t="n">
-        <v>64.2</v>
+        <v>58.9</v>
       </c>
       <c r="H47" t="n">
-        <v>61.83</v>
+        <v>20.18</v>
       </c>
       <c r="I47" t="n">
-        <v>58.9</v>
+        <v>37.98</v>
       </c>
       <c r="J47" t="n">
-        <v>20.18</v>
-      </c>
-      <c r="K47" t="n">
-        <v>37.98</v>
-      </c>
-      <c r="L47" t="n">
         <v>2539.41</v>
       </c>
     </row>
@@ -2536,30 +2250,24 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="E48" t="n">
-        <v>26</v>
+        <v>55.53</v>
       </c>
       <c r="F48" t="n">
-        <v>24</v>
+        <v>53.27</v>
       </c>
       <c r="G48" t="n">
-        <v>55.53</v>
+        <v>49.5</v>
       </c>
       <c r="H48" t="n">
-        <v>53.27</v>
+        <v>17.75</v>
       </c>
       <c r="I48" t="n">
-        <v>49.5</v>
+        <v>30.33</v>
       </c>
       <c r="J48" t="n">
-        <v>17.75</v>
-      </c>
-      <c r="K48" t="n">
-        <v>30.33</v>
-      </c>
-      <c r="L48" t="n">
         <v>2030.34</v>
       </c>
     </row>
@@ -2580,30 +2288,24 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2.13</v>
+        <v>23.33</v>
       </c>
       <c r="E49" t="n">
-        <v>23.33</v>
+        <v>61.13</v>
       </c>
       <c r="F49" t="n">
-        <v>21.2</v>
+        <v>58.99</v>
       </c>
       <c r="G49" t="n">
-        <v>61.13</v>
+        <v>56.96</v>
       </c>
       <c r="H49" t="n">
-        <v>58.99</v>
+        <v>19.34</v>
       </c>
       <c r="I49" t="n">
-        <v>56.96</v>
+        <v>33.03</v>
       </c>
       <c r="J49" t="n">
-        <v>19.34</v>
-      </c>
-      <c r="K49" t="n">
-        <v>33.03</v>
-      </c>
-      <c r="L49" t="n">
         <v>2414.72</v>
       </c>
     </row>
@@ -2624,30 +2326,24 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>2</v>
+        <v>24.43</v>
       </c>
       <c r="E50" t="n">
-        <v>24.43</v>
+        <v>57.36</v>
       </c>
       <c r="F50" t="n">
-        <v>22.43</v>
+        <v>55.11</v>
       </c>
       <c r="G50" t="n">
-        <v>57.36</v>
+        <v>51.5</v>
       </c>
       <c r="H50" t="n">
-        <v>55.11</v>
+        <v>18.16</v>
       </c>
       <c r="I50" t="n">
-        <v>51.5</v>
+        <v>30.13</v>
       </c>
       <c r="J50" t="n">
-        <v>18.16</v>
-      </c>
-      <c r="K50" t="n">
-        <v>30.13</v>
-      </c>
-      <c r="L50" t="n">
         <v>2120.18</v>
       </c>
     </row>
@@ -2668,30 +2364,24 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2</v>
+        <v>22.57</v>
       </c>
       <c r="E51" t="n">
-        <v>22.57</v>
+        <v>58.71</v>
       </c>
       <c r="F51" t="n">
-        <v>20.57</v>
+        <v>56.52</v>
       </c>
       <c r="G51" t="n">
-        <v>58.71</v>
+        <v>52.87</v>
       </c>
       <c r="H51" t="n">
-        <v>56.52</v>
+        <v>18.87</v>
       </c>
       <c r="I51" t="n">
-        <v>52.87</v>
+        <v>35.33</v>
       </c>
       <c r="J51" t="n">
-        <v>18.87</v>
-      </c>
-      <c r="K51" t="n">
-        <v>35.33</v>
-      </c>
-      <c r="L51" t="n">
         <v>2449.56</v>
       </c>
     </row>
@@ -2712,30 +2402,24 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>2</v>
+        <v>21.57</v>
       </c>
       <c r="E52" t="n">
-        <v>21.57</v>
+        <v>53.93</v>
       </c>
       <c r="F52" t="n">
-        <v>19.57</v>
+        <v>52.82</v>
       </c>
       <c r="G52" t="n">
-        <v>53.93</v>
+        <v>50.3</v>
       </c>
       <c r="H52" t="n">
-        <v>52.82</v>
+        <v>17.11</v>
       </c>
       <c r="I52" t="n">
-        <v>50.3</v>
+        <v>34.32</v>
       </c>
       <c r="J52" t="n">
-        <v>17.11</v>
-      </c>
-      <c r="K52" t="n">
-        <v>34.32</v>
-      </c>
-      <c r="L52" t="n">
         <v>2154.1</v>
       </c>
     </row>
@@ -2756,30 +2440,24 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="E53" t="n">
-        <v>26</v>
+        <v>58.71</v>
       </c>
       <c r="F53" t="n">
-        <v>24</v>
+        <v>56.79</v>
       </c>
       <c r="G53" t="n">
-        <v>58.71</v>
+        <v>54.4</v>
       </c>
       <c r="H53" t="n">
-        <v>56.79</v>
+        <v>18.86</v>
       </c>
       <c r="I53" t="n">
-        <v>54.4</v>
+        <v>31.69</v>
       </c>
       <c r="J53" t="n">
-        <v>18.86</v>
-      </c>
-      <c r="K53" t="n">
-        <v>31.69</v>
-      </c>
-      <c r="L53" t="n">
         <v>2197.42</v>
       </c>
     </row>
@@ -2800,30 +2478,24 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E54" t="n">
-        <v>23</v>
+        <v>65.64</v>
       </c>
       <c r="F54" t="n">
-        <v>21</v>
+        <v>63.02</v>
       </c>
       <c r="G54" t="n">
-        <v>65.64</v>
+        <v>58.95</v>
       </c>
       <c r="H54" t="n">
-        <v>63.02</v>
+        <v>20.77</v>
       </c>
       <c r="I54" t="n">
-        <v>58.95</v>
+        <v>33.85</v>
       </c>
       <c r="J54" t="n">
-        <v>20.77</v>
-      </c>
-      <c r="K54" t="n">
-        <v>33.85</v>
-      </c>
-      <c r="L54" t="n">
         <v>2682.56</v>
       </c>
     </row>
@@ -2844,30 +2516,24 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>2</v>
+        <v>25.73</v>
       </c>
       <c r="E55" t="n">
-        <v>25.73</v>
+        <v>48.4</v>
       </c>
       <c r="F55" t="n">
-        <v>23.73</v>
+        <v>48.04</v>
       </c>
       <c r="G55" t="n">
-        <v>48.4</v>
+        <v>46.54</v>
       </c>
       <c r="H55" t="n">
-        <v>48.04</v>
+        <v>16.24</v>
       </c>
       <c r="I55" t="n">
-        <v>46.54</v>
+        <v>33.12</v>
       </c>
       <c r="J55" t="n">
-        <v>16.24</v>
-      </c>
-      <c r="K55" t="n">
-        <v>33.12</v>
-      </c>
-      <c r="L55" t="n">
         <v>2019.23</v>
       </c>
     </row>
@@ -2888,30 +2554,24 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>2</v>
+        <v>27.33</v>
       </c>
       <c r="E56" t="n">
-        <v>27.33</v>
+        <v>48.4</v>
       </c>
       <c r="F56" t="n">
-        <v>25.33</v>
+        <v>47.93</v>
       </c>
       <c r="G56" t="n">
-        <v>48.4</v>
+        <v>46.52</v>
       </c>
       <c r="H56" t="n">
-        <v>47.93</v>
+        <v>15.73</v>
       </c>
       <c r="I56" t="n">
-        <v>46.52</v>
+        <v>28.22</v>
       </c>
       <c r="J56" t="n">
-        <v>15.73</v>
-      </c>
-      <c r="K56" t="n">
-        <v>28.22</v>
-      </c>
-      <c r="L56" t="n">
         <v>1850.26</v>
       </c>
     </row>
@@ -2932,30 +2592,24 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2</v>
+        <v>30.43</v>
       </c>
       <c r="E57" t="n">
-        <v>30.43</v>
+        <v>33.71</v>
       </c>
       <c r="F57" t="n">
-        <v>28.43</v>
+        <v>33.25</v>
       </c>
       <c r="G57" t="n">
-        <v>33.71</v>
+        <v>32.56</v>
       </c>
       <c r="H57" t="n">
-        <v>33.25</v>
+        <v>9.77</v>
       </c>
       <c r="I57" t="n">
-        <v>32.56</v>
+        <v>17.79</v>
       </c>
       <c r="J57" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="K57" t="n">
-        <v>17.79</v>
-      </c>
-      <c r="L57" t="n">
         <v>941.71</v>
       </c>
     </row>
@@ -2976,30 +2630,24 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>2</v>
+        <v>24.71</v>
       </c>
       <c r="E58" t="n">
-        <v>24.71</v>
+        <v>47.29</v>
       </c>
       <c r="F58" t="n">
-        <v>22.71</v>
+        <v>46.29</v>
       </c>
       <c r="G58" t="n">
-        <v>47.29</v>
+        <v>43.86</v>
       </c>
       <c r="H58" t="n">
-        <v>46.29</v>
+        <v>15.93</v>
       </c>
       <c r="I58" t="n">
-        <v>43.86</v>
+        <v>34.12</v>
       </c>
       <c r="J58" t="n">
-        <v>15.93</v>
-      </c>
-      <c r="K58" t="n">
-        <v>34.12</v>
-      </c>
-      <c r="L58" t="n">
         <v>2014.63</v>
       </c>
     </row>
@@ -3020,30 +2668,24 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>2</v>
+        <v>26.29</v>
       </c>
       <c r="E59" t="n">
-        <v>26.29</v>
+        <v>47.5</v>
       </c>
       <c r="F59" t="n">
-        <v>24.29</v>
+        <v>46.87</v>
       </c>
       <c r="G59" t="n">
-        <v>47.5</v>
+        <v>45.65</v>
       </c>
       <c r="H59" t="n">
-        <v>46.87</v>
+        <v>15.47</v>
       </c>
       <c r="I59" t="n">
-        <v>45.65</v>
+        <v>30.15</v>
       </c>
       <c r="J59" t="n">
-        <v>15.47</v>
-      </c>
-      <c r="K59" t="n">
-        <v>30.15</v>
-      </c>
-      <c r="L59" t="n">
         <v>1897.54</v>
       </c>
     </row>
@@ -3064,30 +2706,24 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2</v>
+        <v>28.13</v>
       </c>
       <c r="E60" t="n">
-        <v>28.13</v>
+        <v>43.47</v>
       </c>
       <c r="F60" t="n">
-        <v>26.13</v>
+        <v>42.67</v>
       </c>
       <c r="G60" t="n">
-        <v>43.47</v>
+        <v>41.67</v>
       </c>
       <c r="H60" t="n">
-        <v>42.67</v>
+        <v>14.36</v>
       </c>
       <c r="I60" t="n">
-        <v>41.67</v>
+        <v>28.66</v>
       </c>
       <c r="J60" t="n">
-        <v>14.36</v>
-      </c>
-      <c r="K60" t="n">
-        <v>28.66</v>
-      </c>
-      <c r="L60" t="n">
         <v>1694.86</v>
       </c>
     </row>
@@ -3108,30 +2744,24 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>2</v>
+        <v>27.2</v>
       </c>
       <c r="E61" t="n">
-        <v>27.2</v>
+        <v>48.4</v>
       </c>
       <c r="F61" t="n">
-        <v>25.2</v>
+        <v>47.97</v>
       </c>
       <c r="G61" t="n">
-        <v>48.4</v>
+        <v>46.89</v>
       </c>
       <c r="H61" t="n">
-        <v>47.97</v>
+        <v>16.08</v>
       </c>
       <c r="I61" t="n">
-        <v>46.89</v>
+        <v>31.92</v>
       </c>
       <c r="J61" t="n">
-        <v>16.08</v>
-      </c>
-      <c r="K61" t="n">
-        <v>31.92</v>
-      </c>
-      <c r="L61" t="n">
         <v>1943.29</v>
       </c>
     </row>
@@ -3152,30 +2782,24 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>2</v>
+        <v>28.27</v>
       </c>
       <c r="E62" t="n">
-        <v>28.27</v>
+        <v>45.47</v>
       </c>
       <c r="F62" t="n">
-        <v>26.27</v>
+        <v>44.83</v>
       </c>
       <c r="G62" t="n">
-        <v>45.47</v>
+        <v>43.92</v>
       </c>
       <c r="H62" t="n">
-        <v>44.83</v>
+        <v>14.9</v>
       </c>
       <c r="I62" t="n">
-        <v>43.92</v>
+        <v>28.09</v>
       </c>
       <c r="J62" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K62" t="n">
-        <v>28.09</v>
-      </c>
-      <c r="L62" t="n">
         <v>1640.81</v>
       </c>
     </row>
@@ -3196,30 +2820,24 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>2</v>
+        <v>30.29</v>
       </c>
       <c r="E63" t="n">
-        <v>30.29</v>
+        <v>41.71</v>
       </c>
       <c r="F63" t="n">
-        <v>28.29</v>
+        <v>40.61</v>
       </c>
       <c r="G63" t="n">
-        <v>41.71</v>
+        <v>40.24</v>
       </c>
       <c r="H63" t="n">
-        <v>40.61</v>
+        <v>13.49</v>
       </c>
       <c r="I63" t="n">
-        <v>40.24</v>
+        <v>27.25</v>
       </c>
       <c r="J63" t="n">
-        <v>13.49</v>
-      </c>
-      <c r="K63" t="n">
-        <v>27.25</v>
-      </c>
-      <c r="L63" t="n">
         <v>1475.82</v>
       </c>
     </row>
@@ -3240,30 +2858,24 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2.29</v>
+        <v>30.57</v>
       </c>
       <c r="E64" t="n">
-        <v>30.57</v>
+        <v>39.07</v>
       </c>
       <c r="F64" t="n">
-        <v>28.29</v>
+        <v>38.86</v>
       </c>
       <c r="G64" t="n">
-        <v>39.07</v>
+        <v>38.22</v>
       </c>
       <c r="H64" t="n">
-        <v>38.86</v>
+        <v>12.53</v>
       </c>
       <c r="I64" t="n">
-        <v>38.22</v>
+        <v>24.63</v>
       </c>
       <c r="J64" t="n">
-        <v>12.53</v>
-      </c>
-      <c r="K64" t="n">
-        <v>24.63</v>
-      </c>
-      <c r="L64" t="n">
         <v>1356.69</v>
       </c>
     </row>
@@ -3284,30 +2896,24 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>2.13</v>
+        <v>28.8</v>
       </c>
       <c r="E65" t="n">
-        <v>28.8</v>
+        <v>42.27</v>
       </c>
       <c r="F65" t="n">
-        <v>26.67</v>
+        <v>41.85</v>
       </c>
       <c r="G65" t="n">
-        <v>42.27</v>
+        <v>40.07</v>
       </c>
       <c r="H65" t="n">
-        <v>41.85</v>
+        <v>13.48</v>
       </c>
       <c r="I65" t="n">
-        <v>40.07</v>
+        <v>25.64</v>
       </c>
       <c r="J65" t="n">
-        <v>13.48</v>
-      </c>
-      <c r="K65" t="n">
-        <v>25.64</v>
-      </c>
-      <c r="L65" t="n">
         <v>1516.31</v>
       </c>
     </row>
@@ -3328,30 +2934,24 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>2</v>
+        <v>29.6</v>
       </c>
       <c r="E66" t="n">
-        <v>29.6</v>
+        <v>43</v>
       </c>
       <c r="F66" t="n">
-        <v>27.6</v>
+        <v>42.69</v>
       </c>
       <c r="G66" t="n">
-        <v>43</v>
+        <v>40.42</v>
       </c>
       <c r="H66" t="n">
-        <v>42.69</v>
+        <v>14</v>
       </c>
       <c r="I66" t="n">
-        <v>40.42</v>
+        <v>27.11</v>
       </c>
       <c r="J66" t="n">
-        <v>14</v>
-      </c>
-      <c r="K66" t="n">
-        <v>27.11</v>
-      </c>
-      <c r="L66" t="n">
         <v>1532.44</v>
       </c>
     </row>
@@ -3372,30 +2972,24 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>2</v>
+        <v>28.93</v>
       </c>
       <c r="E67" t="n">
-        <v>28.93</v>
+        <v>42.47</v>
       </c>
       <c r="F67" t="n">
-        <v>26.93</v>
+        <v>41.9</v>
       </c>
       <c r="G67" t="n">
-        <v>42.47</v>
+        <v>41.06</v>
       </c>
       <c r="H67" t="n">
-        <v>41.9</v>
+        <v>13.62</v>
       </c>
       <c r="I67" t="n">
-        <v>41.06</v>
+        <v>28.05</v>
       </c>
       <c r="J67" t="n">
-        <v>13.62</v>
-      </c>
-      <c r="K67" t="n">
-        <v>28.05</v>
-      </c>
-      <c r="L67" t="n">
         <v>1604.39</v>
       </c>
     </row>
@@ -3416,30 +3010,24 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>2</v>
+        <v>29.6</v>
       </c>
       <c r="E68" t="n">
-        <v>29.6</v>
+        <v>42.4</v>
       </c>
       <c r="F68" t="n">
-        <v>27.6</v>
+        <v>41.67</v>
       </c>
       <c r="G68" t="n">
-        <v>42.4</v>
+        <v>40.6</v>
       </c>
       <c r="H68" t="n">
-        <v>41.67</v>
+        <v>13.62</v>
       </c>
       <c r="I68" t="n">
-        <v>40.6</v>
+        <v>25.39</v>
       </c>
       <c r="J68" t="n">
-        <v>13.62</v>
-      </c>
-      <c r="K68" t="n">
-        <v>25.39</v>
-      </c>
-      <c r="L68" t="n">
         <v>1448.08</v>
       </c>
     </row>
@@ -3460,30 +3048,24 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>2</v>
+        <v>25.07</v>
       </c>
       <c r="E69" t="n">
-        <v>25.07</v>
+        <v>42.87</v>
       </c>
       <c r="F69" t="n">
-        <v>23.07</v>
+        <v>42</v>
       </c>
       <c r="G69" t="n">
-        <v>42.87</v>
+        <v>40.24</v>
       </c>
       <c r="H69" t="n">
-        <v>42</v>
+        <v>14.45</v>
       </c>
       <c r="I69" t="n">
-        <v>40.24</v>
+        <v>33.21</v>
       </c>
       <c r="J69" t="n">
-        <v>14.45</v>
-      </c>
-      <c r="K69" t="n">
-        <v>33.21</v>
-      </c>
-      <c r="L69" t="n">
         <v>1936.22</v>
       </c>
     </row>
@@ -3504,30 +3086,24 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>2</v>
+        <v>27.08</v>
       </c>
       <c r="E70" t="n">
-        <v>27.08</v>
+        <v>41.23</v>
       </c>
       <c r="F70" t="n">
-        <v>25.08</v>
+        <v>40.6</v>
       </c>
       <c r="G70" t="n">
-        <v>41.23</v>
+        <v>39.38</v>
       </c>
       <c r="H70" t="n">
-        <v>40.6</v>
+        <v>13.4</v>
       </c>
       <c r="I70" t="n">
-        <v>39.38</v>
+        <v>29.14</v>
       </c>
       <c r="J70" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K70" t="n">
-        <v>29.14</v>
-      </c>
-      <c r="L70" t="n">
         <v>1717.01</v>
       </c>
     </row>
@@ -3548,30 +3124,24 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>2</v>
+        <v>28.62</v>
       </c>
       <c r="E71" t="n">
-        <v>28.62</v>
+        <v>46.54</v>
       </c>
       <c r="F71" t="n">
-        <v>26.62</v>
+        <v>46.04</v>
       </c>
       <c r="G71" t="n">
-        <v>46.54</v>
+        <v>44.38</v>
       </c>
       <c r="H71" t="n">
-        <v>46.04</v>
+        <v>15.37</v>
       </c>
       <c r="I71" t="n">
-        <v>44.38</v>
+        <v>31.13</v>
       </c>
       <c r="J71" t="n">
-        <v>15.37</v>
-      </c>
-      <c r="K71" t="n">
-        <v>31.13</v>
-      </c>
-      <c r="L71" t="n">
         <v>1725.51</v>
       </c>
     </row>
@@ -3592,30 +3162,24 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>2</v>
+        <v>31.23</v>
       </c>
       <c r="E72" t="n">
-        <v>31.23</v>
+        <v>42.46</v>
       </c>
       <c r="F72" t="n">
-        <v>29.23</v>
+        <v>41.48</v>
       </c>
       <c r="G72" t="n">
-        <v>42.46</v>
+        <v>40.04</v>
       </c>
       <c r="H72" t="n">
-        <v>41.48</v>
+        <v>13.88</v>
       </c>
       <c r="I72" t="n">
-        <v>40.04</v>
+        <v>24.98</v>
       </c>
       <c r="J72" t="n">
-        <v>13.88</v>
-      </c>
-      <c r="K72" t="n">
-        <v>24.98</v>
-      </c>
-      <c r="L72" t="n">
         <v>1458.69</v>
       </c>
     </row>
@@ -3636,30 +3200,24 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>2.13</v>
+        <v>28.67</v>
       </c>
       <c r="E73" t="n">
-        <v>28.67</v>
+        <v>41.87</v>
       </c>
       <c r="F73" t="n">
-        <v>26.53</v>
+        <v>41.36</v>
       </c>
       <c r="G73" t="n">
-        <v>41.87</v>
+        <v>38.21</v>
       </c>
       <c r="H73" t="n">
-        <v>41.36</v>
+        <v>13.79</v>
       </c>
       <c r="I73" t="n">
-        <v>38.21</v>
+        <v>29.87</v>
       </c>
       <c r="J73" t="n">
-        <v>13.79</v>
-      </c>
-      <c r="K73" t="n">
-        <v>29.87</v>
-      </c>
-      <c r="L73" t="n">
         <v>1599.9</v>
       </c>
     </row>
@@ -3680,30 +3238,24 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>2</v>
+        <v>28.53</v>
       </c>
       <c r="E74" t="n">
-        <v>28.53</v>
+        <v>41.33</v>
       </c>
       <c r="F74" t="n">
-        <v>26.53</v>
+        <v>40.88</v>
       </c>
       <c r="G74" t="n">
-        <v>41.33</v>
+        <v>39.59</v>
       </c>
       <c r="H74" t="n">
-        <v>40.88</v>
+        <v>13.4</v>
       </c>
       <c r="I74" t="n">
-        <v>39.59</v>
+        <v>27.4</v>
       </c>
       <c r="J74" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K74" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="L74" t="n">
         <v>1477.73</v>
       </c>
     </row>
@@ -3724,30 +3276,24 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>2</v>
+        <v>30.53</v>
       </c>
       <c r="E75" t="n">
-        <v>30.53</v>
+        <v>29.47</v>
       </c>
       <c r="F75" t="n">
-        <v>28.53</v>
+        <v>29.22</v>
       </c>
       <c r="G75" t="n">
-        <v>29.47</v>
+        <v>28.41</v>
       </c>
       <c r="H75" t="n">
-        <v>29.22</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="I75" t="n">
-        <v>28.41</v>
+        <v>17.94</v>
       </c>
       <c r="J75" t="n">
-        <v>8.960000000000001</v>
-      </c>
-      <c r="K75" t="n">
-        <v>17.94</v>
-      </c>
-      <c r="L75" t="n">
         <v>960.97</v>
       </c>
     </row>
@@ -3768,30 +3314,24 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>2</v>
+        <v>28.67</v>
       </c>
       <c r="E76" t="n">
-        <v>28.67</v>
+        <v>47.53</v>
       </c>
       <c r="F76" t="n">
-        <v>26.67</v>
+        <v>46.65</v>
       </c>
       <c r="G76" t="n">
-        <v>47.53</v>
+        <v>45.47</v>
       </c>
       <c r="H76" t="n">
-        <v>46.65</v>
+        <v>15.74</v>
       </c>
       <c r="I76" t="n">
-        <v>45.47</v>
+        <v>30.34</v>
       </c>
       <c r="J76" t="n">
-        <v>15.74</v>
-      </c>
-      <c r="K76" t="n">
-        <v>30.34</v>
-      </c>
-      <c r="L76" t="n">
         <v>1901.9</v>
       </c>
     </row>
@@ -3812,30 +3352,24 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>2</v>
+        <v>30.27</v>
       </c>
       <c r="E77" t="n">
-        <v>30.27</v>
+        <v>34.8</v>
       </c>
       <c r="F77" t="n">
-        <v>28.27</v>
+        <v>33.97</v>
       </c>
       <c r="G77" t="n">
-        <v>34.8</v>
+        <v>32.83</v>
       </c>
       <c r="H77" t="n">
-        <v>33.97</v>
+        <v>11.28</v>
       </c>
       <c r="I77" t="n">
-        <v>32.83</v>
+        <v>29.66</v>
       </c>
       <c r="J77" t="n">
-        <v>11.28</v>
-      </c>
-      <c r="K77" t="n">
-        <v>29.66</v>
-      </c>
-      <c r="L77" t="n">
         <v>1329.72</v>
       </c>
     </row>
@@ -3856,30 +3390,24 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>2</v>
+        <v>26.14</v>
       </c>
       <c r="E78" t="n">
-        <v>26.14</v>
+        <v>41.14</v>
       </c>
       <c r="F78" t="n">
-        <v>24.14</v>
+        <v>40.4</v>
       </c>
       <c r="G78" t="n">
-        <v>41.14</v>
+        <v>38.55</v>
       </c>
       <c r="H78" t="n">
-        <v>40.4</v>
+        <v>13.72</v>
       </c>
       <c r="I78" t="n">
-        <v>38.55</v>
+        <v>32.08</v>
       </c>
       <c r="J78" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="K78" t="n">
-        <v>32.08</v>
-      </c>
-      <c r="L78" t="n">
         <v>1663.19</v>
       </c>
     </row>
@@ -3900,30 +3428,24 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>2</v>
+        <v>28.31</v>
       </c>
       <c r="E79" t="n">
-        <v>28.31</v>
+        <v>41.77</v>
       </c>
       <c r="F79" t="n">
-        <v>26.31</v>
+        <v>40.8</v>
       </c>
       <c r="G79" t="n">
-        <v>41.77</v>
+        <v>38.16</v>
       </c>
       <c r="H79" t="n">
-        <v>40.8</v>
+        <v>13.95</v>
       </c>
       <c r="I79" t="n">
-        <v>38.16</v>
+        <v>28.29</v>
       </c>
       <c r="J79" t="n">
-        <v>13.95</v>
-      </c>
-      <c r="K79" t="n">
-        <v>28.29</v>
-      </c>
-      <c r="L79" t="n">
         <v>1582.13</v>
       </c>
     </row>
@@ -3944,30 +3466,24 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2</v>
+        <v>26.53</v>
       </c>
       <c r="E80" t="n">
-        <v>26.53</v>
+        <v>41.93</v>
       </c>
       <c r="F80" t="n">
-        <v>24.53</v>
+        <v>41.48</v>
       </c>
       <c r="G80" t="n">
-        <v>41.93</v>
+        <v>39.89</v>
       </c>
       <c r="H80" t="n">
-        <v>41.48</v>
+        <v>14.38</v>
       </c>
       <c r="I80" t="n">
-        <v>39.89</v>
+        <v>31.95</v>
       </c>
       <c r="J80" t="n">
-        <v>14.38</v>
-      </c>
-      <c r="K80" t="n">
-        <v>31.95</v>
-      </c>
-      <c r="L80" t="n">
         <v>1806.83</v>
       </c>
     </row>
@@ -3988,30 +3504,24 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>2</v>
+        <v>29.57</v>
       </c>
       <c r="E81" t="n">
-        <v>29.57</v>
+        <v>38.64</v>
       </c>
       <c r="F81" t="n">
-        <v>27.57</v>
+        <v>37.77</v>
       </c>
       <c r="G81" t="n">
-        <v>38.64</v>
+        <v>36.78</v>
       </c>
       <c r="H81" t="n">
-        <v>37.77</v>
+        <v>12.59</v>
       </c>
       <c r="I81" t="n">
-        <v>36.78</v>
+        <v>27.99</v>
       </c>
       <c r="J81" t="n">
-        <v>12.59</v>
-      </c>
-      <c r="K81" t="n">
-        <v>27.99</v>
-      </c>
-      <c r="L81" t="n">
         <v>1420.96</v>
       </c>
     </row>
@@ -4032,30 +3542,24 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>2</v>
+        <v>27.33</v>
       </c>
       <c r="E82" t="n">
-        <v>27.33</v>
+        <v>39.75</v>
       </c>
       <c r="F82" t="n">
-        <v>25.33</v>
+        <v>39.21</v>
       </c>
       <c r="G82" t="n">
-        <v>39.75</v>
+        <v>37.21</v>
       </c>
       <c r="H82" t="n">
-        <v>39.21</v>
+        <v>12.78</v>
       </c>
       <c r="I82" t="n">
-        <v>37.21</v>
+        <v>27.45</v>
       </c>
       <c r="J82" t="n">
-        <v>12.78</v>
-      </c>
-      <c r="K82" t="n">
-        <v>27.45</v>
-      </c>
-      <c r="L82" t="n">
         <v>1468.76</v>
       </c>
     </row>
@@ -4076,30 +3580,24 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E83" t="n">
-        <v>30</v>
+        <v>36.85</v>
       </c>
       <c r="F83" t="n">
-        <v>28</v>
+        <v>36.22</v>
       </c>
       <c r="G83" t="n">
-        <v>36.85</v>
+        <v>35.22</v>
       </c>
       <c r="H83" t="n">
-        <v>36.22</v>
+        <v>11.69</v>
       </c>
       <c r="I83" t="n">
-        <v>35.22</v>
+        <v>26.91</v>
       </c>
       <c r="J83" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="K83" t="n">
-        <v>26.91</v>
-      </c>
-      <c r="L83" t="n">
         <v>1299.95</v>
       </c>
     </row>
@@ -4120,30 +3618,24 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>2</v>
+        <v>29.07</v>
       </c>
       <c r="E84" t="n">
-        <v>29.07</v>
+        <v>37.8</v>
       </c>
       <c r="F84" t="n">
-        <v>27.07</v>
+        <v>37.55</v>
       </c>
       <c r="G84" t="n">
-        <v>37.8</v>
+        <v>36.6</v>
       </c>
       <c r="H84" t="n">
-        <v>37.55</v>
+        <v>12.24</v>
       </c>
       <c r="I84" t="n">
-        <v>36.6</v>
+        <v>28.05</v>
       </c>
       <c r="J84" t="n">
-        <v>12.24</v>
-      </c>
-      <c r="K84" t="n">
-        <v>28.05</v>
-      </c>
-      <c r="L84" t="n">
         <v>1347.86</v>
       </c>
     </row>
@@ -4164,30 +3656,24 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>2</v>
+        <v>29.71</v>
       </c>
       <c r="E85" t="n">
-        <v>29.71</v>
+        <v>39.64</v>
       </c>
       <c r="F85" t="n">
-        <v>27.71</v>
+        <v>39.29</v>
       </c>
       <c r="G85" t="n">
-        <v>39.64</v>
+        <v>37.26</v>
       </c>
       <c r="H85" t="n">
-        <v>39.29</v>
+        <v>12.62</v>
       </c>
       <c r="I85" t="n">
-        <v>37.26</v>
+        <v>25.93</v>
       </c>
       <c r="J85" t="n">
-        <v>12.62</v>
-      </c>
-      <c r="K85" t="n">
-        <v>25.93</v>
-      </c>
-      <c r="L85" t="n">
         <v>1437.25</v>
       </c>
     </row>
@@ -4208,30 +3694,24 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2.67</v>
+        <v>29.6</v>
       </c>
       <c r="E86" t="n">
-        <v>29.6</v>
+        <v>40.33</v>
       </c>
       <c r="F86" t="n">
-        <v>26.93</v>
+        <v>39.42</v>
       </c>
       <c r="G86" t="n">
-        <v>40.33</v>
+        <v>36.97</v>
       </c>
       <c r="H86" t="n">
-        <v>39.42</v>
+        <v>13.03</v>
       </c>
       <c r="I86" t="n">
-        <v>36.97</v>
+        <v>26.88</v>
       </c>
       <c r="J86" t="n">
-        <v>13.03</v>
-      </c>
-      <c r="K86" t="n">
-        <v>26.88</v>
-      </c>
-      <c r="L86" t="n">
         <v>1546.09</v>
       </c>
     </row>
@@ -4252,30 +3732,24 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>2</v>
+        <v>30.53</v>
       </c>
       <c r="E87" t="n">
-        <v>30.53</v>
+        <v>36.53</v>
       </c>
       <c r="F87" t="n">
-        <v>28.53</v>
+        <v>36.37</v>
       </c>
       <c r="G87" t="n">
-        <v>36.53</v>
+        <v>35.37</v>
       </c>
       <c r="H87" t="n">
-        <v>36.37</v>
+        <v>11.35</v>
       </c>
       <c r="I87" t="n">
-        <v>35.37</v>
+        <v>21.86</v>
       </c>
       <c r="J87" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K87" t="n">
-        <v>21.86</v>
-      </c>
-      <c r="L87" t="n">
         <v>1235.48</v>
       </c>
     </row>
@@ -4296,30 +3770,24 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>2</v>
+        <v>28.43</v>
       </c>
       <c r="E88" t="n">
-        <v>28.43</v>
+        <v>41.5</v>
       </c>
       <c r="F88" t="n">
-        <v>26.43</v>
+        <v>41.12</v>
       </c>
       <c r="G88" t="n">
-        <v>41.5</v>
+        <v>38.34</v>
       </c>
       <c r="H88" t="n">
-        <v>41.12</v>
+        <v>13.25</v>
       </c>
       <c r="I88" t="n">
-        <v>38.34</v>
+        <v>31.2</v>
       </c>
       <c r="J88" t="n">
-        <v>13.25</v>
-      </c>
-      <c r="K88" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="L88" t="n">
         <v>1605.4</v>
       </c>
     </row>
@@ -4340,30 +3808,24 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>2</v>
+        <v>28.53</v>
       </c>
       <c r="E89" t="n">
-        <v>28.53</v>
+        <v>36.07</v>
       </c>
       <c r="F89" t="n">
-        <v>26.53</v>
+        <v>34.78</v>
       </c>
       <c r="G89" t="n">
-        <v>36.07</v>
+        <v>32.81</v>
       </c>
       <c r="H89" t="n">
-        <v>34.78</v>
+        <v>11.72</v>
       </c>
       <c r="I89" t="n">
-        <v>32.81</v>
+        <v>28</v>
       </c>
       <c r="J89" t="n">
-        <v>11.72</v>
-      </c>
-      <c r="K89" t="n">
-        <v>28</v>
-      </c>
-      <c r="L89" t="n">
         <v>1418.32</v>
       </c>
     </row>
@@ -4384,30 +3846,24 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="E90" t="n">
-        <v>31</v>
+        <v>38.86</v>
       </c>
       <c r="F90" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G90" t="n">
-        <v>38.86</v>
+        <v>35.81</v>
       </c>
       <c r="H90" t="n">
-        <v>38</v>
+        <v>12.82</v>
       </c>
       <c r="I90" t="n">
-        <v>35.81</v>
+        <v>26.41</v>
       </c>
       <c r="J90" t="n">
-        <v>12.82</v>
-      </c>
-      <c r="K90" t="n">
-        <v>26.41</v>
-      </c>
-      <c r="L90" t="n">
         <v>1418.3</v>
       </c>
     </row>
@@ -4428,30 +3884,24 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>2.29</v>
+        <v>26.29</v>
       </c>
       <c r="E91" t="n">
-        <v>26.29</v>
+        <v>90.64</v>
       </c>
       <c r="F91" t="n">
-        <v>24</v>
+        <v>86.86</v>
       </c>
       <c r="G91" t="n">
-        <v>90.64</v>
+        <v>79.28</v>
       </c>
       <c r="H91" t="n">
-        <v>86.86</v>
+        <v>28.65</v>
       </c>
       <c r="I91" t="n">
-        <v>79.28</v>
+        <v>28.11</v>
       </c>
       <c r="J91" t="n">
-        <v>28.65</v>
-      </c>
-      <c r="K91" t="n">
-        <v>28.11</v>
-      </c>
-      <c r="L91" t="n">
         <v>3497.38</v>
       </c>
     </row>
@@ -4472,30 +3922,24 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>2.13</v>
+        <v>22.27</v>
       </c>
       <c r="E92" t="n">
-        <v>22.27</v>
+        <v>99.27</v>
       </c>
       <c r="F92" t="n">
-        <v>20.13</v>
+        <v>97.31999999999999</v>
       </c>
       <c r="G92" t="n">
-        <v>99.27</v>
+        <v>91.95999999999999</v>
       </c>
       <c r="H92" t="n">
-        <v>97.31999999999999</v>
+        <v>32.16</v>
       </c>
       <c r="I92" t="n">
-        <v>91.95999999999999</v>
+        <v>38.1</v>
       </c>
       <c r="J92" t="n">
-        <v>32.16</v>
-      </c>
-      <c r="K92" t="n">
-        <v>38.1</v>
-      </c>
-      <c r="L92" t="n">
         <v>4508.56</v>
       </c>
     </row>
@@ -4516,30 +3960,24 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2</v>
+        <v>23.23</v>
       </c>
       <c r="E93" t="n">
-        <v>23.23</v>
+        <v>76.45999999999999</v>
       </c>
       <c r="F93" t="n">
-        <v>21.23</v>
+        <v>75.01000000000001</v>
       </c>
       <c r="G93" t="n">
-        <v>76.45999999999999</v>
+        <v>68.26000000000001</v>
       </c>
       <c r="H93" t="n">
-        <v>75.01000000000001</v>
+        <v>25.18</v>
       </c>
       <c r="I93" t="n">
-        <v>68.26000000000001</v>
+        <v>34.36</v>
       </c>
       <c r="J93" t="n">
-        <v>25.18</v>
-      </c>
-      <c r="K93" t="n">
-        <v>34.36</v>
-      </c>
-      <c r="L93" t="n">
         <v>3108.63</v>
       </c>
     </row>
@@ -4560,30 +3998,24 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>2.71</v>
+        <v>25.71</v>
       </c>
       <c r="E94" t="n">
-        <v>25.71</v>
+        <v>83.93000000000001</v>
       </c>
       <c r="F94" t="n">
-        <v>23</v>
+        <v>79.98</v>
       </c>
       <c r="G94" t="n">
-        <v>83.93000000000001</v>
+        <v>78.44</v>
       </c>
       <c r="H94" t="n">
-        <v>79.98</v>
+        <v>27.59</v>
       </c>
       <c r="I94" t="n">
-        <v>78.44</v>
+        <v>32.9</v>
       </c>
       <c r="J94" t="n">
-        <v>27.59</v>
-      </c>
-      <c r="K94" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="L94" t="n">
         <v>3811.05</v>
       </c>
     </row>
@@ -4604,30 +4036,24 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>2.14</v>
+        <v>21.71</v>
       </c>
       <c r="E95" t="n">
-        <v>21.71</v>
+        <v>92.43000000000001</v>
       </c>
       <c r="F95" t="n">
-        <v>19.57</v>
+        <v>89.43000000000001</v>
       </c>
       <c r="G95" t="n">
-        <v>92.43000000000001</v>
+        <v>85.94</v>
       </c>
       <c r="H95" t="n">
-        <v>89.43000000000001</v>
+        <v>30.54</v>
       </c>
       <c r="I95" t="n">
-        <v>85.94</v>
+        <v>40.39</v>
       </c>
       <c r="J95" t="n">
-        <v>30.54</v>
-      </c>
-      <c r="K95" t="n">
-        <v>40.39</v>
-      </c>
-      <c r="L95" t="n">
         <v>4448.18</v>
       </c>
     </row>
@@ -4648,30 +4074,24 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>2</v>
+        <v>24.27</v>
       </c>
       <c r="E96" t="n">
-        <v>24.27</v>
+        <v>84.87</v>
       </c>
       <c r="F96" t="n">
-        <v>22.27</v>
+        <v>80.31999999999999</v>
       </c>
       <c r="G96" t="n">
-        <v>84.87</v>
+        <v>74.31999999999999</v>
       </c>
       <c r="H96" t="n">
-        <v>80.31999999999999</v>
+        <v>27.82</v>
       </c>
       <c r="I96" t="n">
-        <v>74.31999999999999</v>
+        <v>33.19</v>
       </c>
       <c r="J96" t="n">
-        <v>27.82</v>
-      </c>
-      <c r="K96" t="n">
-        <v>33.19</v>
-      </c>
-      <c r="L96" t="n">
         <v>3547.03</v>
       </c>
     </row>
@@ -4692,30 +4112,24 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>2</v>
+        <v>22.57</v>
       </c>
       <c r="E97" t="n">
-        <v>22.57</v>
+        <v>84</v>
       </c>
       <c r="F97" t="n">
-        <v>20.57</v>
+        <v>79.73999999999999</v>
       </c>
       <c r="G97" t="n">
-        <v>84</v>
+        <v>74.42</v>
       </c>
       <c r="H97" t="n">
-        <v>79.73999999999999</v>
+        <v>27.26</v>
       </c>
       <c r="I97" t="n">
-        <v>74.42</v>
+        <v>33.23</v>
       </c>
       <c r="J97" t="n">
-        <v>27.26</v>
-      </c>
-      <c r="K97" t="n">
-        <v>33.23</v>
-      </c>
-      <c r="L97" t="n">
         <v>3869.71</v>
       </c>
     </row>
@@ -4736,30 +4150,24 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>2</v>
+        <v>23.2</v>
       </c>
       <c r="E98" t="n">
-        <v>23.2</v>
+        <v>90.53</v>
       </c>
       <c r="F98" t="n">
-        <v>21.2</v>
+        <v>87.73</v>
       </c>
       <c r="G98" t="n">
-        <v>90.53</v>
+        <v>81.86</v>
       </c>
       <c r="H98" t="n">
-        <v>87.73</v>
+        <v>30</v>
       </c>
       <c r="I98" t="n">
-        <v>81.86</v>
+        <v>36.67</v>
       </c>
       <c r="J98" t="n">
-        <v>30</v>
-      </c>
-      <c r="K98" t="n">
-        <v>36.67</v>
-      </c>
-      <c r="L98" t="n">
         <v>3993</v>
       </c>
     </row>
@@ -4780,30 +4188,24 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>2.27</v>
+        <v>27.07</v>
       </c>
       <c r="E99" t="n">
-        <v>27.07</v>
+        <v>78.93000000000001</v>
       </c>
       <c r="F99" t="n">
-        <v>24.8</v>
+        <v>76.72</v>
       </c>
       <c r="G99" t="n">
-        <v>78.93000000000001</v>
+        <v>70.43000000000001</v>
       </c>
       <c r="H99" t="n">
-        <v>76.72</v>
+        <v>24.58</v>
       </c>
       <c r="I99" t="n">
-        <v>70.43000000000001</v>
+        <v>28.85</v>
       </c>
       <c r="J99" t="n">
-        <v>24.58</v>
-      </c>
-      <c r="K99" t="n">
-        <v>28.85</v>
-      </c>
-      <c r="L99" t="n">
         <v>3251.74</v>
       </c>
     </row>
@@ -4824,30 +4226,24 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>2.29</v>
+        <v>26.43</v>
       </c>
       <c r="E100" t="n">
-        <v>26.43</v>
+        <v>75.93000000000001</v>
       </c>
       <c r="F100" t="n">
-        <v>24.14</v>
+        <v>72.67</v>
       </c>
       <c r="G100" t="n">
-        <v>75.93000000000001</v>
+        <v>67.31</v>
       </c>
       <c r="H100" t="n">
-        <v>72.67</v>
+        <v>24.81</v>
       </c>
       <c r="I100" t="n">
-        <v>67.31</v>
+        <v>56.11</v>
       </c>
       <c r="J100" t="n">
-        <v>24.81</v>
-      </c>
-      <c r="K100" t="n">
-        <v>56.11</v>
-      </c>
-      <c r="L100" t="n">
         <v>3547.77</v>
       </c>
     </row>
@@ -4868,30 +4264,24 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>2.17</v>
+        <v>21.5</v>
       </c>
       <c r="E101" t="n">
-        <v>21.5</v>
+        <v>74.5</v>
       </c>
       <c r="F101" t="n">
-        <v>19.33</v>
+        <v>71.25</v>
       </c>
       <c r="G101" t="n">
-        <v>74.5</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="H101" t="n">
-        <v>71.25</v>
+        <v>24.9</v>
       </c>
       <c r="I101" t="n">
-        <v>67.90000000000001</v>
+        <v>35.89</v>
       </c>
       <c r="J101" t="n">
-        <v>24.9</v>
-      </c>
-      <c r="K101" t="n">
-        <v>35.89</v>
-      </c>
-      <c r="L101" t="n">
         <v>3602.33</v>
       </c>
     </row>
@@ -4912,30 +4302,24 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>2</v>
+        <v>29.09</v>
       </c>
       <c r="E102" t="n">
-        <v>29.09</v>
+        <v>72.81999999999999</v>
       </c>
       <c r="F102" t="n">
-        <v>27.09</v>
+        <v>71.2</v>
       </c>
       <c r="G102" t="n">
-        <v>72.81999999999999</v>
+        <v>66.05</v>
       </c>
       <c r="H102" t="n">
-        <v>71.2</v>
+        <v>24.1</v>
       </c>
       <c r="I102" t="n">
-        <v>66.05</v>
+        <v>36.92</v>
       </c>
       <c r="J102" t="n">
-        <v>24.1</v>
-      </c>
-      <c r="K102" t="n">
-        <v>36.92</v>
-      </c>
-      <c r="L102" t="n">
         <v>3170.68</v>
       </c>
     </row>
@@ -4956,30 +4340,24 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>2</v>
+        <v>28.57</v>
       </c>
       <c r="E103" t="n">
-        <v>28.57</v>
+        <v>67.36</v>
       </c>
       <c r="F103" t="n">
-        <v>26.57</v>
+        <v>64.83</v>
       </c>
       <c r="G103" t="n">
-        <v>67.36</v>
+        <v>62.12</v>
       </c>
       <c r="H103" t="n">
-        <v>64.83</v>
+        <v>22.26</v>
       </c>
       <c r="I103" t="n">
-        <v>62.12</v>
+        <v>28.78</v>
       </c>
       <c r="J103" t="n">
-        <v>22.26</v>
-      </c>
-      <c r="K103" t="n">
-        <v>28.78</v>
-      </c>
-      <c r="L103" t="n">
         <v>2846.53</v>
       </c>
     </row>
@@ -5000,30 +4378,24 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>2</v>
+        <v>27.33</v>
       </c>
       <c r="E104" t="n">
-        <v>27.33</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="F104" t="n">
-        <v>25.33</v>
+        <v>68.59</v>
       </c>
       <c r="G104" t="n">
-        <v>70.59999999999999</v>
+        <v>64.04000000000001</v>
       </c>
       <c r="H104" t="n">
-        <v>68.59</v>
+        <v>23.19</v>
       </c>
       <c r="I104" t="n">
-        <v>64.04000000000001</v>
+        <v>30.73</v>
       </c>
       <c r="J104" t="n">
-        <v>23.19</v>
-      </c>
-      <c r="K104" t="n">
-        <v>30.73</v>
-      </c>
-      <c r="L104" t="n">
         <v>3030.1</v>
       </c>
     </row>
@@ -5044,30 +4416,24 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>2.31</v>
+        <v>24.31</v>
       </c>
       <c r="E105" t="n">
-        <v>24.31</v>
+        <v>73.54000000000001</v>
       </c>
       <c r="F105" t="n">
-        <v>22</v>
+        <v>71.75</v>
       </c>
       <c r="G105" t="n">
-        <v>73.54000000000001</v>
+        <v>66.17</v>
       </c>
       <c r="H105" t="n">
-        <v>71.75</v>
+        <v>23.61</v>
       </c>
       <c r="I105" t="n">
-        <v>66.17</v>
+        <v>443999.11</v>
       </c>
       <c r="J105" t="n">
-        <v>23.61</v>
-      </c>
-      <c r="K105" t="n">
-        <v>443999.11</v>
-      </c>
-      <c r="L105" t="n">
         <v>3429.84</v>
       </c>
     </row>
@@ -5088,30 +4454,24 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>2.22</v>
+        <v>28.44</v>
       </c>
       <c r="E106" t="n">
-        <v>28.44</v>
+        <v>75.11</v>
       </c>
       <c r="F106" t="n">
-        <v>26.22</v>
+        <v>72.12</v>
       </c>
       <c r="G106" t="n">
-        <v>75.11</v>
+        <v>67.43000000000001</v>
       </c>
       <c r="H106" t="n">
-        <v>72.12</v>
+        <v>24.71</v>
       </c>
       <c r="I106" t="n">
-        <v>67.43000000000001</v>
+        <v>29.78</v>
       </c>
       <c r="J106" t="n">
-        <v>24.71</v>
-      </c>
-      <c r="K106" t="n">
-        <v>29.78</v>
-      </c>
-      <c r="L106" t="n">
         <v>3038.67</v>
       </c>
     </row>
@@ -5132,30 +4492,24 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>2.27</v>
+        <v>25.47</v>
       </c>
       <c r="E107" t="n">
-        <v>25.47</v>
+        <v>70.47</v>
       </c>
       <c r="F107" t="n">
-        <v>23.2</v>
+        <v>68.26000000000001</v>
       </c>
       <c r="G107" t="n">
-        <v>70.47</v>
+        <v>63.61</v>
       </c>
       <c r="H107" t="n">
-        <v>68.26000000000001</v>
+        <v>22.73</v>
       </c>
       <c r="I107" t="n">
-        <v>63.61</v>
+        <v>32.73</v>
       </c>
       <c r="J107" t="n">
-        <v>22.73</v>
-      </c>
-      <c r="K107" t="n">
-        <v>32.73</v>
-      </c>
-      <c r="L107" t="n">
         <v>3116.74</v>
       </c>
     </row>
@@ -5176,30 +4530,24 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>2</v>
+        <v>25.43</v>
       </c>
       <c r="E108" t="n">
-        <v>25.43</v>
+        <v>77.36</v>
       </c>
       <c r="F108" t="n">
-        <v>23.43</v>
+        <v>75.70999999999999</v>
       </c>
       <c r="G108" t="n">
-        <v>77.36</v>
+        <v>69.73999999999999</v>
       </c>
       <c r="H108" t="n">
-        <v>75.70999999999999</v>
+        <v>25.19</v>
       </c>
       <c r="I108" t="n">
-        <v>69.73999999999999</v>
+        <v>28.79</v>
       </c>
       <c r="J108" t="n">
-        <v>25.19</v>
-      </c>
-      <c r="K108" t="n">
-        <v>28.79</v>
-      </c>
-      <c r="L108" t="n">
         <v>3237.56</v>
       </c>
     </row>

--- a/[1] Peakfinder Results/OVERVIEW.xlsx
+++ b/[1] Peakfinder Results/OVERVIEW.xlsx
@@ -511,7 +511,7 @@
         <v>30.96</v>
       </c>
       <c r="G2" t="n">
-        <v>28.94</v>
+        <v>28.82</v>
       </c>
       <c r="H2" t="n">
         <v>10.27</v>
@@ -663,7 +663,7 @@
         <v>30.29</v>
       </c>
       <c r="G6" t="n">
-        <v>28.74</v>
+        <v>28.65</v>
       </c>
       <c r="H6" t="n">
         <v>10.4</v>
@@ -701,7 +701,7 @@
         <v>31.9</v>
       </c>
       <c r="G7" t="n">
-        <v>30.04</v>
+        <v>29.85</v>
       </c>
       <c r="H7" t="n">
         <v>10.65</v>
@@ -739,7 +739,7 @@
         <v>32.04</v>
       </c>
       <c r="G8" t="n">
-        <v>29.61</v>
+        <v>29.14</v>
       </c>
       <c r="H8" t="n">
         <v>10.95</v>
@@ -777,7 +777,7 @@
         <v>32.57</v>
       </c>
       <c r="G9" t="n">
-        <v>30.15</v>
+        <v>30.05</v>
       </c>
       <c r="H9" t="n">
         <v>10.35</v>
@@ -815,7 +815,7 @@
         <v>28.17</v>
       </c>
       <c r="G10" t="n">
-        <v>24.67</v>
+        <v>24.25</v>
       </c>
       <c r="H10" t="n">
         <v>9.199999999999999</v>
@@ -853,7 +853,7 @@
         <v>25.17</v>
       </c>
       <c r="G11" t="n">
-        <v>23.13</v>
+        <v>23.11</v>
       </c>
       <c r="H11" t="n">
         <v>8.130000000000001</v>
@@ -891,7 +891,7 @@
         <v>26.73</v>
       </c>
       <c r="G12" t="n">
-        <v>24.7</v>
+        <v>24.36</v>
       </c>
       <c r="H12" t="n">
         <v>8.380000000000001</v>
@@ -929,7 +929,7 @@
         <v>26.05</v>
       </c>
       <c r="G13" t="n">
-        <v>23.48</v>
+        <v>23.46</v>
       </c>
       <c r="H13" t="n">
         <v>8.470000000000001</v>
@@ -967,7 +967,7 @@
         <v>23.35</v>
       </c>
       <c r="G14" t="n">
-        <v>22.2</v>
+        <v>22.12</v>
       </c>
       <c r="H14" t="n">
         <v>7.25</v>
@@ -1119,7 +1119,7 @@
         <v>24.97</v>
       </c>
       <c r="G18" t="n">
-        <v>22.81</v>
+        <v>22.13</v>
       </c>
       <c r="H18" t="n">
         <v>8.01</v>
@@ -1195,7 +1195,7 @@
         <v>87.48999999999999</v>
       </c>
       <c r="G20" t="n">
-        <v>77.83</v>
+        <v>75.2</v>
       </c>
       <c r="H20" t="n">
         <v>30.95</v>
@@ -1233,7 +1233,7 @@
         <v>84.16</v>
       </c>
       <c r="G21" t="n">
-        <v>75.7</v>
+        <v>75.56</v>
       </c>
       <c r="H21" t="n">
         <v>29.37</v>
@@ -1309,7 +1309,7 @@
         <v>85.79000000000001</v>
       </c>
       <c r="G23" t="n">
-        <v>76.28</v>
+        <v>72.72</v>
       </c>
       <c r="H23" t="n">
         <v>30.23</v>
@@ -1347,7 +1347,7 @@
         <v>84.98</v>
       </c>
       <c r="G24" t="n">
-        <v>81.51000000000001</v>
+        <v>78.72</v>
       </c>
       <c r="H24" t="n">
         <v>29.67</v>
@@ -1385,7 +1385,7 @@
         <v>80.43000000000001</v>
       </c>
       <c r="G25" t="n">
-        <v>74.97</v>
+        <v>74.78</v>
       </c>
       <c r="H25" t="n">
         <v>28.2</v>
@@ -1423,7 +1423,7 @@
         <v>80.23999999999999</v>
       </c>
       <c r="G26" t="n">
-        <v>73.86</v>
+        <v>71.87</v>
       </c>
       <c r="H26" t="n">
         <v>28.27</v>
@@ -1461,7 +1461,7 @@
         <v>78.48</v>
       </c>
       <c r="G27" t="n">
-        <v>71.52</v>
+        <v>71.06</v>
       </c>
       <c r="H27" t="n">
         <v>27.87</v>
@@ -1499,7 +1499,7 @@
         <v>77.45999999999999</v>
       </c>
       <c r="G28" t="n">
-        <v>70.97</v>
+        <v>70.15000000000001</v>
       </c>
       <c r="H28" t="n">
         <v>27.01</v>
@@ -1537,7 +1537,7 @@
         <v>77.48999999999999</v>
       </c>
       <c r="G29" t="n">
-        <v>70.31</v>
+        <v>68.34</v>
       </c>
       <c r="H29" t="n">
         <v>27.35</v>
@@ -1575,7 +1575,7 @@
         <v>74.42</v>
       </c>
       <c r="G30" t="n">
-        <v>69.26000000000001</v>
+        <v>68.48999999999999</v>
       </c>
       <c r="H30" t="n">
         <v>26.03</v>
@@ -1613,7 +1613,7 @@
         <v>77.76000000000001</v>
       </c>
       <c r="G31" t="n">
-        <v>72.28</v>
+        <v>70.42</v>
       </c>
       <c r="H31" t="n">
         <v>27.06</v>
@@ -1651,7 +1651,7 @@
         <v>75.63</v>
       </c>
       <c r="G32" t="n">
-        <v>68.3</v>
+        <v>66.97</v>
       </c>
       <c r="H32" t="n">
         <v>26.6</v>
@@ -1689,7 +1689,7 @@
         <v>78.53</v>
       </c>
       <c r="G33" t="n">
-        <v>72.18000000000001</v>
+        <v>70.55</v>
       </c>
       <c r="H33" t="n">
         <v>27.54</v>
@@ -1727,7 +1727,7 @@
         <v>83.40000000000001</v>
       </c>
       <c r="G34" t="n">
-        <v>73.52</v>
+        <v>70.39</v>
       </c>
       <c r="H34" t="n">
         <v>28.18</v>
@@ -1765,7 +1765,7 @@
         <v>76.77</v>
       </c>
       <c r="G35" t="n">
-        <v>68.43000000000001</v>
+        <v>68.12</v>
       </c>
       <c r="H35" t="n">
         <v>26.76</v>
@@ -1803,7 +1803,7 @@
         <v>77.89</v>
       </c>
       <c r="G36" t="n">
-        <v>70.45999999999999</v>
+        <v>68.17</v>
       </c>
       <c r="H36" t="n">
         <v>26.25</v>
@@ -1841,7 +1841,7 @@
         <v>81.56</v>
       </c>
       <c r="G37" t="n">
-        <v>72.28</v>
+        <v>70.38</v>
       </c>
       <c r="H37" t="n">
         <v>27.87</v>
@@ -1879,7 +1879,7 @@
         <v>64.28</v>
       </c>
       <c r="G38" t="n">
-        <v>59.93</v>
+        <v>59.64</v>
       </c>
       <c r="H38" t="n">
         <v>20.92</v>
@@ -1917,7 +1917,7 @@
         <v>69.73999999999999</v>
       </c>
       <c r="G39" t="n">
-        <v>65.19</v>
+        <v>64.55</v>
       </c>
       <c r="H39" t="n">
         <v>23.03</v>
@@ -1955,7 +1955,7 @@
         <v>42.04</v>
       </c>
       <c r="G40" t="n">
-        <v>38.61</v>
+        <v>38.44</v>
       </c>
       <c r="H40" t="n">
         <v>13.17</v>
@@ -1993,7 +1993,7 @@
         <v>67.52</v>
       </c>
       <c r="G41" t="n">
-        <v>63.03</v>
+        <v>62.45</v>
       </c>
       <c r="H41" t="n">
         <v>21.91</v>
@@ -2031,7 +2031,7 @@
         <v>69.18000000000001</v>
       </c>
       <c r="G42" t="n">
-        <v>64.36</v>
+        <v>63.45</v>
       </c>
       <c r="H42" t="n">
         <v>22.37</v>
@@ -2069,7 +2069,7 @@
         <v>59.18</v>
       </c>
       <c r="G43" t="n">
-        <v>57.48</v>
+        <v>57.42</v>
       </c>
       <c r="H43" t="n">
         <v>18.93</v>
@@ -2107,7 +2107,7 @@
         <v>64.37</v>
       </c>
       <c r="G44" t="n">
-        <v>59.22</v>
+        <v>58.59</v>
       </c>
       <c r="H44" t="n">
         <v>20.69</v>
@@ -2145,7 +2145,7 @@
         <v>60.35</v>
       </c>
       <c r="G45" t="n">
-        <v>57.42</v>
+        <v>57.05</v>
       </c>
       <c r="H45" t="n">
         <v>19.33</v>
@@ -2183,7 +2183,7 @@
         <v>54.67</v>
       </c>
       <c r="G46" t="n">
-        <v>51.17</v>
+        <v>50.74</v>
       </c>
       <c r="H46" t="n">
         <v>18.09</v>
@@ -2221,7 +2221,7 @@
         <v>61.83</v>
       </c>
       <c r="G47" t="n">
-        <v>58.9</v>
+        <v>58.4</v>
       </c>
       <c r="H47" t="n">
         <v>20.18</v>
@@ -2259,7 +2259,7 @@
         <v>53.27</v>
       </c>
       <c r="G48" t="n">
-        <v>49.5</v>
+        <v>49.25</v>
       </c>
       <c r="H48" t="n">
         <v>17.75</v>
@@ -2297,7 +2297,7 @@
         <v>58.99</v>
       </c>
       <c r="G49" t="n">
-        <v>56.96</v>
+        <v>56.59</v>
       </c>
       <c r="H49" t="n">
         <v>19.34</v>
@@ -2373,7 +2373,7 @@
         <v>56.52</v>
       </c>
       <c r="G51" t="n">
-        <v>52.87</v>
+        <v>51.83</v>
       </c>
       <c r="H51" t="n">
         <v>18.87</v>
@@ -2411,7 +2411,7 @@
         <v>52.82</v>
       </c>
       <c r="G52" t="n">
-        <v>50.3</v>
+        <v>49.7</v>
       </c>
       <c r="H52" t="n">
         <v>17.11</v>
@@ -2449,7 +2449,7 @@
         <v>56.79</v>
       </c>
       <c r="G53" t="n">
-        <v>54.4</v>
+        <v>54.24</v>
       </c>
       <c r="H53" t="n">
         <v>18.86</v>
@@ -2487,7 +2487,7 @@
         <v>63.02</v>
       </c>
       <c r="G54" t="n">
-        <v>58.95</v>
+        <v>58.16</v>
       </c>
       <c r="H54" t="n">
         <v>20.77</v>
@@ -2525,7 +2525,7 @@
         <v>48.04</v>
       </c>
       <c r="G55" t="n">
-        <v>46.54</v>
+        <v>45.99</v>
       </c>
       <c r="H55" t="n">
         <v>16.24</v>
@@ -2639,7 +2639,7 @@
         <v>46.29</v>
       </c>
       <c r="G58" t="n">
-        <v>43.86</v>
+        <v>43.35</v>
       </c>
       <c r="H58" t="n">
         <v>15.93</v>
@@ -2677,7 +2677,7 @@
         <v>46.87</v>
       </c>
       <c r="G59" t="n">
-        <v>45.65</v>
+        <v>45.1</v>
       </c>
       <c r="H59" t="n">
         <v>15.47</v>
@@ -2715,7 +2715,7 @@
         <v>42.67</v>
       </c>
       <c r="G60" t="n">
-        <v>41.67</v>
+        <v>40.93</v>
       </c>
       <c r="H60" t="n">
         <v>14.36</v>
@@ -2753,7 +2753,7 @@
         <v>47.97</v>
       </c>
       <c r="G61" t="n">
-        <v>46.89</v>
+        <v>45.86</v>
       </c>
       <c r="H61" t="n">
         <v>16.08</v>
@@ -2791,7 +2791,7 @@
         <v>44.83</v>
       </c>
       <c r="G62" t="n">
-        <v>43.92</v>
+        <v>43.71</v>
       </c>
       <c r="H62" t="n">
         <v>14.9</v>
@@ -2905,7 +2905,7 @@
         <v>41.85</v>
       </c>
       <c r="G65" t="n">
-        <v>40.07</v>
+        <v>39.45</v>
       </c>
       <c r="H65" t="n">
         <v>13.48</v>
@@ -2943,7 +2943,7 @@
         <v>42.69</v>
       </c>
       <c r="G66" t="n">
-        <v>40.42</v>
+        <v>39.73</v>
       </c>
       <c r="H66" t="n">
         <v>14</v>
@@ -2981,7 +2981,7 @@
         <v>41.9</v>
       </c>
       <c r="G67" t="n">
-        <v>41.06</v>
+        <v>40.99</v>
       </c>
       <c r="H67" t="n">
         <v>13.62</v>
@@ -3019,7 +3019,7 @@
         <v>41.67</v>
       </c>
       <c r="G68" t="n">
-        <v>40.6</v>
+        <v>40.52</v>
       </c>
       <c r="H68" t="n">
         <v>13.62</v>
@@ -3057,7 +3057,7 @@
         <v>42</v>
       </c>
       <c r="G69" t="n">
-        <v>40.24</v>
+        <v>39.78</v>
       </c>
       <c r="H69" t="n">
         <v>14.45</v>
@@ -3095,7 +3095,7 @@
         <v>40.6</v>
       </c>
       <c r="G70" t="n">
-        <v>39.38</v>
+        <v>39.13</v>
       </c>
       <c r="H70" t="n">
         <v>13.4</v>
@@ -3171,7 +3171,7 @@
         <v>41.48</v>
       </c>
       <c r="G72" t="n">
-        <v>40.04</v>
+        <v>39.99</v>
       </c>
       <c r="H72" t="n">
         <v>13.88</v>
@@ -3209,7 +3209,7 @@
         <v>41.36</v>
       </c>
       <c r="G73" t="n">
-        <v>38.21</v>
+        <v>38.02</v>
       </c>
       <c r="H73" t="n">
         <v>13.79</v>
@@ -3247,7 +3247,7 @@
         <v>40.88</v>
       </c>
       <c r="G74" t="n">
-        <v>39.59</v>
+        <v>39.58</v>
       </c>
       <c r="H74" t="n">
         <v>13.4</v>
@@ -3323,7 +3323,7 @@
         <v>46.65</v>
       </c>
       <c r="G76" t="n">
-        <v>45.47</v>
+        <v>45.26</v>
       </c>
       <c r="H76" t="n">
         <v>15.74</v>
@@ -3399,7 +3399,7 @@
         <v>40.4</v>
       </c>
       <c r="G78" t="n">
-        <v>38.55</v>
+        <v>38.1</v>
       </c>
       <c r="H78" t="n">
         <v>13.72</v>
@@ -3437,7 +3437,7 @@
         <v>40.8</v>
       </c>
       <c r="G79" t="n">
-        <v>38.16</v>
+        <v>38.08</v>
       </c>
       <c r="H79" t="n">
         <v>13.95</v>
@@ -3475,7 +3475,7 @@
         <v>41.48</v>
       </c>
       <c r="G80" t="n">
-        <v>39.89</v>
+        <v>39.81</v>
       </c>
       <c r="H80" t="n">
         <v>14.38</v>
@@ -3513,7 +3513,7 @@
         <v>37.77</v>
       </c>
       <c r="G81" t="n">
-        <v>36.78</v>
+        <v>36.59</v>
       </c>
       <c r="H81" t="n">
         <v>12.59</v>
@@ -3551,7 +3551,7 @@
         <v>39.21</v>
       </c>
       <c r="G82" t="n">
-        <v>37.21</v>
+        <v>36.82</v>
       </c>
       <c r="H82" t="n">
         <v>12.78</v>
@@ -3589,7 +3589,7 @@
         <v>36.22</v>
       </c>
       <c r="G83" t="n">
-        <v>35.22</v>
+        <v>35.1</v>
       </c>
       <c r="H83" t="n">
         <v>11.69</v>
@@ -3627,7 +3627,7 @@
         <v>37.55</v>
       </c>
       <c r="G84" t="n">
-        <v>36.6</v>
+        <v>36.54</v>
       </c>
       <c r="H84" t="n">
         <v>12.24</v>
@@ -3703,7 +3703,7 @@
         <v>39.42</v>
       </c>
       <c r="G86" t="n">
-        <v>36.97</v>
+        <v>35.01</v>
       </c>
       <c r="H86" t="n">
         <v>13.03</v>
@@ -3741,7 +3741,7 @@
         <v>36.37</v>
       </c>
       <c r="G87" t="n">
-        <v>35.37</v>
+        <v>35.29</v>
       </c>
       <c r="H87" t="n">
         <v>11.35</v>
@@ -3779,7 +3779,7 @@
         <v>41.12</v>
       </c>
       <c r="G88" t="n">
-        <v>38.34</v>
+        <v>38.31</v>
       </c>
       <c r="H88" t="n">
         <v>13.25</v>
@@ -3817,7 +3817,7 @@
         <v>34.78</v>
       </c>
       <c r="G89" t="n">
-        <v>32.81</v>
+        <v>32.76</v>
       </c>
       <c r="H89" t="n">
         <v>11.72</v>
@@ -3855,7 +3855,7 @@
         <v>38</v>
       </c>
       <c r="G90" t="n">
-        <v>35.81</v>
+        <v>34.81</v>
       </c>
       <c r="H90" t="n">
         <v>12.82</v>
@@ -3893,7 +3893,7 @@
         <v>86.86</v>
       </c>
       <c r="G91" t="n">
-        <v>79.28</v>
+        <v>71.42</v>
       </c>
       <c r="H91" t="n">
         <v>28.65</v>
@@ -3931,7 +3931,7 @@
         <v>97.31999999999999</v>
       </c>
       <c r="G92" t="n">
-        <v>91.95999999999999</v>
+        <v>91.94</v>
       </c>
       <c r="H92" t="n">
         <v>32.16</v>
@@ -3969,7 +3969,7 @@
         <v>75.01000000000001</v>
       </c>
       <c r="G93" t="n">
-        <v>68.26000000000001</v>
+        <v>67.86</v>
       </c>
       <c r="H93" t="n">
         <v>25.18</v>
@@ -4007,7 +4007,7 @@
         <v>79.98</v>
       </c>
       <c r="G94" t="n">
-        <v>78.44</v>
+        <v>72.26000000000001</v>
       </c>
       <c r="H94" t="n">
         <v>27.59</v>
@@ -4045,7 +4045,7 @@
         <v>89.43000000000001</v>
       </c>
       <c r="G95" t="n">
-        <v>85.94</v>
+        <v>84.63</v>
       </c>
       <c r="H95" t="n">
         <v>30.54</v>
@@ -4083,7 +4083,7 @@
         <v>80.31999999999999</v>
       </c>
       <c r="G96" t="n">
-        <v>74.31999999999999</v>
+        <v>72.13</v>
       </c>
       <c r="H96" t="n">
         <v>27.82</v>
@@ -4121,7 +4121,7 @@
         <v>79.73999999999999</v>
       </c>
       <c r="G97" t="n">
-        <v>74.42</v>
+        <v>70.66</v>
       </c>
       <c r="H97" t="n">
         <v>27.26</v>
@@ -4197,7 +4197,7 @@
         <v>76.72</v>
       </c>
       <c r="G99" t="n">
-        <v>70.43000000000001</v>
+        <v>66.17</v>
       </c>
       <c r="H99" t="n">
         <v>24.58</v>
@@ -4235,7 +4235,7 @@
         <v>72.67</v>
       </c>
       <c r="G100" t="n">
-        <v>67.31</v>
+        <v>65.3</v>
       </c>
       <c r="H100" t="n">
         <v>24.81</v>
@@ -4311,7 +4311,7 @@
         <v>71.2</v>
       </c>
       <c r="G102" t="n">
-        <v>66.05</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="H102" t="n">
         <v>24.1</v>
@@ -4349,7 +4349,7 @@
         <v>64.83</v>
       </c>
       <c r="G103" t="n">
-        <v>62.12</v>
+        <v>60.39</v>
       </c>
       <c r="H103" t="n">
         <v>22.26</v>
@@ -4387,7 +4387,7 @@
         <v>68.59</v>
       </c>
       <c r="G104" t="n">
-        <v>64.04000000000001</v>
+        <v>62.88</v>
       </c>
       <c r="H104" t="n">
         <v>23.19</v>
@@ -4425,7 +4425,7 @@
         <v>71.75</v>
       </c>
       <c r="G105" t="n">
-        <v>66.17</v>
+        <v>65.73</v>
       </c>
       <c r="H105" t="n">
         <v>23.61</v>
@@ -4463,7 +4463,7 @@
         <v>72.12</v>
       </c>
       <c r="G106" t="n">
-        <v>67.43000000000001</v>
+        <v>64.11</v>
       </c>
       <c r="H106" t="n">
         <v>24.71</v>
@@ -4501,7 +4501,7 @@
         <v>68.26000000000001</v>
       </c>
       <c r="G107" t="n">
-        <v>63.61</v>
+        <v>63.45</v>
       </c>
       <c r="H107" t="n">
         <v>22.73</v>
@@ -4539,7 +4539,7 @@
         <v>75.70999999999999</v>
       </c>
       <c r="G108" t="n">
-        <v>69.73999999999999</v>
+        <v>69.12</v>
       </c>
       <c r="H108" t="n">
         <v>25.19</v>

--- a/[1] Peakfinder Results/OVERVIEW.xlsx
+++ b/[1] Peakfinder Results/OVERVIEW.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J108"/>
+  <dimension ref="A1:I108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,11 +476,6 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>tau</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
           <t>AUC</t>
         </is>
       </c>
@@ -511,16 +506,13 @@
         <v>30.96</v>
       </c>
       <c r="G2" t="n">
-        <v>28.82</v>
+        <v>28.94</v>
       </c>
       <c r="H2" t="n">
         <v>10.27</v>
       </c>
       <c r="I2" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1216.03</v>
+        <v>800.0599999999999</v>
       </c>
     </row>
     <row r="3">
@@ -555,10 +547,7 @@
         <v>10.15</v>
       </c>
       <c r="I3" t="n">
-        <v>22.91</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1239.74</v>
+        <v>793.1799999999999</v>
       </c>
     </row>
     <row r="4">
@@ -593,10 +582,7 @@
         <v>6.98</v>
       </c>
       <c r="I4" t="n">
-        <v>13.62</v>
-      </c>
-      <c r="J4" t="n">
-        <v>713.91</v>
+        <v>459.48</v>
       </c>
     </row>
     <row r="5">
@@ -631,10 +617,7 @@
         <v>10.71</v>
       </c>
       <c r="I5" t="n">
-        <v>27.99</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1211.59</v>
+        <v>792.45</v>
       </c>
     </row>
     <row r="6">
@@ -663,16 +646,13 @@
         <v>30.29</v>
       </c>
       <c r="G6" t="n">
-        <v>28.65</v>
+        <v>28.74</v>
       </c>
       <c r="H6" t="n">
         <v>10.4</v>
       </c>
       <c r="I6" t="n">
-        <v>29.93</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1292.15</v>
+        <v>834.4299999999999</v>
       </c>
     </row>
     <row r="7">
@@ -701,16 +681,13 @@
         <v>31.9</v>
       </c>
       <c r="G7" t="n">
-        <v>29.85</v>
+        <v>30.04</v>
       </c>
       <c r="H7" t="n">
         <v>10.65</v>
       </c>
       <c r="I7" t="n">
-        <v>26.88</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1292.3</v>
+        <v>821.4400000000001</v>
       </c>
     </row>
     <row r="8">
@@ -739,16 +716,13 @@
         <v>32.04</v>
       </c>
       <c r="G8" t="n">
-        <v>29.14</v>
+        <v>29.61</v>
       </c>
       <c r="H8" t="n">
         <v>10.95</v>
       </c>
       <c r="I8" t="n">
-        <v>26.25</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1233.42</v>
+        <v>812.5700000000001</v>
       </c>
     </row>
     <row r="9">
@@ -777,16 +751,13 @@
         <v>32.57</v>
       </c>
       <c r="G9" t="n">
-        <v>30.05</v>
+        <v>30.15</v>
       </c>
       <c r="H9" t="n">
         <v>10.35</v>
       </c>
       <c r="I9" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1119.82</v>
+        <v>705.66</v>
       </c>
     </row>
     <row r="10">
@@ -815,16 +786,13 @@
         <v>28.17</v>
       </c>
       <c r="G10" t="n">
-        <v>24.25</v>
+        <v>24.67</v>
       </c>
       <c r="H10" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>21.01</v>
-      </c>
-      <c r="J10" t="n">
-        <v>961.16</v>
+        <v>625.42</v>
       </c>
     </row>
     <row r="11">
@@ -853,16 +821,13 @@
         <v>25.17</v>
       </c>
       <c r="G11" t="n">
-        <v>23.11</v>
+        <v>23.13</v>
       </c>
       <c r="H11" t="n">
         <v>8.130000000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>24.32</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1052.86</v>
+        <v>667.3099999999999</v>
       </c>
     </row>
     <row r="12">
@@ -891,16 +856,13 @@
         <v>26.73</v>
       </c>
       <c r="G12" t="n">
-        <v>24.36</v>
+        <v>24.7</v>
       </c>
       <c r="H12" t="n">
         <v>8.380000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="J12" t="n">
-        <v>983.5</v>
+        <v>647.45</v>
       </c>
     </row>
     <row r="13">
@@ -929,16 +891,13 @@
         <v>26.05</v>
       </c>
       <c r="G13" t="n">
-        <v>23.46</v>
+        <v>23.48</v>
       </c>
       <c r="H13" t="n">
         <v>8.470000000000001</v>
       </c>
       <c r="I13" t="n">
-        <v>18.62</v>
-      </c>
-      <c r="J13" t="n">
-        <v>901.64</v>
+        <v>587.54</v>
       </c>
     </row>
     <row r="14">
@@ -967,16 +926,13 @@
         <v>23.35</v>
       </c>
       <c r="G14" t="n">
-        <v>22.12</v>
+        <v>22.2</v>
       </c>
       <c r="H14" t="n">
         <v>7.25</v>
       </c>
       <c r="I14" t="n">
-        <v>15.86</v>
-      </c>
-      <c r="J14" t="n">
-        <v>886</v>
+        <v>559.59</v>
       </c>
     </row>
     <row r="15">
@@ -1011,10 +967,7 @@
         <v>7.44</v>
       </c>
       <c r="I15" t="n">
-        <v>20.18</v>
-      </c>
-      <c r="J15" t="n">
-        <v>909.1799999999999</v>
+        <v>585.37</v>
       </c>
     </row>
     <row r="16">
@@ -1049,10 +1002,7 @@
         <v>7.87</v>
       </c>
       <c r="I16" t="n">
-        <v>18.57</v>
-      </c>
-      <c r="J16" t="n">
-        <v>899.05</v>
+        <v>568.13</v>
       </c>
     </row>
     <row r="17">
@@ -1087,10 +1037,7 @@
         <v>7.51</v>
       </c>
       <c r="I17" t="n">
-        <v>20.87</v>
-      </c>
-      <c r="J17" t="n">
-        <v>919.6</v>
+        <v>609.7</v>
       </c>
     </row>
     <row r="18">
@@ -1119,16 +1066,13 @@
         <v>24.97</v>
       </c>
       <c r="G18" t="n">
-        <v>22.13</v>
+        <v>22.81</v>
       </c>
       <c r="H18" t="n">
         <v>8.01</v>
       </c>
       <c r="I18" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>913.63</v>
+        <v>622.22</v>
       </c>
     </row>
     <row r="19">
@@ -1163,10 +1107,7 @@
         <v>9.880000000000001</v>
       </c>
       <c r="I19" t="n">
-        <v>22.63</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1150.78</v>
+        <v>738.39</v>
       </c>
     </row>
     <row r="20">
@@ -1195,16 +1136,13 @@
         <v>87.48999999999999</v>
       </c>
       <c r="G20" t="n">
-        <v>75.2</v>
+        <v>77.83</v>
       </c>
       <c r="H20" t="n">
         <v>30.95</v>
       </c>
       <c r="I20" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="J20" t="n">
-        <v>4301.72</v>
+        <v>2838.65</v>
       </c>
     </row>
     <row r="21">
@@ -1233,16 +1171,13 @@
         <v>84.16</v>
       </c>
       <c r="G21" t="n">
-        <v>75.56</v>
+        <v>75.7</v>
       </c>
       <c r="H21" t="n">
         <v>29.37</v>
       </c>
       <c r="I21" t="n">
-        <v>43.77</v>
-      </c>
-      <c r="J21" t="n">
-        <v>4009.69</v>
+        <v>2610.98</v>
       </c>
     </row>
     <row r="22">
@@ -1277,10 +1212,7 @@
         <v>19.08</v>
       </c>
       <c r="I22" t="n">
-        <v>22.55</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1872.91</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="23">
@@ -1309,16 +1241,13 @@
         <v>85.79000000000001</v>
       </c>
       <c r="G23" t="n">
-        <v>72.72</v>
+        <v>76.28</v>
       </c>
       <c r="H23" t="n">
         <v>30.23</v>
       </c>
       <c r="I23" t="n">
-        <v>39.82</v>
-      </c>
-      <c r="J23" t="n">
-        <v>4011.51</v>
+        <v>2570.31</v>
       </c>
     </row>
     <row r="24">
@@ -1347,16 +1276,13 @@
         <v>84.98</v>
       </c>
       <c r="G24" t="n">
-        <v>78.72</v>
+        <v>81.51000000000001</v>
       </c>
       <c r="H24" t="n">
         <v>29.67</v>
       </c>
       <c r="I24" t="n">
-        <v>35.08</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3756.32</v>
+        <v>2417.06</v>
       </c>
     </row>
     <row r="25">
@@ -1385,16 +1311,13 @@
         <v>80.43000000000001</v>
       </c>
       <c r="G25" t="n">
-        <v>74.78</v>
+        <v>74.97</v>
       </c>
       <c r="H25" t="n">
         <v>28.2</v>
       </c>
       <c r="I25" t="n">
-        <v>45.41</v>
-      </c>
-      <c r="J25" t="n">
-        <v>4080.21</v>
+        <v>2568.53</v>
       </c>
     </row>
     <row r="26">
@@ -1423,16 +1346,13 @@
         <v>80.23999999999999</v>
       </c>
       <c r="G26" t="n">
-        <v>71.87</v>
+        <v>73.86</v>
       </c>
       <c r="H26" t="n">
         <v>28.27</v>
       </c>
       <c r="I26" t="n">
-        <v>35.75</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3723.63</v>
+        <v>2415.74</v>
       </c>
     </row>
     <row r="27">
@@ -1461,16 +1381,13 @@
         <v>78.48</v>
       </c>
       <c r="G27" t="n">
-        <v>71.06</v>
+        <v>71.52</v>
       </c>
       <c r="H27" t="n">
         <v>27.87</v>
       </c>
       <c r="I27" t="n">
-        <v>44.99</v>
-      </c>
-      <c r="J27" t="n">
-        <v>4007.44</v>
+        <v>2537.45</v>
       </c>
     </row>
     <row r="28">
@@ -1499,16 +1416,13 @@
         <v>77.45999999999999</v>
       </c>
       <c r="G28" t="n">
-        <v>70.15000000000001</v>
+        <v>70.97</v>
       </c>
       <c r="H28" t="n">
         <v>27.01</v>
       </c>
       <c r="I28" t="n">
-        <v>37.79</v>
-      </c>
-      <c r="J28" t="n">
-        <v>3556.92</v>
+        <v>2358.85</v>
       </c>
     </row>
     <row r="29">
@@ -1537,16 +1451,13 @@
         <v>77.48999999999999</v>
       </c>
       <c r="G29" t="n">
-        <v>68.34</v>
+        <v>70.31</v>
       </c>
       <c r="H29" t="n">
         <v>27.35</v>
       </c>
       <c r="I29" t="n">
-        <v>40.13</v>
-      </c>
-      <c r="J29" t="n">
-        <v>3707.36</v>
+        <v>2408.53</v>
       </c>
     </row>
     <row r="30">
@@ -1575,16 +1486,13 @@
         <v>74.42</v>
       </c>
       <c r="G30" t="n">
-        <v>68.48999999999999</v>
+        <v>69.26000000000001</v>
       </c>
       <c r="H30" t="n">
         <v>26.03</v>
       </c>
       <c r="I30" t="n">
-        <v>38.47</v>
-      </c>
-      <c r="J30" t="n">
-        <v>3280.28</v>
+        <v>2110.15</v>
       </c>
     </row>
     <row r="31">
@@ -1613,16 +1521,13 @@
         <v>77.76000000000001</v>
       </c>
       <c r="G31" t="n">
-        <v>70.42</v>
+        <v>72.28</v>
       </c>
       <c r="H31" t="n">
         <v>27.06</v>
       </c>
       <c r="I31" t="n">
-        <v>38.59</v>
-      </c>
-      <c r="J31" t="n">
-        <v>3600.08</v>
+        <v>2359.03</v>
       </c>
     </row>
     <row r="32">
@@ -1651,16 +1556,13 @@
         <v>75.63</v>
       </c>
       <c r="G32" t="n">
-        <v>66.97</v>
+        <v>68.3</v>
       </c>
       <c r="H32" t="n">
         <v>26.6</v>
       </c>
       <c r="I32" t="n">
-        <v>40.38</v>
-      </c>
-      <c r="J32" t="n">
-        <v>3688.12</v>
+        <v>2396.93</v>
       </c>
     </row>
     <row r="33">
@@ -1689,16 +1591,13 @@
         <v>78.53</v>
       </c>
       <c r="G33" t="n">
-        <v>70.55</v>
+        <v>72.18000000000001</v>
       </c>
       <c r="H33" t="n">
         <v>27.54</v>
       </c>
       <c r="I33" t="n">
-        <v>39.8</v>
-      </c>
-      <c r="J33" t="n">
-        <v>3683.64</v>
+        <v>2375.19</v>
       </c>
     </row>
     <row r="34">
@@ -1727,16 +1626,13 @@
         <v>83.40000000000001</v>
       </c>
       <c r="G34" t="n">
-        <v>70.39</v>
+        <v>73.52</v>
       </c>
       <c r="H34" t="n">
         <v>28.18</v>
       </c>
       <c r="I34" t="n">
-        <v>36.56</v>
-      </c>
-      <c r="J34" t="n">
-        <v>3641.14</v>
+        <v>2379.99</v>
       </c>
     </row>
     <row r="35">
@@ -1765,16 +1661,13 @@
         <v>76.77</v>
       </c>
       <c r="G35" t="n">
-        <v>68.12</v>
+        <v>68.43000000000001</v>
       </c>
       <c r="H35" t="n">
         <v>26.76</v>
       </c>
       <c r="I35" t="n">
-        <v>39.37</v>
-      </c>
-      <c r="J35" t="n">
-        <v>3621.5</v>
+        <v>2363.16</v>
       </c>
     </row>
     <row r="36">
@@ -1803,16 +1696,13 @@
         <v>77.89</v>
       </c>
       <c r="G36" t="n">
-        <v>68.17</v>
+        <v>70.45999999999999</v>
       </c>
       <c r="H36" t="n">
         <v>26.25</v>
       </c>
       <c r="I36" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="J36" t="n">
-        <v>3390.69</v>
+        <v>2210.74</v>
       </c>
     </row>
     <row r="37">
@@ -1841,16 +1731,13 @@
         <v>81.56</v>
       </c>
       <c r="G37" t="n">
-        <v>70.38</v>
+        <v>72.28</v>
       </c>
       <c r="H37" t="n">
         <v>27.87</v>
       </c>
       <c r="I37" t="n">
-        <v>39.04</v>
-      </c>
-      <c r="J37" t="n">
-        <v>3786.66</v>
+        <v>2426.18</v>
       </c>
     </row>
     <row r="38">
@@ -1879,16 +1766,13 @@
         <v>64.28</v>
       </c>
       <c r="G38" t="n">
-        <v>59.64</v>
+        <v>59.93</v>
       </c>
       <c r="H38" t="n">
         <v>20.92</v>
       </c>
       <c r="I38" t="n">
-        <v>34.25</v>
-      </c>
-      <c r="J38" t="n">
-        <v>2706.86</v>
+        <v>1789.54</v>
       </c>
     </row>
     <row r="39">
@@ -1917,16 +1801,13 @@
         <v>69.73999999999999</v>
       </c>
       <c r="G39" t="n">
-        <v>64.55</v>
+        <v>65.19</v>
       </c>
       <c r="H39" t="n">
         <v>23.03</v>
       </c>
       <c r="I39" t="n">
-        <v>35.83</v>
-      </c>
-      <c r="J39" t="n">
-        <v>2893.21</v>
+        <v>1951.67</v>
       </c>
     </row>
     <row r="40">
@@ -1955,16 +1836,13 @@
         <v>42.04</v>
       </c>
       <c r="G40" t="n">
-        <v>38.44</v>
+        <v>38.61</v>
       </c>
       <c r="H40" t="n">
         <v>13.17</v>
       </c>
       <c r="I40" t="n">
-        <v>22.83</v>
-      </c>
-      <c r="J40" t="n">
-        <v>1490.88</v>
+        <v>935.24</v>
       </c>
     </row>
     <row r="41">
@@ -1993,16 +1871,13 @@
         <v>67.52</v>
       </c>
       <c r="G41" t="n">
-        <v>62.45</v>
+        <v>63.03</v>
       </c>
       <c r="H41" t="n">
         <v>21.91</v>
       </c>
       <c r="I41" t="n">
-        <v>35.27</v>
-      </c>
-      <c r="J41" t="n">
-        <v>2834.5</v>
+        <v>1890.7</v>
       </c>
     </row>
     <row r="42">
@@ -2031,16 +1906,13 @@
         <v>69.18000000000001</v>
       </c>
       <c r="G42" t="n">
-        <v>63.45</v>
+        <v>64.36</v>
       </c>
       <c r="H42" t="n">
         <v>22.37</v>
       </c>
       <c r="I42" t="n">
-        <v>34.73</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2957.06</v>
+        <v>1947.19</v>
       </c>
     </row>
     <row r="43">
@@ -2069,16 +1941,13 @@
         <v>59.18</v>
       </c>
       <c r="G43" t="n">
-        <v>57.42</v>
+        <v>57.48</v>
       </c>
       <c r="H43" t="n">
         <v>18.93</v>
       </c>
       <c r="I43" t="n">
-        <v>30.71</v>
-      </c>
-      <c r="J43" t="n">
-        <v>2326.55</v>
+        <v>1502.2</v>
       </c>
     </row>
     <row r="44">
@@ -2107,16 +1976,13 @@
         <v>64.37</v>
       </c>
       <c r="G44" t="n">
-        <v>58.59</v>
+        <v>59.22</v>
       </c>
       <c r="H44" t="n">
         <v>20.69</v>
       </c>
       <c r="I44" t="n">
-        <v>37.37</v>
-      </c>
-      <c r="J44" t="n">
-        <v>2743.04</v>
+        <v>1815.54</v>
       </c>
     </row>
     <row r="45">
@@ -2145,16 +2011,13 @@
         <v>60.35</v>
       </c>
       <c r="G45" t="n">
-        <v>57.05</v>
+        <v>57.42</v>
       </c>
       <c r="H45" t="n">
         <v>19.33</v>
       </c>
       <c r="I45" t="n">
-        <v>29.33</v>
-      </c>
-      <c r="J45" t="n">
-        <v>2178.5</v>
+        <v>1376.15</v>
       </c>
     </row>
     <row r="46">
@@ -2183,16 +2046,13 @@
         <v>54.67</v>
       </c>
       <c r="G46" t="n">
-        <v>50.74</v>
+        <v>51.17</v>
       </c>
       <c r="H46" t="n">
         <v>18.09</v>
       </c>
       <c r="I46" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2151.46</v>
+        <v>1442.55</v>
       </c>
     </row>
     <row r="47">
@@ -2221,16 +2081,13 @@
         <v>61.83</v>
       </c>
       <c r="G47" t="n">
-        <v>58.4</v>
+        <v>58.9</v>
       </c>
       <c r="H47" t="n">
         <v>20.18</v>
       </c>
       <c r="I47" t="n">
-        <v>37.98</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2539.41</v>
+        <v>1615.19</v>
       </c>
     </row>
     <row r="48">
@@ -2259,16 +2116,13 @@
         <v>53.27</v>
       </c>
       <c r="G48" t="n">
-        <v>49.25</v>
+        <v>49.5</v>
       </c>
       <c r="H48" t="n">
         <v>17.75</v>
       </c>
       <c r="I48" t="n">
-        <v>30.33</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2030.34</v>
+        <v>1377.96</v>
       </c>
     </row>
     <row r="49">
@@ -2297,16 +2151,13 @@
         <v>58.99</v>
       </c>
       <c r="G49" t="n">
-        <v>56.59</v>
+        <v>56.96</v>
       </c>
       <c r="H49" t="n">
         <v>19.34</v>
       </c>
       <c r="I49" t="n">
-        <v>33.03</v>
-      </c>
-      <c r="J49" t="n">
-        <v>2414.72</v>
+        <v>1591.1</v>
       </c>
     </row>
     <row r="50">
@@ -2341,10 +2192,7 @@
         <v>18.16</v>
       </c>
       <c r="I50" t="n">
-        <v>30.13</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2120.18</v>
+        <v>1420.08</v>
       </c>
     </row>
     <row r="51">
@@ -2373,16 +2221,13 @@
         <v>56.52</v>
       </c>
       <c r="G51" t="n">
-        <v>51.83</v>
+        <v>52.87</v>
       </c>
       <c r="H51" t="n">
         <v>18.87</v>
       </c>
       <c r="I51" t="n">
-        <v>35.33</v>
-      </c>
-      <c r="J51" t="n">
-        <v>2449.56</v>
+        <v>1624.44</v>
       </c>
     </row>
     <row r="52">
@@ -2411,16 +2256,13 @@
         <v>52.82</v>
       </c>
       <c r="G52" t="n">
-        <v>49.7</v>
+        <v>50.3</v>
       </c>
       <c r="H52" t="n">
         <v>17.11</v>
       </c>
       <c r="I52" t="n">
-        <v>34.32</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2154.1</v>
+        <v>1426.86</v>
       </c>
     </row>
     <row r="53">
@@ -2449,16 +2291,13 @@
         <v>56.79</v>
       </c>
       <c r="G53" t="n">
-        <v>54.24</v>
+        <v>54.4</v>
       </c>
       <c r="H53" t="n">
         <v>18.86</v>
       </c>
       <c r="I53" t="n">
-        <v>31.69</v>
-      </c>
-      <c r="J53" t="n">
-        <v>2197.42</v>
+        <v>1432.7</v>
       </c>
     </row>
     <row r="54">
@@ -2487,16 +2326,13 @@
         <v>63.02</v>
       </c>
       <c r="G54" t="n">
-        <v>58.16</v>
+        <v>58.95</v>
       </c>
       <c r="H54" t="n">
         <v>20.77</v>
       </c>
       <c r="I54" t="n">
-        <v>33.85</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2682.56</v>
+        <v>1779.29</v>
       </c>
     </row>
     <row r="55">
@@ -2525,16 +2361,13 @@
         <v>48.04</v>
       </c>
       <c r="G55" t="n">
-        <v>45.99</v>
+        <v>46.54</v>
       </c>
       <c r="H55" t="n">
         <v>16.24</v>
       </c>
       <c r="I55" t="n">
-        <v>33.12</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2019.23</v>
+        <v>1276.46</v>
       </c>
     </row>
     <row r="56">
@@ -2569,10 +2402,7 @@
         <v>15.73</v>
       </c>
       <c r="I56" t="n">
-        <v>28.22</v>
-      </c>
-      <c r="J56" t="n">
-        <v>1850.26</v>
+        <v>1171.69</v>
       </c>
     </row>
     <row r="57">
@@ -2607,10 +2437,7 @@
         <v>9.77</v>
       </c>
       <c r="I57" t="n">
-        <v>17.79</v>
-      </c>
-      <c r="J57" t="n">
-        <v>941.71</v>
+        <v>632.96</v>
       </c>
     </row>
     <row r="58">
@@ -2639,16 +2466,13 @@
         <v>46.29</v>
       </c>
       <c r="G58" t="n">
-        <v>43.35</v>
+        <v>43.86</v>
       </c>
       <c r="H58" t="n">
         <v>15.93</v>
       </c>
       <c r="I58" t="n">
-        <v>34.12</v>
-      </c>
-      <c r="J58" t="n">
-        <v>2014.63</v>
+        <v>1276.07</v>
       </c>
     </row>
     <row r="59">
@@ -2677,16 +2501,13 @@
         <v>46.87</v>
       </c>
       <c r="G59" t="n">
-        <v>45.1</v>
+        <v>45.65</v>
       </c>
       <c r="H59" t="n">
         <v>15.47</v>
       </c>
       <c r="I59" t="n">
-        <v>30.15</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1897.54</v>
+        <v>1178.95</v>
       </c>
     </row>
     <row r="60">
@@ -2715,16 +2536,13 @@
         <v>42.67</v>
       </c>
       <c r="G60" t="n">
-        <v>40.93</v>
+        <v>41.67</v>
       </c>
       <c r="H60" t="n">
         <v>14.36</v>
       </c>
       <c r="I60" t="n">
-        <v>28.66</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1694.86</v>
+        <v>1060.55</v>
       </c>
     </row>
     <row r="61">
@@ -2753,16 +2571,13 @@
         <v>47.97</v>
       </c>
       <c r="G61" t="n">
-        <v>45.86</v>
+        <v>46.89</v>
       </c>
       <c r="H61" t="n">
         <v>16.08</v>
       </c>
       <c r="I61" t="n">
-        <v>31.92</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1943.29</v>
+        <v>1236.61</v>
       </c>
     </row>
     <row r="62">
@@ -2791,16 +2606,13 @@
         <v>44.83</v>
       </c>
       <c r="G62" t="n">
-        <v>43.71</v>
+        <v>43.92</v>
       </c>
       <c r="H62" t="n">
         <v>14.9</v>
       </c>
       <c r="I62" t="n">
-        <v>28.09</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1640.81</v>
+        <v>1031.52</v>
       </c>
     </row>
     <row r="63">
@@ -2835,10 +2647,7 @@
         <v>13.49</v>
       </c>
       <c r="I63" t="n">
-        <v>27.25</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1475.82</v>
+        <v>925.47</v>
       </c>
     </row>
     <row r="64">
@@ -2873,10 +2682,7 @@
         <v>12.53</v>
       </c>
       <c r="I64" t="n">
-        <v>24.63</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1356.69</v>
+        <v>840.16</v>
       </c>
     </row>
     <row r="65">
@@ -2905,16 +2711,13 @@
         <v>41.85</v>
       </c>
       <c r="G65" t="n">
-        <v>39.45</v>
+        <v>40.07</v>
       </c>
       <c r="H65" t="n">
         <v>13.48</v>
       </c>
       <c r="I65" t="n">
-        <v>25.64</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1516.31</v>
+        <v>946.67</v>
       </c>
     </row>
     <row r="66">
@@ -2943,16 +2746,13 @@
         <v>42.69</v>
       </c>
       <c r="G66" t="n">
-        <v>39.73</v>
+        <v>40.42</v>
       </c>
       <c r="H66" t="n">
         <v>14</v>
       </c>
       <c r="I66" t="n">
-        <v>27.11</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1532.44</v>
+        <v>991.8099999999999</v>
       </c>
     </row>
     <row r="67">
@@ -2981,16 +2781,13 @@
         <v>41.9</v>
       </c>
       <c r="G67" t="n">
-        <v>40.99</v>
+        <v>41.06</v>
       </c>
       <c r="H67" t="n">
         <v>13.62</v>
       </c>
       <c r="I67" t="n">
-        <v>28.05</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1604.39</v>
+        <v>993.75</v>
       </c>
     </row>
     <row r="68">
@@ -3019,16 +2816,13 @@
         <v>41.67</v>
       </c>
       <c r="G68" t="n">
-        <v>40.52</v>
+        <v>40.6</v>
       </c>
       <c r="H68" t="n">
         <v>13.62</v>
       </c>
       <c r="I68" t="n">
-        <v>25.39</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1448.08</v>
+        <v>917.71</v>
       </c>
     </row>
     <row r="69">
@@ -3057,16 +2851,13 @@
         <v>42</v>
       </c>
       <c r="G69" t="n">
-        <v>39.78</v>
+        <v>40.24</v>
       </c>
       <c r="H69" t="n">
         <v>14.45</v>
       </c>
       <c r="I69" t="n">
-        <v>33.21</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1936.22</v>
+        <v>1209.61</v>
       </c>
     </row>
     <row r="70">
@@ -3095,16 +2886,13 @@
         <v>40.6</v>
       </c>
       <c r="G70" t="n">
-        <v>39.13</v>
+        <v>39.38</v>
       </c>
       <c r="H70" t="n">
         <v>13.4</v>
       </c>
       <c r="I70" t="n">
-        <v>29.14</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1717.01</v>
+        <v>1064.13</v>
       </c>
     </row>
     <row r="71">
@@ -3139,10 +2927,7 @@
         <v>15.37</v>
       </c>
       <c r="I71" t="n">
-        <v>31.13</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1725.51</v>
+        <v>1099.78</v>
       </c>
     </row>
     <row r="72">
@@ -3171,16 +2956,13 @@
         <v>41.48</v>
       </c>
       <c r="G72" t="n">
-        <v>39.99</v>
+        <v>40.04</v>
       </c>
       <c r="H72" t="n">
         <v>13.88</v>
       </c>
       <c r="I72" t="n">
-        <v>24.98</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1458.69</v>
+        <v>931.08</v>
       </c>
     </row>
     <row r="73">
@@ -3209,16 +2991,13 @@
         <v>41.36</v>
       </c>
       <c r="G73" t="n">
-        <v>38.02</v>
+        <v>38.21</v>
       </c>
       <c r="H73" t="n">
         <v>13.79</v>
       </c>
       <c r="I73" t="n">
-        <v>29.87</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1599.9</v>
+        <v>1013.66</v>
       </c>
     </row>
     <row r="74">
@@ -3247,16 +3026,13 @@
         <v>40.88</v>
       </c>
       <c r="G74" t="n">
-        <v>39.58</v>
+        <v>39.59</v>
       </c>
       <c r="H74" t="n">
         <v>13.4</v>
       </c>
       <c r="I74" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1477.73</v>
+        <v>948.5</v>
       </c>
     </row>
     <row r="75">
@@ -3291,10 +3067,7 @@
         <v>8.960000000000001</v>
       </c>
       <c r="I75" t="n">
-        <v>17.94</v>
-      </c>
-      <c r="J75" t="n">
-        <v>960.97</v>
+        <v>602.72</v>
       </c>
     </row>
     <row r="76">
@@ -3323,16 +3096,13 @@
         <v>46.65</v>
       </c>
       <c r="G76" t="n">
-        <v>45.26</v>
+        <v>45.47</v>
       </c>
       <c r="H76" t="n">
         <v>15.74</v>
       </c>
       <c r="I76" t="n">
-        <v>30.34</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1901.9</v>
+        <v>1207.75</v>
       </c>
     </row>
     <row r="77">
@@ -3367,10 +3137,7 @@
         <v>11.28</v>
       </c>
       <c r="I77" t="n">
-        <v>29.66</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1329.72</v>
+        <v>861.9400000000001</v>
       </c>
     </row>
     <row r="78">
@@ -3399,16 +3166,13 @@
         <v>40.4</v>
       </c>
       <c r="G78" t="n">
-        <v>38.1</v>
+        <v>38.55</v>
       </c>
       <c r="H78" t="n">
         <v>13.72</v>
       </c>
       <c r="I78" t="n">
-        <v>32.08</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1663.19</v>
+        <v>1044.27</v>
       </c>
     </row>
     <row r="79">
@@ -3437,16 +3201,13 @@
         <v>40.8</v>
       </c>
       <c r="G79" t="n">
-        <v>38.08</v>
+        <v>38.16</v>
       </c>
       <c r="H79" t="n">
         <v>13.95</v>
       </c>
       <c r="I79" t="n">
-        <v>28.29</v>
-      </c>
-      <c r="J79" t="n">
-        <v>1582.13</v>
+        <v>1008.83</v>
       </c>
     </row>
     <row r="80">
@@ -3475,16 +3236,13 @@
         <v>41.48</v>
       </c>
       <c r="G80" t="n">
-        <v>39.81</v>
+        <v>39.89</v>
       </c>
       <c r="H80" t="n">
         <v>14.38</v>
       </c>
       <c r="I80" t="n">
-        <v>31.95</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1806.83</v>
+        <v>1135.13</v>
       </c>
     </row>
     <row r="81">
@@ -3513,16 +3271,13 @@
         <v>37.77</v>
       </c>
       <c r="G81" t="n">
-        <v>36.59</v>
+        <v>36.78</v>
       </c>
       <c r="H81" t="n">
         <v>12.59</v>
       </c>
       <c r="I81" t="n">
-        <v>27.99</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1420.96</v>
+        <v>882.39</v>
       </c>
     </row>
     <row r="82">
@@ -3551,16 +3306,13 @@
         <v>39.21</v>
       </c>
       <c r="G82" t="n">
-        <v>36.82</v>
+        <v>37.21</v>
       </c>
       <c r="H82" t="n">
         <v>12.78</v>
       </c>
       <c r="I82" t="n">
-        <v>27.45</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1468.76</v>
+        <v>956.01</v>
       </c>
     </row>
     <row r="83">
@@ -3589,16 +3341,13 @@
         <v>36.22</v>
       </c>
       <c r="G83" t="n">
-        <v>35.1</v>
+        <v>35.22</v>
       </c>
       <c r="H83" t="n">
         <v>11.69</v>
       </c>
       <c r="I83" t="n">
-        <v>26.91</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1299.95</v>
+        <v>837.28</v>
       </c>
     </row>
     <row r="84">
@@ -3627,16 +3376,13 @@
         <v>37.55</v>
       </c>
       <c r="G84" t="n">
-        <v>36.54</v>
+        <v>36.6</v>
       </c>
       <c r="H84" t="n">
         <v>12.24</v>
       </c>
       <c r="I84" t="n">
-        <v>28.05</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1347.86</v>
+        <v>844.36</v>
       </c>
     </row>
     <row r="85">
@@ -3671,10 +3417,7 @@
         <v>12.62</v>
       </c>
       <c r="I85" t="n">
-        <v>25.93</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1437.25</v>
+        <v>901.33</v>
       </c>
     </row>
     <row r="86">
@@ -3703,16 +3446,13 @@
         <v>39.42</v>
       </c>
       <c r="G86" t="n">
-        <v>35.01</v>
+        <v>36.97</v>
       </c>
       <c r="H86" t="n">
         <v>13.03</v>
       </c>
       <c r="I86" t="n">
-        <v>26.88</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1546.09</v>
+        <v>979.75</v>
       </c>
     </row>
     <row r="87">
@@ -3741,16 +3481,13 @@
         <v>36.37</v>
       </c>
       <c r="G87" t="n">
-        <v>35.29</v>
+        <v>35.37</v>
       </c>
       <c r="H87" t="n">
         <v>11.35</v>
       </c>
       <c r="I87" t="n">
-        <v>21.86</v>
-      </c>
-      <c r="J87" t="n">
-        <v>1235.48</v>
+        <v>765.99</v>
       </c>
     </row>
     <row r="88">
@@ -3779,16 +3516,13 @@
         <v>41.12</v>
       </c>
       <c r="G88" t="n">
-        <v>38.31</v>
+        <v>38.34</v>
       </c>
       <c r="H88" t="n">
         <v>13.25</v>
       </c>
       <c r="I88" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1605.4</v>
+        <v>1014.69</v>
       </c>
     </row>
     <row r="89">
@@ -3817,16 +3551,13 @@
         <v>34.78</v>
       </c>
       <c r="G89" t="n">
-        <v>32.76</v>
+        <v>32.81</v>
       </c>
       <c r="H89" t="n">
         <v>11.72</v>
       </c>
       <c r="I89" t="n">
-        <v>28</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1418.32</v>
+        <v>888.9</v>
       </c>
     </row>
     <row r="90">
@@ -3855,16 +3586,13 @@
         <v>38</v>
       </c>
       <c r="G90" t="n">
-        <v>34.81</v>
+        <v>35.81</v>
       </c>
       <c r="H90" t="n">
         <v>12.82</v>
       </c>
       <c r="I90" t="n">
-        <v>26.41</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1418.3</v>
+        <v>911.54</v>
       </c>
     </row>
     <row r="91">
@@ -3893,16 +3621,13 @@
         <v>86.86</v>
       </c>
       <c r="G91" t="n">
-        <v>71.42</v>
+        <v>79.28</v>
       </c>
       <c r="H91" t="n">
         <v>28.65</v>
       </c>
       <c r="I91" t="n">
-        <v>28.11</v>
-      </c>
-      <c r="J91" t="n">
-        <v>3497.38</v>
+        <v>2422.54</v>
       </c>
     </row>
     <row r="92">
@@ -3931,16 +3656,13 @@
         <v>97.31999999999999</v>
       </c>
       <c r="G92" t="n">
-        <v>91.94</v>
+        <v>91.95999999999999</v>
       </c>
       <c r="H92" t="n">
         <v>32.16</v>
       </c>
       <c r="I92" t="n">
-        <v>38.1</v>
-      </c>
-      <c r="J92" t="n">
-        <v>4508.56</v>
+        <v>2927.71</v>
       </c>
     </row>
     <row r="93">
@@ -3969,16 +3691,13 @@
         <v>75.01000000000001</v>
       </c>
       <c r="G93" t="n">
-        <v>67.86</v>
+        <v>68.26000000000001</v>
       </c>
       <c r="H93" t="n">
         <v>25.18</v>
       </c>
       <c r="I93" t="n">
-        <v>34.36</v>
-      </c>
-      <c r="J93" t="n">
-        <v>3108.63</v>
+        <v>2046.52</v>
       </c>
     </row>
     <row r="94">
@@ -4007,16 +3726,13 @@
         <v>79.98</v>
       </c>
       <c r="G94" t="n">
-        <v>72.26000000000001</v>
+        <v>78.44</v>
       </c>
       <c r="H94" t="n">
         <v>27.59</v>
       </c>
       <c r="I94" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="J94" t="n">
-        <v>3811.05</v>
+        <v>2453.95</v>
       </c>
     </row>
     <row r="95">
@@ -4045,16 +3761,13 @@
         <v>89.43000000000001</v>
       </c>
       <c r="G95" t="n">
-        <v>84.63</v>
+        <v>85.94</v>
       </c>
       <c r="H95" t="n">
         <v>30.54</v>
       </c>
       <c r="I95" t="n">
-        <v>40.39</v>
-      </c>
-      <c r="J95" t="n">
-        <v>4448.18</v>
+        <v>2860.2</v>
       </c>
     </row>
     <row r="96">
@@ -4083,16 +3796,13 @@
         <v>80.31999999999999</v>
       </c>
       <c r="G96" t="n">
-        <v>72.13</v>
+        <v>74.31999999999999</v>
       </c>
       <c r="H96" t="n">
         <v>27.82</v>
       </c>
       <c r="I96" t="n">
-        <v>33.19</v>
-      </c>
-      <c r="J96" t="n">
-        <v>3547.03</v>
+        <v>2366.59</v>
       </c>
     </row>
     <row r="97">
@@ -4121,16 +3831,13 @@
         <v>79.73999999999999</v>
       </c>
       <c r="G97" t="n">
-        <v>70.66</v>
+        <v>74.42</v>
       </c>
       <c r="H97" t="n">
         <v>27.26</v>
       </c>
       <c r="I97" t="n">
-        <v>33.23</v>
-      </c>
-      <c r="J97" t="n">
-        <v>3869.71</v>
+        <v>2539.14</v>
       </c>
     </row>
     <row r="98">
@@ -4165,10 +3872,7 @@
         <v>30</v>
       </c>
       <c r="I98" t="n">
-        <v>36.67</v>
-      </c>
-      <c r="J98" t="n">
-        <v>3993</v>
+        <v>2648.54</v>
       </c>
     </row>
     <row r="99">
@@ -4197,16 +3901,13 @@
         <v>76.72</v>
       </c>
       <c r="G99" t="n">
-        <v>66.17</v>
+        <v>70.43000000000001</v>
       </c>
       <c r="H99" t="n">
         <v>24.58</v>
       </c>
       <c r="I99" t="n">
-        <v>28.85</v>
-      </c>
-      <c r="J99" t="n">
-        <v>3251.74</v>
+        <v>2139.65</v>
       </c>
     </row>
     <row r="100">
@@ -4235,16 +3936,13 @@
         <v>72.67</v>
       </c>
       <c r="G100" t="n">
-        <v>65.3</v>
+        <v>67.31</v>
       </c>
       <c r="H100" t="n">
         <v>24.81</v>
       </c>
       <c r="I100" t="n">
-        <v>56.11</v>
-      </c>
-      <c r="J100" t="n">
-        <v>3547.77</v>
+        <v>2254.46</v>
       </c>
     </row>
     <row r="101">
@@ -4279,10 +3977,7 @@
         <v>24.9</v>
       </c>
       <c r="I101" t="n">
-        <v>35.89</v>
-      </c>
-      <c r="J101" t="n">
-        <v>3602.33</v>
+        <v>2299.77</v>
       </c>
     </row>
     <row r="102">
@@ -4311,16 +4006,13 @@
         <v>71.2</v>
       </c>
       <c r="G102" t="n">
-        <v>64.59999999999999</v>
+        <v>66.05</v>
       </c>
       <c r="H102" t="n">
         <v>24.1</v>
       </c>
       <c r="I102" t="n">
-        <v>36.92</v>
-      </c>
-      <c r="J102" t="n">
-        <v>3170.68</v>
+        <v>2134.62</v>
       </c>
     </row>
     <row r="103">
@@ -4349,16 +4041,13 @@
         <v>64.83</v>
       </c>
       <c r="G103" t="n">
-        <v>60.39</v>
+        <v>62.12</v>
       </c>
       <c r="H103" t="n">
         <v>22.26</v>
       </c>
       <c r="I103" t="n">
-        <v>28.78</v>
-      </c>
-      <c r="J103" t="n">
-        <v>2846.53</v>
+        <v>1874.2</v>
       </c>
     </row>
     <row r="104">
@@ -4387,16 +4076,13 @@
         <v>68.59</v>
       </c>
       <c r="G104" t="n">
-        <v>62.88</v>
+        <v>64.04000000000001</v>
       </c>
       <c r="H104" t="n">
         <v>23.19</v>
       </c>
       <c r="I104" t="n">
-        <v>30.73</v>
-      </c>
-      <c r="J104" t="n">
-        <v>3030.1</v>
+        <v>1933.14</v>
       </c>
     </row>
     <row r="105">
@@ -4425,16 +4111,13 @@
         <v>71.75</v>
       </c>
       <c r="G105" t="n">
-        <v>65.73</v>
+        <v>66.17</v>
       </c>
       <c r="H105" t="n">
         <v>23.61</v>
       </c>
       <c r="I105" t="n">
-        <v>443999.11</v>
-      </c>
-      <c r="J105" t="n">
-        <v>3429.84</v>
+        <v>2233.03</v>
       </c>
     </row>
     <row r="106">
@@ -4463,16 +4146,13 @@
         <v>72.12</v>
       </c>
       <c r="G106" t="n">
-        <v>64.11</v>
+        <v>67.43000000000001</v>
       </c>
       <c r="H106" t="n">
         <v>24.71</v>
       </c>
       <c r="I106" t="n">
-        <v>29.78</v>
-      </c>
-      <c r="J106" t="n">
-        <v>3038.67</v>
+        <v>1948.15</v>
       </c>
     </row>
     <row r="107">
@@ -4501,16 +4181,13 @@
         <v>68.26000000000001</v>
       </c>
       <c r="G107" t="n">
-        <v>63.45</v>
+        <v>63.61</v>
       </c>
       <c r="H107" t="n">
         <v>22.73</v>
       </c>
       <c r="I107" t="n">
-        <v>32.73</v>
-      </c>
-      <c r="J107" t="n">
-        <v>3116.74</v>
+        <v>2016.5</v>
       </c>
     </row>
     <row r="108">
@@ -4539,16 +4216,13 @@
         <v>75.70999999999999</v>
       </c>
       <c r="G108" t="n">
-        <v>69.12</v>
+        <v>69.73999999999999</v>
       </c>
       <c r="H108" t="n">
         <v>25.19</v>
       </c>
       <c r="I108" t="n">
-        <v>28.79</v>
-      </c>
-      <c r="J108" t="n">
-        <v>3237.56</v>
+        <v>2188.67</v>
       </c>
     </row>
   </sheetData>
